--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/DDF-RA/Deliverables/RULES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888346D7-78F6-474A-9C06-3EE0EBEE785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BEB57-8B06-49B8-9752-71D4C7A72E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37180" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{FD5C46AD-16BF-684D-8C46-66A3FCF6505C}"/>
+    <workbookView xWindow="8745" yWindow="-18180" windowWidth="24270" windowHeight="15345" xr2:uid="{F85708E1-B12A-4783-ABBB-EFA41948D807}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="USDM v3.0 rules" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'USDM v3.0 rules'!$A$1:$U$133</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,26 +38,1504 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="430">
+  <si>
+    <t>Textual statement of rule</t>
+  </si>
+  <si>
+    <t>Classe(s) to which the rule applies</t>
+  </si>
+  <si>
+    <t>Attributes within the class(es) to which the rule applies</t>
+  </si>
+  <si>
+    <t>Version 3.0</t>
+  </si>
+  <si>
+    <t>Version 4.0</t>
+  </si>
+  <si>
+    <t>CHK0001</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>CHK0002</t>
+  </si>
+  <si>
+    <t>Data types of attributes (string, number, boolean) conform with the API specification.</t>
+  </si>
+  <si>
+    <t>CHK0003</t>
+  </si>
+  <si>
+    <t>A timing can only be defined relative to/from a scheduled activity/decision instance that is defined within the same timeline as the timing.</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>relativeFromScheduledInstance, relativeToScheduledInstance</t>
+  </si>
+  <si>
+    <t>CHK0004</t>
+  </si>
+  <si>
+    <t>Within a study design, there should be at least 1 eligibility criterion that is referenced by either a study population or a cohort.</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>CHK0005</t>
+  </si>
+  <si>
+    <t>Within a study version, all id values should be unique.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>CHK0009</t>
+  </si>
+  <si>
+    <t>Within a scope (i.e. the same parent class), all names of instances of a class are unique.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>DDF00010</t>
+  </si>
+  <si>
+    <t>CHK0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of the study identifiers defined for a study version, maximum one can have an identifier scope that references a clinical study sponsor organization. </t>
+  </si>
+  <si>
+    <t>StudyIdentifier</t>
+  </si>
+  <si>
+    <t>studyIdentfierScope</t>
+  </si>
+  <si>
+    <t>DDF00005</t>
+  </si>
+  <si>
+    <t>CHK0013</t>
+  </si>
+  <si>
+    <t>Within a study version, if more than 1 business therapeutic area is defined the they should be distinct.</t>
+  </si>
+  <si>
+    <t>businesTherapeuticAreas</t>
+  </si>
+  <si>
+    <t>DDF00032</t>
+  </si>
+  <si>
+    <t>CHK0017</t>
+  </si>
+  <si>
+    <t>Within timing, if one of the window attributes is defined then all (windowLabel, windowLower and windowUpper) are expected to be filled.</t>
+  </si>
+  <si>
+    <t>windowLabel, windowLower, windowUpper</t>
+  </si>
+  <si>
+    <t>DDF00006</t>
+  </si>
+  <si>
+    <t>CHK0018</t>
+  </si>
+  <si>
+    <t>A window should not be defined for a Fixed Reference timing (i.e., windowLabel, windowLower and windowUpper should all be blank for a Timing with a type of "Fixed Reference").</t>
+  </si>
+  <si>
+    <t>DDF00025</t>
+  </si>
+  <si>
+    <t>CHK0019</t>
+  </si>
+  <si>
+    <t>If duration will vary (attribute durationWillVary is True) then a reason (attribute reasonDurationWillVary) should be given and vice versa.</t>
+  </si>
+  <si>
+    <t>AdministrationDuration</t>
+  </si>
+  <si>
+    <t>durationWillVary, reasonDurationWillVary</t>
+  </si>
+  <si>
+    <t>DDF00004</t>
+  </si>
+  <si>
+    <t>CHK0085</t>
+  </si>
+  <si>
+    <t>Within a study design, the planned age range should be specified either in the study population or in all cohorts</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>CHK0021</t>
+  </si>
+  <si>
+    <t>Within subject enrollment, the quantity should be a number or a percentage (i.e. the unit should be empty or %)</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>CHK0024</t>
+  </si>
+  <si>
+    <t>For a scheduled activity instance or a scheduled decision instance either default condition or timeline exit should be completed not both.</t>
+  </si>
+  <si>
+    <t>ScheduledActivityInstance, ScheduledDecisionInstance</t>
+  </si>
+  <si>
+    <t>timelineExit, defaultCondition</t>
+  </si>
+  <si>
+    <t>DDF00008</t>
+  </si>
+  <si>
+    <t>CHK0025</t>
+  </si>
+  <si>
+    <t>If a biomedical concept property is required then it should also be enabled, while if it is not enabled then it should not be required.</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptProperty</t>
+  </si>
+  <si>
+    <t>isRequired, isEnabled</t>
+  </si>
+  <si>
+    <t>DDF00013</t>
+  </si>
+  <si>
+    <t>CHK0026</t>
+  </si>
+  <si>
+    <t>The study phase identified for a study version should be coded according to SDTM codelist C66737.</t>
+  </si>
+  <si>
+    <t>StudyVersion</t>
+  </si>
+  <si>
+    <t>studyPhase</t>
+  </si>
+  <si>
+    <t>DDF00015</t>
+  </si>
+  <si>
+    <t>CHK0027</t>
+  </si>
+  <si>
+    <t>A specified condition for assessments should apply to at least to a procedure, biomedical concept, biomedical concept surrogate, biomedical concept category or a whole activity.</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>appliesTo</t>
+  </si>
+  <si>
+    <t>CHK0028</t>
+  </si>
+  <si>
+    <t>If the reason for a study amendment is 'Other' then this should be specified (attribute reasonOther should be completed)</t>
+  </si>
+  <si>
+    <t>StudyAmendmentReason</t>
+  </si>
+  <si>
+    <t>code otherReason</t>
+  </si>
+  <si>
+    <t>DDF00020</t>
+  </si>
+  <si>
+    <t>CHK0029</t>
+  </si>
+  <si>
+    <t>If timing type is "Fixed Reference" then the corresponding attribute relativeToFrom should be filled with "Start to Start"</t>
+  </si>
+  <si>
+    <t>relativeToFrom</t>
+  </si>
+  <si>
+    <t>DDF00036</t>
+  </si>
+  <si>
+    <t>CHK0030</t>
+  </si>
+  <si>
+    <t>Within a study design, there should be at least one scheduled timeline which identifies as the main Timeline.</t>
+  </si>
+  <si>
+    <t>ScheduleTimeline</t>
+  </si>
+  <si>
+    <t>mainTimeline</t>
+  </si>
+  <si>
+    <t>DDF00012</t>
+  </si>
+  <si>
+    <t>CHK0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within a schedule timeline, at least one scheduled activity instance should be referenced (by attribute relativeFromScheduledInstance) by a timing of type  "Fixed Reference"  </t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>CHK0032</t>
+  </si>
+  <si>
+    <t>If timing type is "Fixed Reference" then it should point to one scheduled instance (e.g. attribute relativeToScheduledInstance should be equal to relativeFromScheduledInstance or it should be missing).</t>
+  </si>
+  <si>
+    <t>relativeToScheduledInstance</t>
+  </si>
+  <si>
+    <t>DDF00007</t>
+  </si>
+  <si>
+    <t>CHK0033</t>
+  </si>
+  <si>
+    <t>If timing type is not "Fixed Reference" then it should point to two scheduled instances (e.g. attribute relativeToScheduledInstance  relativeFromScheduledInstance should not be missing and should not be equal toeach other).</t>
+  </si>
+  <si>
+    <t>DDF00031</t>
+  </si>
+  <si>
+    <t>CHK0034</t>
+  </si>
+  <si>
+    <t>At least one scheduled activity instance or scheduled decision instance within a timeline points to a timelineExit.</t>
+  </si>
+  <si>
+    <t>timelineExit</t>
+  </si>
+  <si>
+    <t>DDF00037</t>
+  </si>
+  <si>
+    <t>CHK0035</t>
+  </si>
+  <si>
+    <t>Within a study design there should be at least 1 objective with level 'Primary Objective'.</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>CHK0036</t>
+  </si>
+  <si>
+    <t>Within a study design, there should be at least 1 endpoint with level primary.</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>DDF00041</t>
+  </si>
+  <si>
+    <t>CHK0038</t>
+  </si>
+  <si>
+    <t>Within a study design, each element is at least referred by one study cell.</t>
+  </si>
+  <si>
+    <t>studyCell</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>DDF00040</t>
+  </si>
+  <si>
+    <t>CHK0040</t>
+  </si>
+  <si>
+    <t>To ensure consistent ordering, when both previous and next attributes are available within an entity the previous id value should match the next id value of the referred instance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity, EligibilityCriterion, Encounter, NarrativeContent, StudyEpoch </t>
+  </si>
+  <si>
+    <t>previous, next</t>
+  </si>
+  <si>
+    <t>CHK0087</t>
+  </si>
+  <si>
+    <t>Within a study design, the planned sex should be specified either in the study population or in all cohorts</t>
+  </si>
+  <si>
+    <t>plannedSex</t>
+  </si>
+  <si>
+    <t>CHK0043</t>
+  </si>
+  <si>
+    <t>To ensure consistent ordering, the same instance cannot be referenced more than once as previous or next.</t>
+  </si>
+  <si>
+    <t>CHK0044</t>
+  </si>
+  <si>
+    <t>Encounter ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their defaultcondition attribute.</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>CHK0045</t>
+  </si>
+  <si>
+    <t>Epoch ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their defaultcondition attribute.</t>
+  </si>
+  <si>
+    <t>CHK0048</t>
+  </si>
+  <si>
+    <t>References in text to items stored elsewhere in the data model should be according to '&lt;usdm:ref klass="klassName" id="idValue" attribute="attributeName"/&gt;'.</t>
+  </si>
+  <si>
+    <t>EligibilityCriterion, Characteristics, Condition, Objective, Endpoint</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>DDF00038</t>
+  </si>
+  <si>
+    <t>CHK0049</t>
+  </si>
+  <si>
+    <t>Referenced items in the text should be available elsewhere in the data model.</t>
+  </si>
+  <si>
+    <t>CHK0050</t>
+  </si>
+  <si>
+    <t>References in narrative content to items stored elsewhere in the data model should be according to '&lt;usdm:ref klass="klassName" id="idValue" attribute="attributeName"/&gt;'.</t>
+  </si>
+  <si>
+    <t>NarrativeContent</t>
+  </si>
+  <si>
+    <t>CHK0052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The previous attribute cannot refer to the id of the same instance. </t>
+  </si>
+  <si>
+    <t>StudyEpoch, Encounter, Activity, NarrativeContent, EligibilityCriterion, StudyAmendment</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>CHK0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The children attribute should not refer to the id of the same instance. </t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory, StudyProtocolDocumentVersion, NarrativeContent</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>CHK0060</t>
+  </si>
+  <si>
+    <t>A biomedical concept category is expected to have at least a member or a child.</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory</t>
+  </si>
+  <si>
+    <t>members, children</t>
+  </si>
+  <si>
+    <t>CHK0061</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept category is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>bcCategories</t>
+  </si>
+  <si>
+    <t>CHK0062</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>biomedicalConcepts</t>
+  </si>
+  <si>
+    <t>CHK0063</t>
+  </si>
+  <si>
+    <t>Each specified procedure is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>definedProcedures</t>
+  </si>
+  <si>
+    <t>CHK0064</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept surrogate is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>bcSurrogates</t>
+  </si>
+  <si>
+    <t>CHK0065</t>
+  </si>
+  <si>
+    <t>If a biomedical concept is referenced from an activity then it is not expected to be referenced as well by a biomedical concept category that is referenced from the same activity.</t>
+  </si>
+  <si>
+    <t>Activity, biomedicalConceptCategory</t>
+  </si>
+  <si>
+    <t>biomedicalConcepts, members</t>
+  </si>
+  <si>
+    <t>CHK0066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A study intervention referenced from a procedure should exist within the same study design. </t>
+  </si>
+  <si>
+    <t>studyIntervention</t>
+  </si>
+  <si>
+    <t>CHK0068</t>
+  </si>
+  <si>
+    <t>At least one attribute should be specified for an address.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>CHK0069</t>
+  </si>
+  <si>
+    <t>There should not be duplicates in the aliases for the same standard code.</t>
+  </si>
+  <si>
+    <t>AliasCode</t>
+  </si>
+  <si>
+    <t>standardCodeAliases</t>
+  </si>
+  <si>
+    <t>CHK0072</t>
+  </si>
+  <si>
+    <t>When a condition applies to a procedure, activity, biomedical concept, biomedical concept category, or biomedicalconceptsurrogate then an instance should be available in the corresponding class with the specified id.</t>
+  </si>
+  <si>
+    <t>CHK0076</t>
+  </si>
+  <si>
+    <t>Date values associated to a study protocol document version should be unique regarding the combination of type and geographic scopes of the date.</t>
+  </si>
+  <si>
+    <t>GovernanceDate</t>
+  </si>
+  <si>
+    <t>type, geographicScopes</t>
+  </si>
+  <si>
+    <t>CHK0077</t>
+  </si>
+  <si>
+    <t>Date values associated to a study version should be unique regarding the combination of type and geographic scopes of the date.</t>
+  </si>
+  <si>
+    <t>CHK0078</t>
+  </si>
+  <si>
+    <t>Within a study version, if a date with a global geographic scope is specified then no other dates should be specified for the same type.</t>
+  </si>
+  <si>
+    <t>CHK0079</t>
+  </si>
+  <si>
+    <t>Within a study protocol document version, if a date of a specific type exists with a global geographic scope then no other dates should be specified with the same type.</t>
+  </si>
+  <si>
+    <t>CHK0080</t>
+  </si>
+  <si>
+    <t>All primary endpoints are referenced by a primary objective.</t>
+  </si>
+  <si>
+    <t>CHK0082</t>
+  </si>
+  <si>
+    <t>Of the timelines defined for a study design, maximum one should be marked as main.</t>
+  </si>
+  <si>
+    <t>DDF00011</t>
+  </si>
+  <si>
+    <t>CHK0067</t>
+  </si>
+  <si>
+    <t>A study arm can only reference populations or cohorts that are defined within the same study design.</t>
+  </si>
+  <si>
+    <t>StudyArm</t>
+  </si>
+  <si>
+    <t>populations</t>
+  </si>
+  <si>
+    <t>CHK0074</t>
+  </si>
+  <si>
+    <t>Each defined eligibility criterion should point to a StudyVersion or StudyDesign using contextId.</t>
+  </si>
+  <si>
+    <t>EligibilityCriterion</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>CHK0089</t>
+  </si>
+  <si>
+    <t>All epochs are expected to be referred to from a scheduled Activity Instance.</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>CHK0090</t>
+  </si>
+  <si>
+    <t>Within a study version, there is a maximum of 1 title of each type.</t>
+  </si>
+  <si>
+    <t>StudyTitle</t>
+  </si>
+  <si>
+    <t>CHK0099</t>
+  </si>
+  <si>
+    <t>Within a study design, if study type is Interventional then at least one intervention is expected to be referrenced from a procedure.</t>
+  </si>
+  <si>
+    <t>CHK0100</t>
+  </si>
+  <si>
+    <t>A scheduled activity instance or a scheduled decision instance should not point (via the "timeline" relationship) to the timeline in which it is specified.</t>
+  </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>CHK0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of the study identifiers defined for a study version, at least one must have an identifier scope that references a clinical study sponsor organization. </t>
+  </si>
+  <si>
+    <t>DDF00039</t>
+  </si>
+  <si>
+    <t>CHK0105</t>
+  </si>
+  <si>
+    <t>Within a study protocol document version, the section numbers for narrative content specified should be unique.</t>
+  </si>
+  <si>
+    <t>sectionNumber</t>
+  </si>
+  <si>
+    <t>CHK0108</t>
+  </si>
+  <si>
+    <t>The value for each timing must be specified in ISO 8601 duration format.</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>CHK0109</t>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identified for timing should be coded according to DDF codelist C201264.</t>
+    </r>
+  </si>
+  <si>
+    <t>CHK0110</t>
+  </si>
+  <si>
+    <t>The attribute relativeToFrom  identified for timing should be coded according to DDF codelist C201265.</t>
+  </si>
+  <si>
+    <t>CHK0111</t>
+  </si>
+  <si>
+    <t>A scheduled activity/decision instance can only reference an epoch that is defined within the same study design as the scheduled activity/decision instance.</t>
+  </si>
+  <si>
+    <t>CHK0112</t>
+  </si>
+  <si>
+    <t>A scheduled activity instance can only reference an encounter that is defined within the same study design as the scheduled activity instance.</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>CHK0113</t>
+  </si>
+  <si>
+    <t>A timeline that is refered to from scheduled activity instance or a scheduled decision (via the "timeline" relationship) should have been specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0116</t>
+  </si>
+  <si>
+    <t>There should be at least one exit defined for each timeline (i.e., at least one instance of StudyTimelineExit linked via the 'exits' relationship)</t>
+  </si>
+  <si>
+    <t>exits</t>
+  </si>
+  <si>
+    <t>CHK0117</t>
+  </si>
+  <si>
+    <t>A study interventions that is referred to from a study element should have been specified within the same study design.</t>
+  </si>
+  <si>
+    <t>StudyElement</t>
+  </si>
+  <si>
+    <t>studyInterventions</t>
+  </si>
+  <si>
+    <t>CHK0119</t>
+  </si>
+  <si>
+    <t>CHK0121</t>
+  </si>
+  <si>
+    <t>In case of a planned enrollment number or planned completion number, a unit is not expected.</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>CHK0122</t>
+  </si>
+  <si>
+    <t>The category identified for an eligibility criterion should be coded according to SDTM codelist C66797.</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>CHK0123</t>
+  </si>
+  <si>
+    <t>In case of a planned enrollment number or planned completion number, an age related unit is expected (i.e. DAYS, MONTHS, or YEARS).</t>
+  </si>
+  <si>
+    <t>CHK0124</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The role identified for a study intervention should be coded according to DDF codelist </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>StudyIntervention</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>CHK0125</t>
+  </si>
+  <si>
+    <t>The frequency identified for an agent administration should be coded according to SDTM codelist C71113.</t>
+  </si>
+  <si>
+    <t>AgentAdministration</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>CHK0127</t>
+  </si>
+  <si>
+    <t>If specified, the context of a condition should point to a valid instance in the activity or scheduled activity instance class.</t>
+  </si>
+  <si>
+    <t>CHK0128</t>
+  </si>
+  <si>
+    <t>Within a study version, there is at least an official study title specified.</t>
+  </si>
+  <si>
+    <t>CHK0129</t>
+  </si>
+  <si>
+    <t>The study type identified for a study version should be coded according to SDTM codelist C990077.</t>
+  </si>
+  <si>
+    <t>CHK0130</t>
+  </si>
+  <si>
+    <t>Within a study design there should be a maximum of 1 objective with with level 'Primary Objective'.</t>
+  </si>
+  <si>
+    <t>CHK0131</t>
+  </si>
+  <si>
+    <t>The protocol status identified for a study protocol document version should be coded according to DDF codelist C188723.</t>
+  </si>
+  <si>
+    <t>StudyProtocolDocumentVersion</t>
+  </si>
+  <si>
+    <t>protocolStatus</t>
+  </si>
+  <si>
+    <t>CHK0133</t>
+  </si>
+  <si>
+    <t>The trial intent types identified for a study design should be coded according to SDTM codelist C66736.</t>
+  </si>
+  <si>
+    <t>StudyDesign</t>
+  </si>
+  <si>
+    <t>trialIntentTypes</t>
+  </si>
+  <si>
+    <t>CHK0134</t>
+  </si>
+  <si>
+    <t>The trial types identified for a study design should be coded according to SDTM codelist C66739.</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>CHK0135</t>
+  </si>
+  <si>
+    <t>The intervention model identified for a study design should be coded according to SDTM codelist C99076.</t>
+  </si>
+  <si>
+    <t>interventionModel</t>
+  </si>
+  <si>
+    <t>CHK0136</t>
+  </si>
+  <si>
+    <t>The blinding schema identified for a study design should be coded according to SDTM codelist C66735.</t>
+  </si>
+  <si>
+    <t>blindingSchema</t>
+  </si>
+  <si>
+    <t>CHK0137</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The characteristics identified for a study design should be coded according to DDF codelist </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>characteristics</t>
+  </si>
+  <si>
+    <t>CHK0138</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The masking roles identified should be coded according to DDF codelist </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Masking</t>
+  </si>
+  <si>
+    <t>CHK0139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References in a parameter map should be available elsewhere in the data model. </t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>CHK0059</t>
+  </si>
+  <si>
+    <t>The same Biomedical Concept Category cannot be referenced twice from the same activity.</t>
+  </si>
+  <si>
+    <t>BiomedicalConcept</t>
+  </si>
+  <si>
+    <t>CHK0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next attribute cannot refer to the id of the same instance. </t>
+  </si>
+  <si>
+    <t>StudyEpoch, Encounter, Activity, NarrativeContent, EligibilityCriterion</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>CHK0142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The defaultCondition attribute cannot refer to the id of the same instance. </t>
+  </si>
+  <si>
+    <t>defaultCondition</t>
+  </si>
+  <si>
+    <t>CHK0143</t>
+  </si>
+  <si>
+    <t>The lower limit for any timing window (attribute windowLower) must be specified in ISO 8601 duration format.</t>
+  </si>
+  <si>
+    <t>windowLower</t>
+  </si>
+  <si>
+    <t>CHK0144</t>
+  </si>
+  <si>
+    <t>The upper limit for any timing window (attribute windowUpper) must be specified in ISO 8601 duration format.</t>
+  </si>
+  <si>
+    <t>windowUpper</t>
+  </si>
+  <si>
+    <t>CHK0145</t>
+  </si>
+  <si>
+    <t>Attributes are included conform API definition.</t>
+  </si>
+  <si>
+    <t>CHK0146</t>
+  </si>
+  <si>
+    <t>Cardinalities are included conform API definition.</t>
+  </si>
+  <si>
+    <t>CHK0046</t>
+  </si>
+  <si>
+    <t>Within a study version, any code library used is expected to utilize consistently the same the same code library version.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>codeSystemVersion</t>
+  </si>
+  <si>
+    <t>CHK0047</t>
+  </si>
+  <si>
+    <t>If the interventionmodel indicates a single group design then only one intervention is expected. In all other cases more interventions are expected.</t>
+  </si>
+  <si>
+    <t>CHK0057</t>
+  </si>
+  <si>
+    <t>An activity is expected to refer to at least 1 procedure, biomedical concept, biomedical concept category or biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>definedProcedures, biomedicalConcepts, bcCategories, bcSurrogates</t>
+  </si>
+  <si>
+    <t>CHK0020</t>
+  </si>
+  <si>
+    <t>In case of an planned age, the range is not expected to be approximate.</t>
+  </si>
+  <si>
+    <t>isApproximate</t>
+  </si>
+  <si>
+    <t>CHK0086</t>
+  </si>
+  <si>
+    <t>Within a study design, the planned completion and/or planned enrollment number should be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber, plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>CHK0075</t>
+  </si>
+  <si>
+    <t>if geographic scope type is not global then a code is expected to specify the specific area within scope.</t>
+  </si>
+  <si>
+    <t>GeographicScope</t>
+  </si>
+  <si>
+    <t>CHK0101</t>
+  </si>
+  <si>
+    <t>The code and corresponding decode are expected to be a unique combination within a code system and corresponding version used for a study version.</t>
+  </si>
+  <si>
+    <t>code, decode</t>
+  </si>
+  <si>
+    <t>DDF00035</t>
+  </si>
+  <si>
+    <t>CHK0106</t>
+  </si>
+  <si>
+    <t>Narrative content children are expected to have section numbers that start with the parent section numbers.</t>
+  </si>
+  <si>
+    <t>CHK0107</t>
+  </si>
+  <si>
+    <t>Section numbers are expected to be continuous. No gaps are expected in numbering.</t>
+  </si>
+  <si>
+    <t>CHK0114</t>
+  </si>
+  <si>
+    <t>The target for a condition should not be equal to its parent.</t>
+  </si>
+  <si>
+    <t>ConditionAssignment</t>
+  </si>
+  <si>
+    <t>conditionTarget</t>
+  </si>
+  <si>
+    <t>CHK0118</t>
+  </si>
+  <si>
+    <t>I a transition start rule is defined then an end rule is expected and vice versa.</t>
+  </si>
+  <si>
+    <t>StudyElement, Encounter</t>
+  </si>
+  <si>
+    <t>transitionStartRule, transitionEndRule</t>
+  </si>
+  <si>
+    <t>CHK0120</t>
+  </si>
+  <si>
+    <t>For  a specified range at least a minimum or maximum value is expected.</t>
+  </si>
+  <si>
+    <t>minValue, maxValue</t>
+  </si>
+  <si>
+    <t>CHK0126</t>
+  </si>
+  <si>
+    <t>If a synonym is specified then it is not expected to be similar to the name of the biomedical concept.</t>
+  </si>
+  <si>
+    <t>synonyms</t>
+  </si>
+  <si>
+    <t>CHK0132</t>
+  </si>
+  <si>
+    <t>Section numbers are expected to follow the ordering as specified in the previous next attributes.</t>
+  </si>
+  <si>
+    <t>sectionNumber, previous, next</t>
+  </si>
+  <si>
+    <t>CHK0140</t>
+  </si>
+  <si>
+    <t>All ActivityInstances are expected to be referring an epoch within the same study Design</t>
+  </si>
+  <si>
+    <t>ScheduledActivityInstance.epoch, SchuedledDecisionInstance.epoch, epoch.id</t>
+  </si>
+  <si>
+    <t>CHK0103</t>
+  </si>
+  <si>
+    <t>A timeline exit that is referred by a scheduled activity instance or scheduled decision instance should have been defined within the same schedule timeline</t>
+  </si>
+  <si>
+    <t>CHK0037</t>
+  </si>
+  <si>
+    <t>Each StudyArm should have one StudyCell for each StudyEpoch</t>
+  </si>
+  <si>
+    <t>arm, epoch</t>
+  </si>
+  <si>
+    <t>CHK0056</t>
+  </si>
+  <si>
+    <t>A study cell should at least refer one element defined wihtin the same study design.</t>
+  </si>
+  <si>
+    <t>StudyCell</t>
+  </si>
+  <si>
+    <t>CHK0091</t>
+  </si>
+  <si>
+    <t>An combination of arm and epoch occures only once within a study design.</t>
+  </si>
+  <si>
+    <t>CHK0147</t>
+  </si>
+  <si>
+    <t>An encounter may only be scheduled at a timing that is defined within the same study design as the encounter.</t>
+  </si>
+  <si>
+    <t>scheduledAt</t>
+  </si>
+  <si>
+    <t>CHK0148</t>
+  </si>
+  <si>
+    <t>If duration will vary (attribute durationWillVary is set True) then quantity for administration duration should not be specified.</t>
+  </si>
+  <si>
+    <t>CHK0149</t>
+  </si>
+  <si>
+    <t>The type identified for a study intervention should be coded according to SDTM codelist C99078.</t>
+  </si>
+  <si>
+    <t>CHK0150</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The product designation identified for a study intervention should be coded according to DDF codelist </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>CHK0151</t>
+  </si>
+  <si>
+    <t>The route identified for an agent administration should be coded according to SDTM codelist C66729.</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>CHK0152</t>
+  </si>
+  <si>
+    <t>Referenced items in the narrative content should be available elsewhere in the data model.</t>
+  </si>
+  <si>
+    <t>CHK0153</t>
+  </si>
+  <si>
+    <t>A standardCodeAlias should not be equal to the standardCode</t>
+  </si>
+  <si>
+    <t>CHK0154</t>
+  </si>
+  <si>
+    <t>contactModes</t>
+  </si>
+  <si>
+    <t>CHK0155</t>
+  </si>
+  <si>
+    <t>If timing type is "Fixed Reference" then it should point to a scheduled activity instance.</t>
+  </si>
+  <si>
+    <t>CHK0156</t>
+  </si>
+  <si>
+    <t>Within a study design, if a planned completion number is defined, it should be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>CHK0157</t>
+  </si>
+  <si>
+    <t>Within a study design, if a planned enrollment number is defined, it should be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>CHK0158</t>
+  </si>
+  <si>
+    <t>Within a study design, if more characteristics are defined, they should be distinct.</t>
+  </si>
+  <si>
+    <t>CHK0159</t>
+  </si>
+  <si>
+    <t>Within a study design, if more trial types are defined, they should be distinct.</t>
+  </si>
+  <si>
+    <t>CHK0160</t>
+  </si>
+  <si>
+    <t>Within a study design, if more therapeutic areas are defined, they should be distinct.</t>
+  </si>
+  <si>
+    <t>therapticAreas</t>
+  </si>
+  <si>
+    <t>CHK0161</t>
+  </si>
+  <si>
+    <t>Within a study design, if more trial intent types are defined, they should be distinct.</t>
+  </si>
+  <si>
+    <t>CHK0162</t>
+  </si>
+  <si>
+    <t>Within an indication, if more indication codes are defined, they should be distinct.</t>
+  </si>
+  <si>
+    <t>codes</t>
+  </si>
+  <si>
+    <t>CHK0163</t>
+  </si>
+  <si>
+    <t>Within a study intervention, if more intervention codes are defined, they should be distinct.</t>
+  </si>
+  <si>
+    <t>CHK0164</t>
+  </si>
+  <si>
+    <t>Within an encounter, if more environmental settings are defined, they should be distinct.</t>
+  </si>
+  <si>
+    <t>environmentalSetting</t>
+  </si>
+  <si>
+    <t>CHK0165</t>
+  </si>
+  <si>
+    <t>Within an encounter, if more contact modes are defined, they should be distinct.</t>
+  </si>
+  <si>
+    <t>Warning/ Error</t>
+  </si>
+  <si>
+    <t>CORE Rule ID (if already created)</t>
+  </si>
+  <si>
+    <t>Class relationships are conform the API definition.</t>
+  </si>
+  <si>
+    <t>StudyDesignPopulation, StudyCohort</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>StudyEpoch</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>ScheduledActivityInstance</t>
+  </si>
+  <si>
+    <t>studyType</t>
+  </si>
+  <si>
+    <t>ParameterMap</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <r>
+      <t>The environmental setting identified for an encounter should be coded according to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SDTM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codelist C127262.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The contact modes identified for an encounter should be coded according to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SDTM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codelist C171445.</t>
+    </r>
+  </si>
+  <si>
+    <t>Internal Ideation number</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +1543,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +1588,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,13 +1910,3278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4181B5-C793-0B49-B16B-0D0C7567C244}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BFE977-BCB2-4B54-B820-17610C15C0F7}">
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.54296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:U133" xr:uid="{B5BFE977-BCB2-4B54-B820-17610C15C0F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H133">
+    <sortCondition ref="C8:C133"/>
+    <sortCondition ref="D8:D133"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2428D27-85DE-4AA8-87C4-0E079CBABDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378E6348-74D3-4D1C-9DAB-DFB8F678266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10215" yWindow="-17385" windowWidth="26820" windowHeight="15330" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-8310" yWindow="-18930" windowWidth="23010" windowHeight="18330" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Release 3.3 CORE rules" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="460">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -1407,6 +1407,18 @@
   </si>
   <si>
     <t>DDF00003</t>
+  </si>
+  <si>
+    <t>An activity with children must not refer to a timeline, procedure, biomedical concept, biomedical concept category or biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>CHK0178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ordering of activities (using the previous and next attributes) must include the parents (e.g. activities refering to children) preceding their children. </t>
+  </si>
+  <si>
+    <t>CHK0179</t>
   </si>
 </sst>
 </file>
@@ -1820,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2105,33 +2117,33 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>115</v>
@@ -2140,31 +2152,31 @@
         <v>141</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>7</v>
@@ -2174,47 +2186,45 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>104</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>421</v>
+        <v>153</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>7</v>
@@ -2224,21 +2234,21 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>7</v>
@@ -2246,99 +2256,99 @@
       <c r="F17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="E20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>7</v>
@@ -2346,23 +2356,25 @@
       <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="H21" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>7</v>
@@ -2372,21 +2384,21 @@
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>165</v>
+        <v>351</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>7</v>
@@ -2396,21 +2408,21 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>7</v>
@@ -2420,173 +2432,173 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>136</v>
+        <v>444</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="E29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>290</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>7</v>
@@ -2596,21 +2608,21 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>7</v>
@@ -2620,12 +2632,12 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
@@ -2634,7 +2646,7 @@
         <v>67</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>7</v>
@@ -2644,21 +2656,21 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>316</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>317</v>
+        <v>68</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>7</v>
@@ -2668,21 +2680,21 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>7</v>
@@ -2692,21 +2704,21 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>7</v>
@@ -2714,25 +2726,23 @@
       <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>7</v>
@@ -2742,21 +2752,21 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>356</v>
+        <v>120</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>357</v>
+        <v>122</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>7</v>
@@ -2764,23 +2774,25 @@
       <c r="F38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="H38" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>384</v>
+        <v>125</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>357</v>
+        <v>122</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>7</v>
@@ -2790,12 +2802,12 @@
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="7" t="s">
-        <v>383</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>221</v>
+        <v>356</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>6</v>
@@ -2804,22 +2816,22 @@
         <v>114</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="7" t="s">
-        <v>220</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>6</v>
@@ -2828,22 +2840,22 @@
         <v>114</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>393</v>
+        <v>221</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>6</v>
@@ -2852,22 +2864,22 @@
         <v>114</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
@@ -2876,46 +2888,46 @@
         <v>114</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>107</v>
+        <v>394</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7" t="s">
-        <v>112</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>6</v>
@@ -2924,31 +2936,31 @@
         <v>114</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>7</v>
@@ -2956,25 +2968,23 @@
       <c r="F46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>7</v>
@@ -2984,21 +2994,21 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="7" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>304</v>
+        <v>97</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>306</v>
+        <v>95</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>7</v>
@@ -3006,23 +3016,25 @@
       <c r="F48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="H48" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>169</v>
+        <v>423</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>7</v>
@@ -3032,21 +3044,21 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>7</v>
@@ -3056,12 +3068,12 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="7" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>6</v>
@@ -3080,12 +3092,12 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>6</v>
@@ -3104,21 +3116,21 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>376</v>
+        <v>175</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>377</v>
+        <v>170</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>378</v>
+        <v>171</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>7</v>
@@ -3128,21 +3140,21 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>7</v>
@@ -3152,21 +3164,21 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="7" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>200</v>
+        <v>376</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>201</v>
+        <v>378</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>7</v>
@@ -3176,21 +3188,21 @@
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
-        <v>199</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>7</v>
@@ -3200,15 +3212,15 @@
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>128</v>
@@ -3224,12 +3236,12 @@
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>115</v>
@@ -3238,7 +3250,7 @@
         <v>128</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>7</v>
@@ -3248,21 +3260,21 @@
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>7</v>
@@ -3272,21 +3284,21 @@
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>126</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>7</v>
@@ -3296,21 +3308,21 @@
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>7</v>
@@ -3320,21 +3332,21 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>7</v>
@@ -3344,21 +3356,21 @@
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>7</v>
@@ -3368,21 +3380,21 @@
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>405</v>
+        <v>244</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>7</v>
@@ -3392,21 +3404,21 @@
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>422</v>
+        <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>7</v>
@@ -3416,21 +3428,21 @@
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>7</v>
@@ -3440,21 +3452,21 @@
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>48</v>
+        <v>422</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>7</v>
@@ -3462,25 +3474,23 @@
       <c r="F67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>452</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>7</v>
@@ -3490,45 +3500,47 @@
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7" t="s">
-        <v>298</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>323</v>
+        <v>50</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="H69" s="7" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>224</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>7</v>
@@ -3538,45 +3550,45 @@
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>224</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>50</v>
+        <v>323</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>7</v>
@@ -3586,21 +3598,21 @@
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>7</v>
@@ -3610,12 +3622,12 @@
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>6</v>
@@ -3624,7 +3636,7 @@
         <v>53</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>7</v>
@@ -3632,25 +3644,23 @@
       <c r="F74" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>454</v>
-      </c>
+      <c r="G74" s="6"/>
       <c r="H74" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>430</v>
+        <v>188</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>7</v>
@@ -3660,12 +3670,12 @@
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>6</v>
@@ -3674,7 +3684,7 @@
         <v>53</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>7</v>
@@ -3683,15 +3693,15 @@
         <v>7</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>91</v>
+        <v>454</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>6</v>
@@ -3700,7 +3710,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>7</v>
@@ -3710,12 +3720,12 @@
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="7" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>6</v>
@@ -3724,170 +3734,172 @@
         <v>53</v>
       </c>
       <c r="D78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="6" t="s">
+      <c r="E80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>210</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="E82" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>387</v>
+        <v>210</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="7" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>387</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>115</v>
@@ -3896,7 +3908,7 @@
         <v>387</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>7</v>
@@ -3906,62 +3918,60 @@
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>215</v>
+        <v>391</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="7" t="s">
-        <v>214</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" s="6"/>
       <c r="H87" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>6</v>
@@ -3970,7 +3980,7 @@
         <v>75</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>7</v>
@@ -3978,51 +3988,49 @@
       <c r="F88" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="7" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>417</v>
+        <v>74</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>416</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>7</v>
@@ -4030,47 +4038,51 @@
       <c r="F90" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="H90" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>334</v>
+        <v>417</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>101</v>
+        <v>418</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="H91" s="7" t="s">
-        <v>333</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>335</v>
+        <v>184</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>7</v>
@@ -4080,12 +4092,12 @@
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>6</v>
@@ -4094,7 +4106,7 @@
         <v>101</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>7</v>
@@ -4102,16 +4114,14 @@
       <c r="F93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="G93" s="6"/>
       <c r="H93" s="7" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>337</v>
+        <v>440</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>6</v>
@@ -4120,7 +4130,7 @@
         <v>101</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>7</v>
@@ -4130,21 +4140,21 @@
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>260</v>
+        <v>446</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>7</v>
@@ -4152,23 +4162,25 @@
       <c r="F95" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="H95" s="7" t="s">
-        <v>259</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>7</v>
@@ -4178,12 +4190,12 @@
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="7" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>367</v>
+        <v>260</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>6</v>
@@ -4192,7 +4204,7 @@
         <v>251</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>7</v>
@@ -4202,12 +4214,12 @@
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>366</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>6</v>
@@ -4216,7 +4228,7 @@
         <v>251</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>7</v>
@@ -4226,21 +4238,21 @@
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>7</v>
@@ -4250,12 +4262,12 @@
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="7" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>6</v>
@@ -4264,7 +4276,7 @@
         <v>251</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>372</v>
+        <v>258</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>7</v>
@@ -4274,21 +4286,21 @@
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>7</v>
@@ -4298,12 +4310,12 @@
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="7" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>6</v>
@@ -4312,7 +4324,7 @@
         <v>251</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>7</v>
@@ -4322,12 +4334,12 @@
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>6</v>
@@ -4336,7 +4348,7 @@
         <v>251</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>7</v>
@@ -4346,12 +4358,12 @@
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>6</v>
@@ -4360,7 +4372,7 @@
         <v>251</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>7</v>
@@ -4370,45 +4382,45 @@
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>414</v>
+        <v>254</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7" t="s">
-        <v>413</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>7</v>
@@ -4418,12 +4430,12 @@
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7" t="s">
-        <v>44</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>6</v>
@@ -4432,22 +4444,22 @@
         <v>12</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>362</v>
+        <v>13</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>6</v>
@@ -4456,7 +4468,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>7</v>
@@ -4466,12 +4478,12 @@
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="7" t="s">
-        <v>300</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>6</v>
@@ -4480,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>7</v>
@@ -4490,12 +4502,12 @@
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>6</v>
@@ -4504,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>7</v>
@@ -4514,21 +4526,21 @@
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>219</v>
+        <v>365</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>7</v>
@@ -4538,21 +4550,21 @@
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="7" t="s">
-        <v>217</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>438</v>
+        <v>109</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>7</v>
@@ -4562,190 +4574,190 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+    <row r="115" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B115" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="6" t="s">
+      <c r="E115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H115" s="7" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="5" t="s">
+      <c r="B118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G116" s="6" t="s">
+      <c r="E118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H118" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
+    <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="5" t="s">
+      <c r="B119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" s="6" t="s">
+      <c r="E119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>6</v>
@@ -4754,7 +4766,7 @@
         <v>231</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>7</v>
@@ -4764,12 +4776,12 @@
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="7" t="s">
-        <v>229</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>6</v>
@@ -4778,7 +4790,7 @@
         <v>231</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>7</v>
@@ -4788,21 +4800,21 @@
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>7</v>
@@ -4812,18 +4824,18 @@
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>425</v>
+        <v>345</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>80</v>
@@ -4836,21 +4848,21 @@
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>434</v>
+        <v>246</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>7</v>
@@ -4860,21 +4872,21 @@
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>28</v>
+        <v>425</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>7</v>
@@ -4882,40 +4894,38 @@
       <c r="F125" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="G125" s="6"/>
       <c r="H125" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>402</v>
+        <v>28</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>6</v>
@@ -4924,22 +4934,24 @@
         <v>29</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G127" s="6"/>
+      <c r="G127" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="H127" s="7" t="s">
-        <v>401</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>62</v>
+        <v>400</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>6</v>
@@ -4948,24 +4960,22 @@
         <v>29</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="G128" s="6"/>
       <c r="H128" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>6</v>
@@ -4974,31 +4984,31 @@
         <v>29</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>7</v>
@@ -5006,23 +5016,25 @@
       <c r="F130" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="H130" s="7" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>7</v>
@@ -5030,16 +5042,14 @@
       <c r="F131" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="G131" s="6"/>
       <c r="H131" s="7" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>6</v>
@@ -5048,7 +5058,7 @@
         <v>10</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>7</v>
@@ -5058,12 +5068,12 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>6</v>
@@ -5072,7 +5082,7 @@
         <v>10</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>7</v>
@@ -5081,15 +5091,15 @@
         <v>7</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
@@ -5098,7 +5108,7 @@
         <v>10</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>7</v>
@@ -5106,16 +5116,14 @@
       <c r="F134" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G134" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>6</v>
@@ -5132,14 +5140,16 @@
       <c r="F135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G135" s="6"/>
+      <c r="G135" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="H135" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>6</v>
@@ -5148,7 +5158,7 @@
         <v>10</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>7</v>
@@ -5156,14 +5166,16 @@
       <c r="F136" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H136" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>206</v>
+        <v>359</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>6</v>
@@ -5172,7 +5184,7 @@
         <v>10</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>7</v>
@@ -5182,12 +5194,12 @@
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>6</v>
@@ -5196,7 +5208,7 @@
         <v>10</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>7</v>
@@ -5206,12 +5218,12 @@
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>6</v>
@@ -5220,7 +5232,7 @@
         <v>10</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>7</v>
@@ -5228,16 +5240,14 @@
       <c r="F139" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G139" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="G139" s="6"/>
       <c r="H139" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>6</v>
@@ -5246,7 +5256,7 @@
         <v>10</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>7</v>
@@ -5254,16 +5264,14 @@
       <c r="F140" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G140" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="G140" s="6"/>
       <c r="H140" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>6</v>
@@ -5272,7 +5280,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>7</v>
@@ -5280,14 +5288,16 @@
       <c r="F141" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G141" s="6"/>
+      <c r="G141" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H141" s="7" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>284</v>
+        <v>37</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>6</v>
@@ -5296,25 +5306,75 @@
         <v>10</v>
       </c>
       <c r="D142" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G142" s="6"/>
-      <c r="H142" s="7" t="s">
+      <c r="E144" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="6"/>
+      <c r="H144" s="7" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q10" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H142">
-    <sortCondition ref="C8:C142"/>
-    <sortCondition ref="D8:D142"/>
-    <sortCondition ref="H8:H142"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H144">
+    <sortCondition ref="C8:C144"/>
+    <sortCondition ref="D8:D144"/>
+    <sortCondition ref="H8:H144"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378E6348-74D3-4D1C-9DAB-DFB8F678266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F7EA55-2090-4D48-9295-436772E66DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8310" yWindow="-18930" windowWidth="23010" windowHeight="18330" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="7215" yWindow="-17760" windowWidth="24555" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Release 3.3 CORE rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Release 3.0 and 3.4 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 3.3 CORE rules'!$A$1:$Q$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 3.0 and 3.4 CORE rules'!$A$1:$Q$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="493">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -641,9 +641,6 @@
     <t>CHK0105</t>
   </si>
   <si>
-    <t>Within a study protocol document version, the section numbers for narrative content specified must be unique.</t>
-  </si>
-  <si>
     <t>sectionNumber</t>
   </si>
   <si>
@@ -1007,9 +1004,6 @@
     <t>CHK0120</t>
   </si>
   <si>
-    <t>For  a specified range at least a minimum or maximum value is expected.</t>
-  </si>
-  <si>
     <t>minValue, maxValue</t>
   </si>
   <si>
@@ -1052,9 +1046,6 @@
     <t>CHK0056</t>
   </si>
   <si>
-    <t>A study cell must at least refer one element defined wihtin the same study design.</t>
-  </si>
-  <si>
     <t>CHK0091</t>
   </si>
   <si>
@@ -1391,9 +1382,6 @@
     <t>DDF00019</t>
   </si>
   <si>
-    <t>BiomedicalConceptCategory, StudyProtocolDocumentVersion, NarrativeContent, Activity</t>
-  </si>
-  <si>
     <t>DDF00018</t>
   </si>
   <si>
@@ -1419,6 +1407,117 @@
   </si>
   <si>
     <t>CHK0179</t>
+  </si>
+  <si>
+    <t>DDF00042</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory, StudyProtocolDocumentVersion, StudyDefinitionDocumentVersion, NarrativeContent, Activity</t>
+  </si>
+  <si>
+    <t>A study cell must only reference elements that are defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>DDF00045</t>
+  </si>
+  <si>
+    <t>Within a document version, the specified section numbers for narrative content must be unique.</t>
+  </si>
+  <si>
+    <t>DDF00044</t>
+  </si>
+  <si>
+    <t>For a specified range at least a minimum or maximum value is expected.</t>
+  </si>
+  <si>
+    <t>DDF00043</t>
+  </si>
+  <si>
+    <t>A study cell must refer to at least one element.</t>
+  </si>
+  <si>
+    <t>CHK0180</t>
+  </si>
+  <si>
+    <t>NarrativeContentItem</t>
+  </si>
+  <si>
+    <t>CHK0181</t>
+  </si>
+  <si>
+    <t>Narrative content is expected to point to a child and/or to a content item text.</t>
+  </si>
+  <si>
+    <t>children, contentItem</t>
+  </si>
+  <si>
+    <t>CHK0182</t>
+  </si>
+  <si>
+    <t>If a section number is to be displayed then a number must be specified and vice versa.</t>
+  </si>
+  <si>
+    <t>sectionNumber, displaySectionNumber</t>
+  </si>
+  <si>
+    <t>CHK0183</t>
+  </si>
+  <si>
+    <t>If a section title is to be displayed then a title must be specified and vice versa.</t>
+  </si>
+  <si>
+    <t>sectionTitle, displaySectionTitle</t>
+  </si>
+  <si>
+    <t>CHK0184</t>
+  </si>
+  <si>
+    <t>A study definition document type must be specifed using the XXX (Cnnn) DDF codelist.</t>
+  </si>
+  <si>
+    <t>StudyDefinitionDocument</t>
+  </si>
+  <si>
+    <t>CHK0185</t>
+  </si>
+  <si>
+    <t>A study definition document language must be specifed using the XXX (Cnnn) codelist.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>CHK0186</t>
+  </si>
+  <si>
+    <t>A study definition document version must not be referenced more than once by the same study version.</t>
+  </si>
+  <si>
+    <t>documentVersions</t>
+  </si>
+  <si>
+    <t>CHK0187</t>
+  </si>
+  <si>
+    <t>A piece of narrative content must only reference narrative content items that have been defined within the study version as the narrative content.</t>
+  </si>
+  <si>
+    <t>contentItem</t>
+  </si>
+  <si>
+    <t>CHK0188</t>
+  </si>
+  <si>
+    <t>A study definition document version's status must be specifed using the status Value Set Terminology (XXX) DDF codelist.</t>
+  </si>
+  <si>
+    <t>StudyDefinitionDocumentVersion</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CHK0189</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1498,6 +1597,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1832,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1869,15 +1973,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -1901,7 +2005,7 @@
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -1925,7 +2029,7 @@
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -1944,12 +2048,12 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1968,7 +2072,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2023,7 +2127,7 @@
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -2042,7 +2146,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2119,7 +2223,7 @@
     </row>
     <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -2138,7 +2242,7 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2167,7 +2271,7 @@
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>115</v>
@@ -2176,7 +2280,7 @@
         <v>141</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>7</v>
@@ -2186,12 +2290,12 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>6</v>
@@ -2210,7 +2314,7 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2265,7 +2369,7 @@
     </row>
     <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
@@ -2306,7 +2410,9 @@
       <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>459</v>
+      </c>
       <c r="H19" s="7" t="s">
         <v>159</v>
       </c>
@@ -2339,7 +2445,7 @@
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
@@ -2348,7 +2454,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>7</v>
@@ -2357,24 +2463,24 @@
         <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>7</v>
@@ -2384,21 +2490,21 @@
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>7</v>
@@ -2408,7 +2514,7 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2437,7 +2543,7 @@
     </row>
     <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>115</v>
@@ -2456,21 +2562,21 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>7</v>
@@ -2480,7 +2586,7 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2503,13 +2609,13 @@
         <v>7</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
@@ -2517,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>134</v>
@@ -2529,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>132</v>
@@ -2563,42 +2669,42 @@
     </row>
     <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="H30" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>7</v>
@@ -2608,21 +2714,21 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>7</v>
@@ -2632,7 +2738,7 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2685,7 +2791,7 @@
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
@@ -2704,36 +2810,38 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="E36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H36" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
@@ -2742,7 +2850,7 @@
         <v>185</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>7</v>
@@ -2752,7 +2860,7 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -2807,7 +2915,7 @@
     </row>
     <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>6</v>
@@ -2816,7 +2924,7 @@
         <v>114</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>7</v>
@@ -2826,12 +2934,12 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>6</v>
@@ -2840,7 +2948,7 @@
         <v>114</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>7</v>
@@ -2850,12 +2958,12 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>6</v>
@@ -2864,7 +2972,7 @@
         <v>114</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>7</v>
@@ -2874,12 +2982,12 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
@@ -2888,7 +2996,7 @@
         <v>114</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>7</v>
@@ -2898,12 +3006,12 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>6</v>
@@ -2912,7 +3020,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>14</v>
@@ -2922,12 +3030,12 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>6</v>
@@ -2936,7 +3044,7 @@
         <v>114</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>14</v>
@@ -2946,7 +3054,7 @@
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -2975,7 +3083,7 @@
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
@@ -2984,7 +3092,7 @@
         <v>114</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>7</v>
@@ -2994,7 +3102,7 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3025,7 +3133,7 @@
     </row>
     <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
@@ -3049,16 +3157,16 @@
     </row>
     <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>7</v>
@@ -3068,7 +3176,7 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -3169,16 +3277,16 @@
     </row>
     <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>7</v>
@@ -3188,21 +3296,21 @@
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>7</v>
@@ -3212,69 +3320,69 @@
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>200</v>
+        <v>468</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>201</v>
+        <v>469</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>311</v>
+        <v>486</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>201</v>
+        <v>487</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7" t="s">
-        <v>310</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>7</v>
@@ -3284,12 +3392,12 @@
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>115</v>
@@ -3298,7 +3406,7 @@
         <v>128</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>7</v>
@@ -3308,21 +3416,21 @@
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>7</v>
@@ -3332,12 +3440,12 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>353</v>
+        <v>471</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>6</v>
@@ -3346,31 +3454,31 @@
         <v>128</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>122</v>
+        <v>472</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>7</v>
@@ -3380,69 +3488,69 @@
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>244</v>
+        <v>474</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>95</v>
+        <v>475</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>7</v>
@@ -3452,45 +3560,45 @@
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>422</v>
+        <v>127</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>157</v>
+        <v>466</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>426</v>
+        <v>93</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>7</v>
@@ -3500,21 +3608,21 @@
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>7</v>
@@ -3522,25 +3630,23 @@
       <c r="F69" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>452</v>
-      </c>
+      <c r="G69" s="6"/>
       <c r="H69" s="7" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>437</v>
+        <v>268</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>7</v>
@@ -3550,45 +3656,45 @@
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>7</v>
@@ -3598,21 +3704,21 @@
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>7</v>
@@ -3622,21 +3728,21 @@
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>429</v>
+        <v>48</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>7</v>
@@ -3644,23 +3750,25 @@
       <c r="F74" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H74" s="7" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>188</v>
+        <v>434</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>7</v>
@@ -3668,49 +3776,49 @@
       <c r="F75" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="6"/>
+      <c r="G75" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="H75" s="7" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>194</v>
+        <v>462</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>454</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G76" s="6"/>
       <c r="H76" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>7</v>
@@ -3718,23 +3826,25 @@
       <c r="F77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6" t="s">
+        <v>463</v>
+      </c>
       <c r="H77" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>89</v>
+        <v>430</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>7</v>
@@ -3742,16 +3852,14 @@
       <c r="F78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>6</v>
@@ -3760,7 +3868,7 @@
         <v>53</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>7</v>
@@ -3770,21 +3878,21 @@
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="7" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>7</v>
@@ -3792,25 +3900,23 @@
       <c r="F80" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>7</v>
@@ -3819,24 +3925,24 @@
         <v>7</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>7</v>
@@ -3846,21 +3952,21 @@
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>331</v>
+        <v>89</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>7</v>
@@ -3868,119 +3974,125 @@
       <c r="F83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="H83" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>398</v>
+        <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>279</v>
+        <v>54</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="H85" s="7" t="s">
-        <v>397</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>391</v>
+        <v>277</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="H86" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>7</v>
@@ -3990,123 +4102,117 @@
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="7" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="7" t="s">
-        <v>73</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>180</v>
+        <v>395</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>181</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="7" t="s">
-        <v>179</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>419</v>
+        <v>195</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>420</v>
-      </c>
+      <c r="G91" s="6"/>
       <c r="H91" s="7" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>183</v>
+        <v>384</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>7</v>
@@ -4116,21 +4222,21 @@
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="7" t="s">
-        <v>333</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>7</v>
@@ -4138,23 +4244,25 @@
       <c r="F94" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="H94" s="7" t="s">
-        <v>338</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>446</v>
+        <v>180</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>7</v>
@@ -4163,48 +4271,50 @@
         <v>7</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>337</v>
+        <v>414</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>101</v>
+        <v>415</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>102</v>
+        <v>416</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G96" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>417</v>
+      </c>
       <c r="H96" s="7" t="s">
-        <v>336</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>7</v>
@@ -4214,21 +4324,21 @@
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>7</v>
@@ -4238,21 +4348,21 @@
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="7" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>7</v>
@@ -4262,21 +4372,21 @@
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="7" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>257</v>
+        <v>443</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>7</v>
@@ -4284,23 +4394,25 @@
       <c r="F100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="H100" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>293</v>
+        <v>458</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>7</v>
@@ -4310,117 +4422,117 @@
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>370</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>251</v>
+        <v>478</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>252</v>
+        <v>481</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="7" t="s">
-        <v>249</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>374</v>
+        <v>477</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>251</v>
+        <v>478</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="7" t="s">
-        <v>373</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>254</v>
+        <v>489</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>251</v>
+        <v>490</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>255</v>
+        <v>491</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7" t="s">
-        <v>253</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>7</v>
@@ -4430,45 +4542,45 @@
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>414</v>
+        <v>262</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="7" t="s">
-        <v>413</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>7</v>
@@ -4478,21 +4590,21 @@
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>7</v>
@@ -4502,21 +4614,21 @@
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="7" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>7</v>
@@ -4526,21 +4638,21 @@
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>7</v>
@@ -4550,21 +4662,21 @@
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>7</v>
@@ -4574,21 +4686,21 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>7</v>
@@ -4598,21 +4710,21 @@
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="7" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>438</v>
+        <v>253</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>7</v>
@@ -4622,21 +4734,21 @@
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>117</v>
+        <v>366</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>7</v>
@@ -4644,51 +4756,47 @@
       <c r="F115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G115" s="6"/>
       <c r="H115" s="7" t="s">
-        <v>116</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>448</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G116" s="6"/>
       <c r="H116" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>7</v>
@@ -4696,25 +4804,23 @@
       <c r="F117" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="6" t="s">
-        <v>443</v>
-      </c>
+      <c r="G117" s="6"/>
       <c r="H117" s="7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>7</v>
@@ -4722,25 +4828,23 @@
       <c r="F118" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="G118" s="6"/>
       <c r="H118" s="7" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>7</v>
@@ -4748,25 +4852,23 @@
       <c r="F119" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="6" t="s">
-        <v>198</v>
-      </c>
+      <c r="G119" s="6"/>
       <c r="H119" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>7</v>
@@ -4776,21 +4878,21 @@
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="7" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>348</v>
+        <v>110</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>7</v>
@@ -4800,21 +4902,21 @@
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="7" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>230</v>
+        <v>428</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>7</v>
@@ -4824,21 +4926,21 @@
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>7</v>
@@ -4848,21 +4950,21 @@
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="7" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>246</v>
+        <v>117</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>7</v>
@@ -4870,23 +4972,25 @@
       <c r="F124" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G124" s="6"/>
+      <c r="G124" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H124" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>7</v>
@@ -4894,23 +4998,25 @@
       <c r="F125" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="H125" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>7</v>
@@ -4918,23 +5024,25 @@
       <c r="F126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G126" s="6"/>
+      <c r="G126" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="H126" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>7</v>
@@ -4943,72 +5051,74 @@
         <v>7</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="H128" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="7" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>62</v>
+        <v>344</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>7</v>
@@ -5016,25 +5126,23 @@
       <c r="F130" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G130" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="G130" s="6"/>
       <c r="H130" s="7" t="s">
-        <v>61</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>7</v>
@@ -5044,21 +5152,21 @@
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>7</v>
@@ -5068,47 +5176,45 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G133" s="6"/>
       <c r="H133" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>208</v>
+        <v>422</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>7</v>
@@ -5118,21 +5224,21 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>7</v>
@@ -5140,25 +5246,23 @@
       <c r="F135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G135" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="G135" s="6"/>
       <c r="H135" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>7</v>
@@ -5167,96 +5271,96 @@
         <v>7</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="7" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="7" t="s">
-        <v>78</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="7" t="s">
-        <v>205</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>7</v>
@@ -5264,23 +5368,25 @@
       <c r="F140" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G140" s="6"/>
+      <c r="G140" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="H140" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>7</v>
@@ -5288,16 +5394,14 @@
       <c r="F141" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G141" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="G141" s="6"/>
       <c r="H141" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>37</v>
+        <v>409</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>6</v>
@@ -5306,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>7</v>
@@ -5314,16 +5418,14 @@
       <c r="F142" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G142" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="G142" s="6"/>
       <c r="H142" s="7" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>6</v>
@@ -5332,7 +5434,7 @@
         <v>10</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>7</v>
@@ -5340,14 +5442,16 @@
       <c r="F143" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G143" s="6"/>
+      <c r="G143" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="H143" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>6</v>
@@ -5356,7 +5460,7 @@
         <v>10</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>7</v>
@@ -5366,15 +5470,353 @@
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A146" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="9"/>
+      <c r="H148" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="9"/>
+      <c r="H149" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="9"/>
+      <c r="H150" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="9"/>
+      <c r="H153" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="8" t="s">
         <v>283</v>
       </c>
+      <c r="B154" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="9"/>
+      <c r="H154" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="8"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="10"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="8"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="10"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="8"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="10"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="8"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="10"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="8"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="10"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" s="8"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="10"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" s="8"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="10"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" s="8"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="10"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="8"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q10" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H144">
-    <sortCondition ref="C8:C144"/>
-    <sortCondition ref="D8:D144"/>
-    <sortCondition ref="H8:H144"/>
+  <autoFilter ref="A1:Q165" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H165">
+    <sortCondition ref="C8:C165"/>
+    <sortCondition ref="D8:D165"/>
+    <sortCondition ref="H8:H165"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F7EA55-2090-4D48-9295-436772E66DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FDC707-87FA-473D-BADD-2C8C7411C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="-17760" windowWidth="24555" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="10185" yWindow="-18000" windowWidth="27495" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Release 3.0 and 3.4 CORE rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Release 3.0 and 3.5 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 3.0 and 3.4 CORE rules'!$A$1:$Q$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 3.0 and 3.5 CORE rules'!$A$1:$H$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="508">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -1058,9 +1058,6 @@
     <t>CHK0148</t>
   </si>
   <si>
-    <t>If the duration of an administration will vary, a quantity must not be specified for the administration duration.</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -1304,18 +1301,12 @@
     <t>All primary endpoints must be referenced by a primary objective.</t>
   </si>
   <si>
-    <t>A study arm must only reference populations or cohort that are defined within the same study design.</t>
-  </si>
-  <si>
     <t>Within a study version, there must be no more than 1 title of each type.</t>
   </si>
   <si>
     <t>Within a study design, if study type is Interventional then at least one intervention is expected to be referenced from a procedure.</t>
   </si>
   <si>
-    <t>Within a code system and corresponding version, there must be a one-to-one relationship between code and decode.</t>
-  </si>
-  <si>
     <t>A scheduled activity/decision instance must only reference an epoch that is defined within the same study design as the scheduled activity/decision instance.</t>
   </si>
   <si>
@@ -1518,6 +1509,60 @@
   </si>
   <si>
     <t>CHK0189</t>
+  </si>
+  <si>
+    <t>DDF00046</t>
+  </si>
+  <si>
+    <t>DDF00016</t>
+  </si>
+  <si>
+    <t>DDF00047</t>
+  </si>
+  <si>
+    <t>DDF00048</t>
+  </si>
+  <si>
+    <t>A study arm must only reference populations that are defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>DDF00049</t>
+  </si>
+  <si>
+    <t>Within a code system and corresponding version, a one-to-one relationship between code and decode is expected.</t>
+  </si>
+  <si>
+    <t>If the duration of an administration will vary, a quantity is not expected for the administration duration and vice versa.</t>
+  </si>
+  <si>
+    <t>CHK0190</t>
+  </si>
+  <si>
+    <t>A study arm must only reference cohorts that are defined within the population that is defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>DDF00050</t>
+  </si>
+  <si>
+    <t>CHK0191</t>
+  </si>
+  <si>
+    <t>All abbreviations defined for a study version must be unique.</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>CHK0192</t>
+  </si>
+  <si>
+    <t>The long names for all abbreviations defined for a study version are expected to be unique.</t>
+  </si>
+  <si>
+    <t>longName</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1597,11 +1642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,6 +1657,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1936,11 +1980,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1958,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1973,15 +2015,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -2005,7 +2047,7 @@
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -2029,7 +2071,7 @@
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -2053,7 +2095,7 @@
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -2125,66 +2167,66 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>272</v>
+        <v>502</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>141</v>
+        <v>503</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>142</v>
+        <v>504</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>271</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>140</v>
+        <v>506</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>141</v>
+        <v>503</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
+        <v>507</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>139</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>7</v>
@@ -2194,12 +2236,12 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>115</v>
@@ -2208,7 +2250,7 @@
         <v>141</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>7</v>
@@ -2218,36 +2260,36 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>452</v>
+        <v>150</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>453</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>115</v>
@@ -2256,79 +2298,79 @@
         <v>141</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>294</v>
+        <v>449</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>454</v>
+        <v>147</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>455</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>7</v>
@@ -2338,47 +2380,45 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>105</v>
+        <v>451</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>104</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>7</v>
@@ -2388,21 +2428,21 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>7</v>
@@ -2411,100 +2451,100 @@
         <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>459</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="E22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>347</v>
+        <v>497</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>7</v>
@@ -2512,23 +2552,25 @@
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H23" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>7</v>
@@ -2538,21 +2580,21 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>165</v>
+        <v>347</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>7</v>
@@ -2562,21 +2604,21 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>324</v>
+        <v>165</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>7</v>
@@ -2586,173 +2628,173 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>136</v>
+        <v>438</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="E29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="E30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="E31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>289</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>7</v>
@@ -2762,21 +2804,21 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>167</v>
+        <v>439</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>7</v>
@@ -2786,12 +2828,12 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
@@ -2800,7 +2842,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>7</v>
@@ -2808,23 +2850,25 @@
       <c r="F35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>491</v>
+      </c>
       <c r="H35" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>315</v>
+        <v>67</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>7</v>
@@ -2832,25 +2876,23 @@
       <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>461</v>
-      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>7</v>
@@ -2860,21 +2902,21 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>121</v>
+        <v>315</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>7</v>
@@ -2883,24 +2925,24 @@
         <v>7</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>123</v>
+        <v>458</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>7</v>
@@ -2910,21 +2952,21 @@
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>7</v>
@@ -2932,23 +2974,25 @@
       <c r="F40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="H40" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>381</v>
+        <v>125</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>7</v>
@@ -2958,12 +3002,12 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7" t="s">
-        <v>380</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>6</v>
@@ -2972,22 +3016,22 @@
         <v>114</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
@@ -2996,22 +3040,22 @@
         <v>114</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>6</v>
@@ -3020,22 +3064,22 @@
         <v>114</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7" t="s">
-        <v>389</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>6</v>
@@ -3044,46 +3088,46 @@
         <v>114</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>113</v>
+        <v>389</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
@@ -3092,31 +3136,31 @@
         <v>114</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>7</v>
@@ -3124,25 +3168,23 @@
       <c r="F48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>7</v>
@@ -3152,21 +3194,21 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="7" t="s">
-        <v>178</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>7</v>
@@ -3174,23 +3216,25 @@
       <c r="F50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="H50" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>169</v>
+        <v>419</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>7</v>
@@ -3200,21 +3244,21 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>171</v>
+        <v>305</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>7</v>
@@ -3224,12 +3268,12 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>6</v>
@@ -3248,12 +3292,12 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>6</v>
@@ -3272,21 +3316,21 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>373</v>
+        <v>175</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>374</v>
+        <v>170</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>375</v>
+        <v>171</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>7</v>
@@ -3296,21 +3340,21 @@
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>7</v>
@@ -3320,111 +3364,111 @@
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>468</v>
+        <v>372</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>128</v>
+        <v>373</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>486</v>
+        <v>265</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>487</v>
+        <v>231</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7" t="s">
-        <v>488</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>200</v>
+        <v>466</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>200</v>
+        <v>484</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
-        <v>309</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>312</v>
+        <v>457</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>128</v>
@@ -3440,36 +3484,36 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>311</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>471</v>
+        <v>310</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>472</v>
+        <v>200</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
-        <v>473</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>115</v>
@@ -3478,7 +3522,7 @@
         <v>128</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>7</v>
@@ -3488,12 +3532,12 @@
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
@@ -3502,7 +3546,7 @@
         <v>128</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>14</v>
@@ -3512,36 +3556,36 @@
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>122</v>
+        <v>327</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>6</v>
@@ -3550,17 +3594,17 @@
         <v>128</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>122</v>
+        <v>472</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
@@ -3571,34 +3615,34 @@
         <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>466</v>
+        <v>128</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>467</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>7</v>
@@ -3608,45 +3652,45 @@
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>94</v>
+        <v>463</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="7" t="s">
-        <v>242</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>7</v>
@@ -3656,21 +3700,21 @@
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>402</v>
+        <v>243</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>7</v>
@@ -3680,21 +3724,21 @@
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>419</v>
+        <v>268</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>7</v>
@@ -3704,21 +3748,21 @@
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>7</v>
@@ -3728,21 +3772,21 @@
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>48</v>
+        <v>418</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>7</v>
@@ -3751,24 +3795,24 @@
         <v>7</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>7</v>
@@ -3776,49 +3820,49 @@
       <c r="F75" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>456</v>
-      </c>
+      <c r="G75" s="6"/>
       <c r="H75" s="7" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>462</v>
+        <v>48</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>321</v>
+        <v>50</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="H76" s="7" t="s">
-        <v>320</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>223</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>7</v>
@@ -3827,37 +3871,37 @@
         <v>7</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>223</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>426</v>
       </c>
@@ -3865,10 +3909,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>7</v>
@@ -3876,23 +3920,25 @@
       <c r="F79" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>460</v>
+      </c>
       <c r="H79" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>7</v>
@@ -3902,12 +3948,12 @@
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>194</v>
+        <v>423</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>6</v>
@@ -3916,7 +3962,7 @@
         <v>53</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>7</v>
@@ -3924,25 +3970,23 @@
       <c r="F81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>450</v>
-      </c>
+      <c r="G81" s="6"/>
       <c r="H81" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>427</v>
+        <v>188</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>7</v>
@@ -3952,12 +3996,12 @@
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>6</v>
@@ -3966,7 +4010,7 @@
         <v>53</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>7</v>
@@ -3975,15 +4019,15 @@
         <v>7</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>91</v>
+        <v>447</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>6</v>
@@ -3992,7 +4036,7 @@
         <v>53</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>7</v>
@@ -4002,12 +4046,12 @@
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>6</v>
@@ -4016,179 +4060,181 @@
         <v>53</v>
       </c>
       <c r="D85" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="6" t="s">
+      <c r="E87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>209</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="E89" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="7" t="s">
-        <v>385</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>384</v>
+        <v>209</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="7" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>7</v>
@@ -4198,62 +4244,60 @@
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>214</v>
+        <v>387</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>75</v>
+        <v>383</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="7" t="s">
-        <v>213</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>75</v>
+        <v>383</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" s="6"/>
       <c r="H94" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>6</v>
@@ -4262,7 +4306,7 @@
         <v>75</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>7</v>
@@ -4270,51 +4314,49 @@
       <c r="F95" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="G95" s="6"/>
       <c r="H95" s="7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>413</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>421</v>
+        <v>180</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>7</v>
@@ -4322,47 +4364,51 @@
       <c r="F97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="6"/>
+      <c r="G97" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="H97" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>101</v>
+        <v>414</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G98" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="H98" s="7" t="s">
-        <v>331</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>7</v>
@@ -4370,23 +4416,25 @@
       <c r="F99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>495</v>
+      </c>
       <c r="H99" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>7</v>
@@ -4395,15 +4443,15 @@
         <v>7</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>103</v>
+        <v>500</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>6</v>
@@ -4412,7 +4460,7 @@
         <v>101</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>7</v>
@@ -4422,12 +4470,12 @@
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>6</v>
@@ -4436,166 +4484,170 @@
         <v>101</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>465</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>478</v>
+        <v>101</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>481</v>
+        <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="H103" s="7" t="s">
-        <v>482</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>478</v>
+        <v>101</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="H104" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>490</v>
+        <v>101</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>491</v>
+        <v>102</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>260</v>
+        <v>478</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7" t="s">
-        <v>258</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>262</v>
+        <v>474</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="7" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>364</v>
+        <v>486</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>263</v>
+        <v>488</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="7" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>6</v>
@@ -4604,7 +4656,7 @@
         <v>250</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>7</v>
@@ -4614,21 +4666,21 @@
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>7</v>
@@ -4638,12 +4690,12 @@
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="7" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>6</v>
@@ -4652,7 +4704,7 @@
         <v>250</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>7</v>
@@ -4662,12 +4714,12 @@
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>6</v>
@@ -4676,7 +4728,7 @@
         <v>250</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>7</v>
@@ -4686,21 +4738,21 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>7</v>
@@ -4710,12 +4762,12 @@
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="7" t="s">
-        <v>370</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>6</v>
@@ -4724,7 +4776,7 @@
         <v>250</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>7</v>
@@ -4734,12 +4786,12 @@
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="7" t="s">
-        <v>252</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>366</v>
+        <v>249</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>6</v>
@@ -4748,7 +4800,7 @@
         <v>250</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>7</v>
@@ -4758,45 +4810,45 @@
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="7" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>7</v>
@@ -4806,21 +4858,21 @@
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>7</v>
@@ -4830,12 +4882,12 @@
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>6</v>
@@ -4844,22 +4896,22 @@
         <v>12</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>6</v>
@@ -4868,7 +4920,7 @@
         <v>12</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>362</v>
+        <v>46</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>7</v>
@@ -4878,12 +4930,12 @@
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>109</v>
+        <v>357</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>6</v>
@@ -4892,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>110</v>
+        <v>358</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>7</v>
@@ -4902,21 +4954,21 @@
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>7</v>
@@ -4926,21 +4978,21 @@
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>7</v>
@@ -4950,99 +5002,93 @@
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="6"/>
+      <c r="H126" s="7" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>7</v>
@@ -5050,114 +5096,118 @@
       <c r="F127" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="G127" s="6"/>
       <c r="H127" s="7" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="5" t="s">
+      <c r="B131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G128" s="6" t="s">
+      <c r="E131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H128" s="7" t="s">
+      <c r="H131" s="7" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>6</v>
@@ -5166,7 +5216,7 @@
         <v>230</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>7</v>
@@ -5176,45 +5226,45 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>245</v>
+        <v>343</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="7" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>422</v>
+        <v>229</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>7</v>
@@ -5224,18 +5274,18 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>80</v>
@@ -5248,86 +5298,84 @@
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" s="6"/>
       <c r="H136" s="7" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="7" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>483</v>
+        <v>28</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>6</v>
@@ -5336,22 +5384,24 @@
         <v>29</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>484</v>
+        <v>30</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G139" s="6"/>
+      <c r="G139" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="H139" s="7" t="s">
-        <v>485</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>6</v>
@@ -5360,24 +5410,22 @@
         <v>29</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G140" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="G140" s="6"/>
       <c r="H140" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>240</v>
+        <v>398</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>6</v>
@@ -5386,55 +5434,55 @@
         <v>29</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>11</v>
+        <v>481</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="7" t="s">
-        <v>9</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>7</v>
@@ -5443,24 +5491,24 @@
         <v>7</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>7</v>
@@ -5470,353 +5518,339 @@
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="6"/>
+      <c r="H147" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A145" s="8" t="s">
+    <row r="148" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="8" t="s">
+      <c r="B148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D148" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E145" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G145" s="9" t="s">
+      <c r="E148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H145" s="10" t="s">
+      <c r="H148" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A146" s="8" t="s">
+    <row r="149" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="8" t="s">
+      <c r="B149" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D149" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E146" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G146" s="9" t="s">
+      <c r="E149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H146" s="10" t="s">
+      <c r="H149" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" s="8" t="s">
+    <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D150" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E147" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G147" s="9"/>
-      <c r="H147" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="8" t="s">
+      <c r="E150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="6"/>
+      <c r="H150" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="8" t="s">
+      <c r="B151" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D151" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E148" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G148" s="9"/>
-      <c r="H148" s="10" t="s">
+      <c r="E151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="6"/>
+      <c r="H151" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="8" t="s">
+    <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="8" t="s">
+      <c r="B152" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D152" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E149" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="9"/>
-      <c r="H149" s="10" t="s">
+      <c r="E152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="6"/>
+      <c r="H152" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="8" t="s">
+    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="8" t="s">
+      <c r="B153" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D153" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E150" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G150" s="9"/>
-      <c r="H150" s="10" t="s">
+      <c r="E153" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="H153" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="8" t="s">
+    <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="8" t="s">
+      <c r="B154" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D154" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E151" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="9" t="s">
+      <c r="E154" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H151" s="10" t="s">
+      <c r="H154" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="8" t="s">
+    <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="8" t="s">
+      <c r="B155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D155" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E152" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G152" s="9" t="s">
+      <c r="E155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H152" s="10" t="s">
+      <c r="H155" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A153" s="8" t="s">
+    <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="8" t="s">
+      <c r="B156" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D156" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E153" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G153" s="9"/>
-      <c r="H153" s="10" t="s">
+      <c r="E156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="6"/>
+      <c r="H156" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" s="8" t="s">
+    <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="8" t="s">
+      <c r="B157" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D157" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E154" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G154" s="9"/>
-      <c r="H154" s="10" t="s">
+      <c r="E157" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G157" s="6"/>
+      <c r="H157" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="8"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="8"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="10"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="8"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="10"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="8"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="10"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="8"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="10"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="8"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="10"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="8"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="10"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="8"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="10"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" s="8"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q165" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H165">
-    <sortCondition ref="C8:C165"/>
-    <sortCondition ref="D8:D165"/>
-    <sortCondition ref="H8:H165"/>
+  <autoFilter ref="A1:H165" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H158">
+    <sortCondition ref="C8:C158"/>
+    <sortCondition ref="D8:D158"/>
+    <sortCondition ref="H8:H158"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FDC707-87FA-473D-BADD-2C8C7411C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CE4F4-E021-4E4A-8148-8369D4BCB338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="-18000" windowWidth="27495" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="14550" yWindow="-18555" windowWidth="21720" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Release 3.0 and 3.5 CORE rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Release 3.0 and 3.6 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 3.0 and 3.5 CORE rules'!$A$1:$H$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 3.0 and 3.6 CORE rules'!$A$1:$H$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="579">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Within subject enrollment, the quantity must be a number or a percentage (i.e. the unit must be empty or %)</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>CHK0026</t>
   </si>
   <si>
-    <t>A study version's study phase must be specifed using the Trial Phase Response (C66737) SDTM codelist.</t>
-  </si>
-  <si>
     <t>studyPhase</t>
   </si>
   <si>
@@ -530,9 +524,6 @@
     <t>CHK0069</t>
   </si>
   <si>
-    <t>All standard code aliases referenced by an alias code must be unique.</t>
-  </si>
-  <si>
     <t>AliasCode</t>
   </si>
   <si>
@@ -554,9 +545,6 @@
     <t>GovernanceDate</t>
   </si>
   <si>
-    <t>type, geographicScopes</t>
-  </si>
-  <si>
     <t>CHK0077</t>
   </si>
   <si>
@@ -566,15 +554,9 @@
     <t>CHK0078</t>
   </si>
   <si>
-    <t>Within a study version, if a date of a specific type exists with a global geographic scope then no other dates must be specified with the same type.</t>
-  </si>
-  <si>
     <t>CHK0079</t>
   </si>
   <si>
-    <t>Within a study protocol document version, if a date of a specific type exists with a global geographic scope then no other dates must be specified with the same type.</t>
-  </si>
-  <si>
     <t>CHK0080</t>
   </si>
   <si>
@@ -629,15 +611,6 @@
     <t>timeline</t>
   </si>
   <si>
-    <t>CHK0102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of the study identifiers defined for a study version, at least one must have an identifier scope that references a clinical study sponsor organization. </t>
-  </si>
-  <si>
-    <t>DDF00039</t>
-  </si>
-  <si>
     <t>CHK0105</t>
   </si>
   <si>
@@ -728,9 +701,6 @@
     <t>CHK0124</t>
   </si>
   <si>
-    <t>A study intervention's role must be specifed using the XXX (Cnnn) DDF codelist.</t>
-  </si>
-  <si>
     <t>StudyIntervention</t>
   </si>
   <si>
@@ -740,9 +710,6 @@
     <t>CHK0125</t>
   </si>
   <si>
-    <t>An agent administration's frequency must be specfied using the Frequency (C71113) SDTM codelist.</t>
-  </si>
-  <si>
     <t>AgentAdministration</t>
   </si>
   <si>
@@ -788,9 +755,6 @@
     <t>CHK0133</t>
   </si>
   <si>
-    <t>A study design's trial intent types must be specified using the Trial Intent Type Response (C66736) SDTM codelist.</t>
-  </si>
-  <si>
     <t>StudyDesign</t>
   </si>
   <si>
@@ -800,45 +764,30 @@
     <t>CHK0134</t>
   </si>
   <si>
-    <t>A study design's trial types must be specified using the Trial Type Response (C66739) SDTM codelist.</t>
-  </si>
-  <si>
     <t>trialTypes</t>
   </si>
   <si>
     <t>CHK0135</t>
   </si>
   <si>
-    <t>A study design's intervention model must be specified using the Intervention Model Response (C99076) SDTM codelist.</t>
-  </si>
-  <si>
     <t>interventionModel</t>
   </si>
   <si>
     <t>CHK0136</t>
   </si>
   <si>
-    <t>A study design's blinding schema must be specified using the Trial Blinding Schema Response (C66735) SDTM codelist.</t>
-  </si>
-  <si>
     <t>blindingSchema</t>
   </si>
   <si>
     <t>CHK0137</t>
   </si>
   <si>
-    <t>A study design's characteristics must be specifed using the XXX (Cnnn) DDF codelist.</t>
-  </si>
-  <si>
     <t>characteristics</t>
   </si>
   <si>
     <t>CHK0138</t>
   </si>
   <si>
-    <t>A masking role must be specifed using the XXX (Cnnn) DDF codelist.</t>
-  </si>
-  <si>
     <t>Masking</t>
   </si>
   <si>
@@ -950,9 +899,6 @@
     <t>CHK0075</t>
   </si>
   <si>
-    <t>if geographic scope type is not global then a code is expected to specify the specific area within scope.</t>
-  </si>
-  <si>
     <t>GeographicScope</t>
   </si>
   <si>
@@ -974,12 +920,6 @@
     <t>Narrative content children are expected to have section numbers that start with the parent section numbers.</t>
   </si>
   <si>
-    <t>CHK0107</t>
-  </si>
-  <si>
-    <t>Section numbers are expected to be continuous. No gaps are expected in numbering.</t>
-  </si>
-  <si>
     <t>CHK0114</t>
   </si>
   <si>
@@ -1016,15 +956,6 @@
     <t>synonyms</t>
   </si>
   <si>
-    <t>CHK0132</t>
-  </si>
-  <si>
-    <t>Section numbers are expected to follow the ordering as specified in the previous next attributes.</t>
-  </si>
-  <si>
-    <t>sectionNumber, previous, next</t>
-  </si>
-  <si>
     <t>CHK0140</t>
   </si>
   <si>
@@ -1070,18 +1001,12 @@
     <t>CHK0150</t>
   </si>
   <si>
-    <t>A study intervention's product designation must be specifed using the XXX (Cnnn) DDF codelist.</t>
-  </si>
-  <si>
     <t>productDesignation</t>
   </si>
   <si>
     <t>CHK0151</t>
   </si>
   <si>
-    <t>An agent administration's route must be specfied using the Route of Administration Response (C66729) SDTM codelist.</t>
-  </si>
-  <si>
     <t>route</t>
   </si>
   <si>
@@ -1175,15 +1100,9 @@
     <t>CHK0164</t>
   </si>
   <si>
-    <t>An encounter's environmental settings must be specfied using the Environmental Setting (C127262) SDTM codelist.</t>
-  </si>
-  <si>
     <t>CHK0165</t>
   </si>
   <si>
-    <t>An encounter's contact modes must be specfied using the Mode of Subject Contact (C171445) SDTM codelist.</t>
-  </si>
-  <si>
     <t>CHK0166</t>
   </si>
   <si>
@@ -1217,9 +1136,6 @@
     <t>CHK0171</t>
   </si>
   <si>
-    <t>The environmental settings identified for an encounter must be coded according to SDTM codelist C127262.</t>
-  </si>
-  <si>
     <t>CHK0172</t>
   </si>
   <si>
@@ -1265,18 +1181,12 @@
     <t>Data types of attributes (string, number, boolean) must conform with the USDM schema based on the API specification.</t>
   </si>
   <si>
-    <t>A timing must only be defined relative to/from a scheduled activity/decision instance that is defined within the same timeline as the timing.</t>
-  </si>
-  <si>
     <t>CHK0004</t>
   </si>
   <si>
     <t>Within a study design, there must be at least 1 eligibility criterion that is referenced by either a study population or a cohort.</t>
   </si>
   <si>
-    <t xml:space="preserve">Of the study identifiers defined for a study version, maximum one must have an identifier scope that references a clinical study sponsor organization. </t>
-  </si>
-  <si>
     <t>CHK0028</t>
   </si>
   <si>
@@ -1325,9 +1235,6 @@
     <t>In case of a planned age, an age related unit is expected (i.e. DAYS, MONTHS, or YEARS).</t>
   </si>
   <si>
-    <t>Every study version must have an official study title.</t>
-  </si>
-  <si>
     <t>Attributes must be included as defined in the USDM schema based on the API specification (i.e., all required properties are present and no additional attributes are present).</t>
   </si>
   <si>
@@ -1463,24 +1370,12 @@
     <t>CHK0184</t>
   </si>
   <si>
-    <t>A study definition document type must be specifed using the XXX (Cnnn) DDF codelist.</t>
-  </si>
-  <si>
     <t>StudyDefinitionDocument</t>
   </si>
   <si>
     <t>CHK0185</t>
   </si>
   <si>
-    <t>A study definition document language must be specifed using the XXX (Cnnn) codelist.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>CHK0186</t>
-  </si>
-  <si>
     <t>A study definition document version must not be referenced more than once by the same study version.</t>
   </si>
   <si>
@@ -1499,9 +1394,6 @@
     <t>CHK0188</t>
   </si>
   <si>
-    <t>A study definition document version's status must be specifed using the status Value Set Terminology (XXX) DDF codelist.</t>
-  </si>
-  <si>
     <t>StudyDefinitionDocumentVersion</t>
   </si>
   <si>
@@ -1538,9 +1430,6 @@
     <t>CHK0190</t>
   </si>
   <si>
-    <t>A study arm must only reference cohorts that are defined within the population that is defined within the same study design as the study arm.</t>
-  </si>
-  <si>
     <t>DDF00050</t>
   </si>
   <si>
@@ -1563,6 +1452,330 @@
   </si>
   <si>
     <t>longName</t>
+  </si>
+  <si>
+    <t>A timing must only be specified as being relative to/from a scheduled activity/decision instance that is defined within the same timeline as the timing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every study version must have exactly one study identifier with an identifier scope that references a clinical study sponsor organization. </t>
+  </si>
+  <si>
+    <t>SubjectEnrollment</t>
+  </si>
+  <si>
+    <t>A study version's study phase must be specifed according to the extensible Trial Phase Response (C66737) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>All standard code aliases referenced by an instance of the alias code class must be unique.</t>
+  </si>
+  <si>
+    <t>DDF00052</t>
+  </si>
+  <si>
+    <t>If geographic scope type is not global then a code is expected to specify the specific area within scope.</t>
+  </si>
+  <si>
+    <t>dateValues</t>
+  </si>
+  <si>
+    <t>Within a study version, if a date of a specific type exists with a global geographic scope then no other dates are expected with the same type.</t>
+  </si>
+  <si>
+    <t>Within a study protocol document version, if a date of a specific type exists with a global geographic scope then no other dates are expected with the same type.</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>DDF00051</t>
+  </si>
+  <si>
+    <t>DDF00053</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber, plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>A study intervention's role must be specifed using the study intervention role (C207417) DDF codelist.</t>
+  </si>
+  <si>
+    <t>An agent administration's frequency must be specfied according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Every study version must have a title of type "Official Study Title".</t>
+  </si>
+  <si>
+    <t>A study design's trial intent types must be specified according to the extensible Trial Intent Type Response (C66736) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study design's trial types must be specified according to the extensible Trial Type Response (C66739) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study design's intervention model must be specified according to the extensible Intervention Model Response (C99076) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study design's blinding schema must be specified according to the extensible Trial Blinding Schema Response (C66735) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study design's characteristics must be specifed according to the Study design characteristics (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A masking role must be specifed according to the extensible masking role (C207414) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study intervention's product designation must be specifed using the product Designation (C207418) DDF codelist.</t>
+  </si>
+  <si>
+    <t>An agent administration's route must be specfied according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00054</t>
+  </si>
+  <si>
+    <t>DDF00055</t>
+  </si>
+  <si>
+    <t>DDF00056</t>
+  </si>
+  <si>
+    <t>DDF00057</t>
+  </si>
+  <si>
+    <t>DDF00058</t>
+  </si>
+  <si>
+    <t>DDF00059</t>
+  </si>
+  <si>
+    <t>An encounter's environmental setting must be specified according to the extensible Environmental Setting (C127262) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>An encounter's contact modes must be specfied according to the Mode of Subject Contact (C171445) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study definition document type must be specifed according to the extensible XXX (Cnnn) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study definition document version's status must be specifed using the status Value Set Terminology (C188723) DDF codelist.</t>
+  </si>
+  <si>
+    <t>A study arm must only reference cohorts that are defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>CHK0193</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>CHK0194</t>
+  </si>
+  <si>
+    <t>Every identifier must be unique within the scope of an identified organization.</t>
+  </si>
+  <si>
+    <t>studyIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0195</t>
+  </si>
+  <si>
+    <t>StudyIdentifier, ReferenceIdentifier, AdministrableProductIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0196</t>
+  </si>
+  <si>
+    <t>An identified organization is not expected to have more than 1 identifier for the study.</t>
+  </si>
+  <si>
+    <t>CHK0197</t>
+  </si>
+  <si>
+    <t>CHK0198</t>
+  </si>
+  <si>
+    <t>The minimum value of a range must be less than the maximum value of the range.</t>
+  </si>
+  <si>
+    <t>CHK0199</t>
+  </si>
+  <si>
+    <t>An administration's frequency must be specfied according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>CHK0200</t>
+  </si>
+  <si>
+    <t>An administration's route must be specfied according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0201</t>
+  </si>
+  <si>
+    <t>dose, route</t>
+  </si>
+  <si>
+    <t>CHK0202</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>CHK0203</t>
+  </si>
+  <si>
+    <t>An administrable dose form must be specfied according to the extensible Pharmaceutical Dosage Form (C66726) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>AdministrableProduct</t>
+  </si>
+  <si>
+    <t>administrableDoseForm</t>
+  </si>
+  <si>
+    <t>CHK0204</t>
+  </si>
+  <si>
+    <t>An administrable product property type must be specified according to the extensible administrable property type (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>AdministrableProductProperty</t>
+  </si>
+  <si>
+    <t>CHK0205</t>
+  </si>
+  <si>
+    <t>An organization type must be specified according to the extensible organization type (C188724) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Organization, ResearchOrganization</t>
+  </si>
+  <si>
+    <t>organizationType</t>
+  </si>
+  <si>
+    <t>CHK0206</t>
+  </si>
+  <si>
+    <t>A planned sex must be specfied using to the Sex of participants (C66732) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>CHK0207</t>
+  </si>
+  <si>
+    <t>CHK0208</t>
+  </si>
+  <si>
+    <t>CHK0209</t>
+  </si>
+  <si>
+    <t>A governance date type must be specified according to the extensible governance date type (C207413) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0210</t>
+  </si>
+  <si>
+    <t>A study amendment reason must be coded using the study amendment reason (C207415) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0211</t>
+  </si>
+  <si>
+    <t>A study geographic scope type must be specified using the geographic scope type (C207412) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unit must be coded according to the extensible unit (C71620) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist). </t>
+  </si>
+  <si>
+    <t>Range, Quantity</t>
+  </si>
+  <si>
+    <t>CHK0213</t>
+  </si>
+  <si>
+    <t>A study title type must be specified using the study title type (C207419) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0214</t>
+  </si>
+  <si>
+    <t>A reference identifier type must be specified according to the extensible reference identifier type (Cxxx) DDF codelist  (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>ReferenceIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0215</t>
+  </si>
+  <si>
+    <t>An objective level must be specified using the objective level (C188725) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0216</t>
+  </si>
+  <si>
+    <t>An endpoint level must be specified using the endpoint level (C188726) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0217</t>
+  </si>
+  <si>
+    <t>A study arm data origin type must be specified according to the extensible data origin type (C188727) DDF codelist  (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>dataOriginType</t>
+  </si>
+  <si>
+    <t>CHK0218</t>
+  </si>
+  <si>
+    <t>An encounter type must be specified according to the extensible encounter type (C188728) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0219</t>
+  </si>
+  <si>
+    <t>A referenced substance must not have any references itself.</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>referenceSubstance</t>
+  </si>
+  <si>
+    <t>CHK0220</t>
+  </si>
+  <si>
+    <t>dose, administrableProduct</t>
+  </si>
+  <si>
+    <t>CHK0221</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>numerator, denominator</t>
+  </si>
+  <si>
+    <t>If a dose is specified then a corresponding frequency must also be specified.</t>
+  </si>
+  <si>
+    <t>If a dose is specified then a corresponding administrable product must also be specified and vice versa.</t>
+  </si>
+  <si>
+    <t>If an administration's dose is specified then a corresponding route is expected and vice versa.</t>
+  </si>
+  <si>
+    <t>A unit must be specified for every strength denominator and numerator</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1623,11 +1836,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1642,6 +1866,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1980,13 +2207,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.08984375" style="1" customWidth="1"/>
@@ -2000,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2015,15 +2244,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -2047,7 +2276,7 @@
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -2071,7 +2300,7 @@
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -2090,12 +2319,12 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -2114,7 +2343,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2169,16 +2398,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
@@ -2188,21 +2417,21 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
@@ -2212,21 +2441,21 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>7</v>
@@ -2236,21 +2465,21 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>7</v>
@@ -2260,21 +2489,21 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>7</v>
@@ -2284,21 +2513,21 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>7</v>
@@ -2308,21 +2537,21 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
@@ -2332,21 +2561,21 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>14</v>
@@ -2356,21 +2585,21 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>7</v>
@@ -2380,21 +2609,21 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>14</v>
@@ -2404,21 +2633,21 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>7</v>
@@ -2428,21 +2657,21 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>7</v>
@@ -2454,21 +2683,21 @@
         <v>15</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>7</v>
@@ -2478,18 +2707,18 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
@@ -2501,300 +2730,292 @@
         <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>529</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>534</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>338</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>233</v>
+        <v>575</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>234</v>
+        <v>521</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>235</v>
+        <v>527</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>232</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>346</v>
+        <v>576</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>234</v>
+        <v>521</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>347</v>
+        <v>571</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>345</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>163</v>
+        <v>577</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>164</v>
+        <v>521</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>165</v>
+        <v>525</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>164</v>
+        <v>521</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>323</v>
+        <v>523</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>296</v>
+        <v>521</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="E32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>308</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>289</v>
+        <v>161</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>290</v>
+        <v>162</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>7</v>
@@ -2802,23 +3023,25 @@
       <c r="F33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="H33" s="7" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>289</v>
+        <v>161</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>290</v>
+        <v>162</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>7</v>
@@ -2828,21 +3051,21 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>7</v>
@@ -2850,25 +3073,23 @@
       <c r="F35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>491</v>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>7</v>
@@ -2876,23 +3097,25 @@
       <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="H36" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>67</v>
+        <v>423</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>7</v>
@@ -2900,23 +3123,25 @@
       <c r="F37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="H37" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>315</v>
+        <v>57</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>316</v>
+        <v>58</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>7</v>
@@ -2925,24 +3150,24 @@
         <v>7</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>458</v>
+        <v>59</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>313</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>225</v>
+        <v>460</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>7</v>
@@ -2950,23 +3175,25 @@
       <c r="F39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="H39" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>7</v>
@@ -2974,25 +3201,23 @@
       <c r="F40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="7" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>7</v>
@@ -3002,21 +3227,21 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>352</v>
+        <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>353</v>
+        <v>66</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>7</v>
@@ -3024,23 +3249,25 @@
       <c r="F42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="H42" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>380</v>
+        <v>164</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>353</v>
+        <v>66</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>7</v>
@@ -3050,117 +3277,121 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>379</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>427</v>
+      </c>
       <c r="H45" s="7" t="s">
-        <v>377</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>389</v>
+        <v>216</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>392</v>
+        <v>118</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="H47" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>7</v>
@@ -3170,21 +3401,21 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>435</v>
+        <v>327</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>7</v>
@@ -3192,23 +3423,25 @@
       <c r="F49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="H49" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>97</v>
+        <v>503</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>7</v>
@@ -3216,121 +3449,121 @@
       <c r="F50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="7" t="s">
-        <v>96</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>419</v>
+        <v>211</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="H51" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>303</v>
+        <v>502</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>169</v>
+        <v>362</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>171</v>
+        <v>363</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>173</v>
+        <v>502</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>171</v>
+        <v>363</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>7</v>
@@ -3340,21 +3573,21 @@
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>177</v>
+        <v>404</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>7</v>
@@ -3364,21 +3597,21 @@
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>372</v>
+        <v>565</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>7</v>
@@ -3388,21 +3621,21 @@
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>371</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>265</v>
+        <v>95</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>7</v>
@@ -3410,71 +3643,73 @@
       <c r="F58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="H58" s="7" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>466</v>
+        <v>93</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>483</v>
+        <v>560</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>484</v>
+        <v>93</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>7</v>
@@ -3484,21 +3719,21 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>310</v>
+        <v>548</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>7</v>
@@ -3508,21 +3743,21 @@
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>312</v>
+        <v>544</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>7</v>
@@ -3532,45 +3767,47 @@
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>311</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>468</v>
+        <v>347</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>500</v>
+      </c>
       <c r="H64" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>326</v>
+        <v>493</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>7</v>
@@ -3580,21 +3817,21 @@
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>14</v>
@@ -3604,45 +3841,45 @@
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>127</v>
+        <v>448</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>122</v>
+        <v>449</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>126</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>7</v>
@@ -3652,117 +3889,117 @@
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>463</v>
+        <v>126</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="7" t="s">
-        <v>464</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>93</v>
+        <v>437</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7" t="s">
-        <v>92</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>243</v>
+        <v>440</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>95</v>
+        <v>441</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>7</v>
@@ -3772,47 +4009,45 @@
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>418</v>
+        <v>125</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>493</v>
-      </c>
+      <c r="G74" s="6"/>
       <c r="H74" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>421</v>
+        <v>91</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>7</v>
@@ -3822,21 +4057,21 @@
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="7" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>7</v>
@@ -3844,25 +4079,23 @@
       <c r="F76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>445</v>
-      </c>
+      <c r="G76" s="6"/>
       <c r="H76" s="7" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>431</v>
+        <v>558</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>7</v>
@@ -3870,49 +4103,47 @@
       <c r="F77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>453</v>
-      </c>
+      <c r="G77" s="6"/>
       <c r="H77" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>223</v>
+        <v>537</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>321</v>
+        <v>538</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>320</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>426</v>
+        <v>251</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>7</v>
@@ -3920,25 +4151,23 @@
       <c r="F79" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>460</v>
-      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>7</v>
@@ -3948,21 +4177,21 @@
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>227</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>7</v>
@@ -3970,23 +4199,25 @@
       <c r="F81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="6"/>
+      <c r="G81" s="6" t="s">
+        <v>457</v>
+      </c>
       <c r="H81" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>188</v>
+        <v>391</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>7</v>
@@ -3996,21 +4227,21 @@
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>194</v>
+        <v>400</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>7</v>
@@ -4019,48 +4250,48 @@
         <v>7</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>89</v>
+        <v>518</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>7</v>
@@ -4068,25 +4299,23 @@
       <c r="F85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="G85" s="6"/>
       <c r="H85" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>53</v>
+        <v>551</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>7</v>
@@ -4096,47 +4325,45 @@
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="D88" s="5" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>7</v>
@@ -4144,25 +4371,23 @@
       <c r="F88" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>443</v>
-      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>422</v>
+        <v>182</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>7</v>
@@ -4172,18 +4397,18 @@
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>189</v>
@@ -4194,119 +4419,125 @@
       <c r="F90" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="H90" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>383</v>
+        <v>52</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="7" t="s">
-        <v>384</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>394</v>
+        <v>87</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>383</v>
+        <v>52</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>278</v>
+        <v>88</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="H92" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>383</v>
+        <v>52</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="7" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>382</v>
+        <v>51</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>383</v>
+        <v>52</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="H94" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>7</v>
@@ -4314,23 +4545,25 @@
       <c r="F95" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="H95" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>7</v>
@@ -4338,25 +4571,23 @@
       <c r="F96" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="G96" s="6"/>
       <c r="H96" s="7" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>7</v>
@@ -4364,127 +4595,119 @@
       <c r="F97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>415</v>
+        <v>261</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>416</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G98" s="6"/>
       <c r="H98" s="7" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>494</v>
+        <v>366</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>495</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" s="6"/>
       <c r="H99" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>499</v>
+        <v>360</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>500</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" s="6"/>
       <c r="H100" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>333</v>
+        <v>206</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>7</v>
@@ -4494,21 +4717,21 @@
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>335</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>440</v>
+        <v>72</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>7</v>
@@ -4517,24 +4740,24 @@
         <v>7</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>455</v>
+        <v>174</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>7</v>
@@ -4543,120 +4766,122 @@
         <v>7</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>492</v>
+        <v>175</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>461</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="8" t="s">
+        <v>578</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>101</v>
+        <v>573</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>102</v>
+        <v>574</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7" t="s">
-        <v>462</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>478</v>
+        <v>287</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G107" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="H107" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>487</v>
+        <v>177</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="7" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>259</v>
+        <v>458</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>7</v>
@@ -4664,23 +4889,25 @@
       <c r="F109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="6"/>
+      <c r="G109" s="6" t="s">
+        <v>459</v>
+      </c>
       <c r="H109" s="7" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>262</v>
+        <v>506</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>7</v>
@@ -4688,23 +4915,25 @@
       <c r="F110" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="6"/>
+      <c r="G110" s="6" t="s">
+        <v>463</v>
+      </c>
       <c r="H110" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>7</v>
@@ -4714,21 +4943,21 @@
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="7" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>7</v>
@@ -4738,21 +4967,21 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>7</v>
@@ -4760,23 +4989,25 @@
       <c r="F113" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G113" s="6"/>
+      <c r="G113" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="H113" s="7" t="s">
-        <v>291</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>368</v>
+        <v>100</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>7</v>
@@ -4784,143 +5015,145 @@
       <c r="F114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="6"/>
+      <c r="G114" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="H114" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>249</v>
+        <v>430</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>370</v>
+        <v>504</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>250</v>
+        <v>443</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>250</v>
+        <v>451</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>254</v>
+        <v>478</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>250</v>
+        <v>451</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>254</v>
+        <v>478</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="7" t="s">
-        <v>364</v>
+        <v>542</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>410</v>
+        <v>505</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>12</v>
+        <v>451</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>7</v>
@@ -4930,21 +5163,21 @@
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>357</v>
+        <v>492</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>7</v>
@@ -4954,21 +5187,21 @@
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>7</v>
@@ -4978,21 +5211,21 @@
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>7</v>
@@ -5002,21 +5235,21 @@
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>7</v>
@@ -5026,21 +5259,21 @@
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="7" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>7</v>
@@ -5048,23 +5281,25 @@
       <c r="F125" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>498</v>
+      </c>
       <c r="H125" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>7</v>
@@ -5074,21 +5309,21 @@
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>117</v>
+        <v>345</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>7</v>
@@ -5096,23 +5331,25 @@
       <c r="F127" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G127" s="6"/>
+      <c r="G127" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="H127" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>7</v>
@@ -5120,25 +5357,23 @@
       <c r="F128" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="6" t="s">
-        <v>442</v>
-      </c>
+      <c r="G128" s="6"/>
       <c r="H128" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>7</v>
@@ -5147,50 +5382,48 @@
         <v>7</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G130" s="6"/>
       <c r="H130" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>7</v>
@@ -5198,25 +5431,23 @@
       <c r="F131" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="6" t="s">
-        <v>198</v>
-      </c>
+      <c r="G131" s="6"/>
       <c r="H131" s="7" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>7</v>
@@ -5226,21 +5457,21 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>7</v>
@@ -5250,21 +5481,21 @@
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>7</v>
@@ -5274,21 +5505,21 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>7</v>
@@ -5298,45 +5529,47 @@
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>245</v>
+        <v>396</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="H136" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>420</v>
+        <v>107</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>7</v>
@@ -5346,21 +5579,21 @@
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>428</v>
+        <v>540</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>7</v>
@@ -5370,21 +5603,21 @@
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="7" t="s">
-        <v>238</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>28</v>
+        <v>395</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>7</v>
@@ -5392,275 +5625,271 @@
       <c r="F139" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G139" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="G139" s="6"/>
       <c r="H139" s="7" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="7" t="s">
-        <v>395</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>398</v>
+        <v>115</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="E141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E144" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G141" s="6"/>
-      <c r="H141" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G142" s="6"/>
-      <c r="H142" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>408</v>
+        <v>515</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>11</v>
+        <v>508</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G145" s="6" t="s">
-        <v>490</v>
-      </c>
+      <c r="G145" s="6"/>
       <c r="H145" s="7" t="s">
-        <v>9</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>70</v>
+        <v>510</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>71</v>
+        <v>511</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" s="6"/>
       <c r="H146" s="7" t="s">
-        <v>69</v>
+        <v>509</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>207</v>
+        <v>472</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G147" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="H147" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" s="6"/>
       <c r="H148" s="7" t="s">
-        <v>81</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>86</v>
+        <v>510</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>10</v>
+        <v>513</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G149" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="G149" s="6"/>
       <c r="H149" s="7" t="s">
-        <v>85</v>
+        <v>512</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>7</v>
@@ -5668,23 +5897,25 @@
       <c r="F150" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G150" s="6"/>
+      <c r="G150" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="H150" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>7</v>
@@ -5694,21 +5925,21 @@
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="7" t="s">
-        <v>78</v>
+        <v>319</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>7</v>
@@ -5718,21 +5949,21 @@
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>7</v>
@@ -5742,97 +5973,93 @@
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="7" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G154" s="6"/>
       <c r="H154" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G155" s="6"/>
       <c r="H155" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="7" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>283</v>
+        <v>553</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>7</v>
@@ -5842,15 +6069,635 @@
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="7" t="s">
-        <v>282</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="6"/>
+      <c r="H159" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="6"/>
+      <c r="H160" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G161" s="6"/>
+      <c r="H161" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162" s="6"/>
+      <c r="H162" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="6"/>
+      <c r="H163" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="6"/>
+      <c r="H165" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" s="6"/>
+      <c r="H166" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" s="6"/>
+      <c r="H167" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="6"/>
+      <c r="H169" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" s="6"/>
+      <c r="H172" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="H175" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176" s="6"/>
+      <c r="H176" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G178" s="6"/>
+      <c r="H178" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G181" s="6"/>
+      <c r="H181" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G182" s="6"/>
+      <c r="H182" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H165" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H158">
-    <sortCondition ref="C8:C158"/>
-    <sortCondition ref="D8:D158"/>
-    <sortCondition ref="H8:H158"/>
+  <autoFilter ref="A1:H182" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H182">
+    <sortCondition ref="C8:C182"/>
+    <sortCondition ref="D8:D182"/>
+    <sortCondition ref="H8:H182"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CE4F4-E021-4E4A-8148-8369D4BCB338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E7272E-D78E-4FB7-A5F3-6E0C59E2299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="-18555" windowWidth="21720" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="9780" yWindow="-20040" windowWidth="22170" windowHeight="18135" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Release 3.0 and 3.6 CORE rules" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="592">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -125,9 +125,6 @@
     <t>CHK0013</t>
   </si>
   <si>
-    <t>Within a study version, if more than 1 business therapeutic area is defined the they must be distinct.</t>
-  </si>
-  <si>
     <t>StudyVersion</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>CHK0018</t>
   </si>
   <si>
-    <t>A window must not be defined for a Fixed Reference timing.</t>
-  </si>
-  <si>
     <t>DDF00025</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>CHK0030</t>
   </si>
   <si>
-    <t>Within a study design, there must be at least one scheduled timeline which identifies as the main Timeline.</t>
-  </si>
-  <si>
     <t>ScheduleTimeline</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
     <t>CHK0032</t>
   </si>
   <si>
-    <t>If timing type is "Fixed Reference" then it must point to one scheduled instance (e.g. attribute relativeToScheduledInstance must be equal to relativeFromScheduledInstance or it must be missing).</t>
-  </si>
-  <si>
     <t>relativeToScheduledInstance</t>
   </si>
   <si>
@@ -314,9 +302,6 @@
     <t>CHK0035</t>
   </si>
   <si>
-    <t>Within a study design there must be at least 1 objective with level 'Primary Objective'.</t>
-  </si>
-  <si>
     <t>Objective</t>
   </si>
   <si>
@@ -374,9 +359,6 @@
     <t>CHK0044</t>
   </si>
   <si>
-    <t>Encounter ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their defaultcondition attribute.</t>
-  </si>
-  <si>
     <t>Encounter</t>
   </si>
   <si>
@@ -386,9 +368,6 @@
     <t>CHK0045</t>
   </si>
   <si>
-    <t>Epoch ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their defaultcondition attribute.</t>
-  </si>
-  <si>
     <t>StudyEpoch</t>
   </si>
   <si>
@@ -410,9 +389,6 @@
     <t>CHK0049</t>
   </si>
   <si>
-    <t>References in the text must be specified using the tag attribute in the data dictionary.</t>
-  </si>
-  <si>
     <t>CHK0050</t>
   </si>
   <si>
@@ -560,15 +536,6 @@
     <t>CHK0080</t>
   </si>
   <si>
-    <t>CHK0082</t>
-  </si>
-  <si>
-    <t>Of the timelines defined for a study design, maximum one must be marked as main.</t>
-  </si>
-  <si>
-    <t>DDF00011</t>
-  </si>
-  <si>
     <t>CHK0067</t>
   </si>
   <si>
@@ -734,12 +701,6 @@
     <t>studyType</t>
   </si>
   <si>
-    <t>CHK0130</t>
-  </si>
-  <si>
-    <t>Within a study design there must be a maximum of 1 objective with with level 'Primary Objective'.</t>
-  </si>
-  <si>
     <t>CHK0131</t>
   </si>
   <si>
@@ -794,9 +755,6 @@
     <t>CHK0139</t>
   </si>
   <si>
-    <t xml:space="preserve">References in a parameter map must be available elsewhere in the data model. </t>
-  </si>
-  <si>
     <t>ParameterMap</t>
   </si>
   <si>
@@ -887,15 +845,6 @@
     <t>isApproximate</t>
   </si>
   <si>
-    <t>CHK0086</t>
-  </si>
-  <si>
-    <t>Within a study design, the planned completion and/or planned enrollment number must be specified either in the study population or in all cohorts.</t>
-  </si>
-  <si>
-    <t>plannedCompletionNumber, plannedEnrollmentNumber</t>
-  </si>
-  <si>
     <t>CHK0075</t>
   </si>
   <si>
@@ -914,12 +863,6 @@
     <t>DDF00035</t>
   </si>
   <si>
-    <t>CHK0106</t>
-  </si>
-  <si>
-    <t>Narrative content children are expected to have section numbers that start with the parent section numbers.</t>
-  </si>
-  <si>
     <t>CHK0114</t>
   </si>
   <si>
@@ -959,9 +902,6 @@
     <t>CHK0140</t>
   </si>
   <si>
-    <t>All ActivityInstances are expected to be referring an epoch within the same study Design</t>
-  </si>
-  <si>
     <t>CHK0103</t>
   </si>
   <si>
@@ -1160,9 +1100,6 @@
     <t>CHK0177</t>
   </si>
   <si>
-    <t>References must be a fixed value or a reference to items stored elsewhere in the data model which must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="ClassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "ClassName" and "attributeName" contain only letters in upper or lower case).</t>
-  </si>
-  <si>
     <t>Warning/ Error</t>
   </si>
   <si>
@@ -1472,9 +1409,6 @@
     <t>DDF00052</t>
   </si>
   <si>
-    <t>If geographic scope type is not global then a code is expected to specify the specific area within scope.</t>
-  </si>
-  <si>
     <t>dateValues</t>
   </si>
   <si>
@@ -1776,6 +1710,111 @@
   </si>
   <si>
     <t>A unit must be specified for every strength denominator and numerator</t>
+  </si>
+  <si>
+    <t>Within a study version, if more than 1 business therapeutic area is defined then they must be distinct.</t>
+  </si>
+  <si>
+    <t>A window must not be defined for an anchor timing (e.g. type is "Fixed Reference".</t>
+  </si>
+  <si>
+    <t>Within a study design, there must be exactly one scheduled timeline which identifies as the main Timeline.</t>
+  </si>
+  <si>
+    <t>If timing type is "Fixed Reference" then it must point to only one scheduled instance (e.g. attribute relativeToScheduledInstance must be equal to relativeFromScheduledInstance or it must be missing).</t>
+  </si>
+  <si>
+    <t>Within a study design there must be exactly one objective with level 'Primary Objective'.</t>
+  </si>
+  <si>
+    <t>Encounter ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their specified default conditions.</t>
+  </si>
+  <si>
+    <t>Epoch ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their specified default conditions.</t>
+  </si>
+  <si>
+    <t>Any parameter name referenced in a tag in the text should be specified in the data dictionary parameter maps.</t>
+  </si>
+  <si>
+    <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>If geographic scope type is global then no codes are expected to specify the specific area within scope while if it is not global then at least one code is expected to specify the specific area within scope.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referenced items in a parameter map must be available elsewhere in the data model. </t>
+  </si>
+  <si>
+    <t>All scheduled activity instances are expected to refer to an epoch within the same study Design</t>
+  </si>
+  <si>
+    <t>References must be a fixed value or a reference to items stored elsewhere in the data model which must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>CHK0222</t>
+  </si>
+  <si>
+    <t>If geographic scope type is global then there must be only one geographic scope specified.</t>
+  </si>
+  <si>
+    <t>geographicScopes</t>
+  </si>
+  <si>
+    <t>CHK0223</t>
+  </si>
+  <si>
+    <t>A study cell must only reference an arm that is defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>CHK0224</t>
+  </si>
+  <si>
+    <t>A study cell must only reference an epoch that is defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>CHK0225</t>
+  </si>
+  <si>
+    <t>An activity must only reference activities that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0226</t>
+  </si>
+  <si>
+    <t>An encounter must only reference encounters that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0227</t>
+  </si>
+  <si>
+    <t>An epoch must only reference encounters that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0228</t>
+  </si>
+  <si>
+    <t>An activity must only reference timelines that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0229</t>
+  </si>
+  <si>
+    <t>Syntax template text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>CHK0230</t>
+  </si>
+  <si>
+    <t>Narrative content text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>CHK0231</t>
+  </si>
+  <si>
+    <t>Narrative content item text is expected to be HTML formatted.</t>
   </si>
 </sst>
 </file>
@@ -1884,10 +1923,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2207,17 +2242,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.08984375" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" style="2" customWidth="1"/>
@@ -2229,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2244,15 +2279,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -2276,7 +2311,7 @@
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -2300,7 +2335,7 @@
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -2319,12 +2354,12 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -2343,7 +2378,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2398,16 +2433,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
@@ -2417,21 +2452,21 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
@@ -2441,21 +2476,21 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>7</v>
@@ -2465,93 +2500,93 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
@@ -2561,21 +2596,21 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>14</v>
@@ -2585,21 +2620,21 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>7</v>
@@ -2609,21 +2644,21 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>14</v>
@@ -2633,21 +2668,21 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>151</v>
+        <v>579</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>7</v>
@@ -2657,21 +2692,21 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>7</v>
@@ -2679,25 +2714,23 @@
       <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>102</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>387</v>
+        <v>143</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>7</v>
@@ -2707,21 +2740,21 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>7</v>
@@ -2730,72 +2763,74 @@
         <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>425</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>529</v>
+        <v>366</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>530</v>
+        <v>99</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>531</v>
+        <v>100</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>533</v>
+        <v>150</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>534</v>
+        <v>151</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="H23" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>14</v>
@@ -2805,21 +2840,21 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>576</v>
+        <v>511</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>14</v>
@@ -2829,21 +2864,21 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>14</v>
@@ -2853,21 +2888,21 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>224</v>
+        <v>549</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
@@ -2877,21 +2912,21 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>322</v>
+        <v>503</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>14</v>
@@ -2901,171 +2936,169 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="E31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="7" t="s">
+      <c r="H31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D32" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="G33" s="6"/>
+      <c r="H33" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>303</v>
+        <v>454</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>279</v>
+        <v>153</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>7</v>
@@ -3073,23 +3106,25 @@
       <c r="F35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="H35" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>134</v>
+        <v>386</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>7</v>
@@ -3097,25 +3132,23 @@
       <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>415</v>
-      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>423</v>
+        <v>265</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>7</v>
@@ -3123,125 +3156,127 @@
       <c r="F37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>413</v>
-      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="E40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="H40" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="E41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>7</v>
@@ -3249,25 +3284,23 @@
       <c r="F42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>455</v>
-      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>164</v>
+        <v>387</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>7</v>
@@ -3277,21 +3310,21 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>7</v>
@@ -3299,23 +3332,25 @@
       <c r="F44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>434</v>
+      </c>
       <c r="H44" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>295</v>
+        <v>63</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>7</v>
@@ -3323,25 +3358,23 @@
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>427</v>
-      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="7" t="s">
-        <v>293</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>7</v>
@@ -3351,21 +3384,21 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>7</v>
@@ -3374,24 +3407,24 @@
         <v>7</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>121</v>
+        <v>406</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>7</v>
@@ -3401,12 +3434,12 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>327</v>
+        <v>111</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
@@ -3415,24 +3448,24 @@
         <v>112</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>328</v>
+        <v>113</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>496</v>
+        <v>114</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>6</v>
@@ -3441,7 +3474,7 @@
         <v>112</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>328</v>
+        <v>113</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>7</v>
@@ -3451,191 +3484,193 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="7" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>211</v>
+        <v>587</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>483</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>502</v>
+        <v>307</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="H52" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>362</v>
+        <v>481</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>502</v>
+        <v>200</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>363</v>
+        <v>201</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="H54" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>111</v>
+        <v>480</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>565</v>
+        <v>480</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>95</v>
+        <v>562</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>7</v>
@@ -3643,25 +3678,23 @@
       <c r="F58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>389</v>
+        <v>581</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>7</v>
@@ -3671,21 +3704,21 @@
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>172</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>560</v>
+        <v>383</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>7</v>
@@ -3695,21 +3728,21 @@
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>7</v>
@@ -3719,21 +3752,21 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>285</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>548</v>
+        <v>90</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>7</v>
@@ -3741,23 +3774,25 @@
       <c r="F62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="H62" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>7</v>
@@ -3767,21 +3802,21 @@
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>543</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>347</v>
+        <v>538</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>348</v>
+        <v>91</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>349</v>
+        <v>88</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>7</v>
@@ -3789,25 +3824,23 @@
       <c r="F64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>500</v>
-      </c>
+      <c r="G64" s="6"/>
       <c r="H64" s="7" t="s">
-        <v>346</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>7</v>
@@ -3817,69 +3850,69 @@
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>434</v>
+        <v>526</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>448</v>
+        <v>571</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>449</v>
+        <v>572</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>426</v>
+        <v>522</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>7</v>
@@ -3889,21 +3922,21 @@
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7" t="s">
-        <v>190</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>126</v>
+        <v>328</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>191</v>
+        <v>329</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>7</v>
@@ -3911,47 +3944,49 @@
       <c r="F69" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6" t="s">
+        <v>478</v>
+      </c>
       <c r="H69" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>438</v>
+        <v>210</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7" t="s">
-        <v>439</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>14</v>
@@ -3961,45 +3996,45 @@
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>125</v>
+        <v>427</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>120</v>
+        <v>428</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>124</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>7</v>
@@ -4009,21 +4044,21 @@
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>125</v>
+        <v>416</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>432</v>
+        <v>118</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>120</v>
+        <v>417</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>14</v>
@@ -4033,69 +4068,69 @@
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>91</v>
+        <v>419</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>232</v>
+        <v>565</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="7" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>558</v>
+        <v>304</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>7</v>
@@ -4105,93 +4140,93 @@
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>537</v>
+        <v>118</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>538</v>
+        <v>113</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>373</v>
+        <v>591</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>388</v>
+        <v>561</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>7</v>
@@ -4199,25 +4234,23 @@
       <c r="F81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="G81" s="6"/>
       <c r="H81" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>391</v>
+        <v>536</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>7</v>
@@ -4227,21 +4260,21 @@
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>400</v>
+        <v>514</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>214</v>
+        <v>515</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>281</v>
+        <v>516</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>7</v>
@@ -4249,49 +4282,47 @@
       <c r="F83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>422</v>
-      </c>
+      <c r="G83" s="6"/>
       <c r="H83" s="7" t="s">
-        <v>280</v>
+        <v>513</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>7</v>
@@ -4301,21 +4332,21 @@
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>550</v>
+        <v>367</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>551</v>
+        <v>147</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>7</v>
@@ -4323,47 +4354,49 @@
       <c r="F86" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="H86" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>555</v>
+        <v>370</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>556</v>
+        <v>147</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>7</v>
@@ -4371,47 +4404,49 @@
       <c r="F88" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="6"/>
+      <c r="G88" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="H88" s="7" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>182</v>
+        <v>407</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="7" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>188</v>
+        <v>496</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>7</v>
@@ -4419,25 +4454,23 @@
       <c r="F90" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>416</v>
-      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>394</v>
+        <v>528</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>52</v>
+        <v>529</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>7</v>
@@ -4447,47 +4480,45 @@
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>87</v>
+        <v>533</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>52</v>
+        <v>534</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="7" t="s">
-        <v>86</v>
+        <v>532</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>7</v>
@@ -4497,21 +4528,21 @@
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="7" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>7</v>
@@ -4519,25 +4550,23 @@
       <c r="F94" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G94" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="G94" s="6"/>
       <c r="H94" s="7" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>260</v>
+        <v>568</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>7</v>
@@ -4545,25 +4574,23 @@
       <c r="F95" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>412</v>
-      </c>
+      <c r="G95" s="6"/>
       <c r="H95" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>392</v>
+        <v>177</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>7</v>
@@ -4571,23 +4598,25 @@
       <c r="F96" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="6"/>
+      <c r="G96" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="H96" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>7</v>
@@ -4597,117 +4626,123 @@
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="H98" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="7" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>360</v>
+        <v>49</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="H100" s="7" t="s">
-        <v>359</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>391</v>
+      </c>
       <c r="H101" s="7" t="s">
-        <v>354</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>205</v>
+        <v>371</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>7</v>
@@ -4717,147 +4752,141 @@
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>72</v>
+        <v>338</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="G103" s="6"/>
       <c r="H103" s="7" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>175</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" s="6"/>
       <c r="H104" s="7" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>578</v>
+        <v>340</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>573</v>
+        <v>336</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>574</v>
+        <v>178</v>
       </c>
       <c r="E105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7" t="s">
-        <v>572</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>546</v>
+        <v>335</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>287</v>
+        <v>84</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>383</v>
+        <v>194</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>384</v>
+        <v>70</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>385</v>
+        <v>195</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>386</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G107" s="6"/>
       <c r="H107" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>563</v>
+        <v>71</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>7</v>
@@ -4865,49 +4894,49 @@
       <c r="F108" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="6"/>
+      <c r="G108" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="H108" s="7" t="s">
-        <v>561</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>177</v>
+        <v>551</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>178</v>
+        <v>552</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>459</v>
-      </c>
+      <c r="G109" s="6"/>
       <c r="H109" s="7" t="s">
-        <v>176</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>7</v>
@@ -4915,49 +4944,49 @@
       <c r="F110" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>463</v>
-      </c>
+      <c r="G110" s="6"/>
       <c r="H110" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="H111" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>403</v>
+        <v>540</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>310</v>
+        <v>541</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>7</v>
@@ -4967,21 +4996,21 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
-        <v>312</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>7</v>
@@ -4990,24 +5019,24 @@
         <v>7</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>101</v>
+        <v>438</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>7</v>
@@ -5016,168 +5045,172 @@
         <v>7</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>430</v>
+        <v>574</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>100</v>
+        <v>575</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>504</v>
+        <v>289</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>443</v>
+        <v>94</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>166</v>
+        <v>382</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>451</v>
+        <v>94</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>478</v>
+        <v>290</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>480</v>
+        <v>388</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>451</v>
+        <v>94</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>478</v>
+        <v>95</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="6"/>
+      <c r="G118" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="H118" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>505</v>
+        <v>403</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>451</v>
+        <v>94</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>452</v>
+        <v>95</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="6"/>
+      <c r="G119" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="H119" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>491</v>
+        <v>409</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>492</v>
+        <v>577</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>7</v>
@@ -5187,119 +5220,117 @@
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>338</v>
+        <v>482</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>238</v>
+        <v>422</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>490</v>
+        <v>158</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>243</v>
+        <v>456</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="7" t="s">
-        <v>242</v>
+        <v>519</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>342</v>
+        <v>483</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G125" s="6" t="s">
-        <v>498</v>
-      </c>
+      <c r="G125" s="6"/>
       <c r="H125" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>7</v>
@@ -5309,21 +5340,21 @@
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>345</v>
+        <v>470</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>7</v>
@@ -5331,25 +5362,23 @@
       <c r="F127" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>499</v>
-      </c>
+      <c r="G127" s="6"/>
       <c r="H127" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>489</v>
+        <v>318</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>7</v>
@@ -5359,21 +5388,21 @@
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>340</v>
+        <v>468</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>7</v>
@@ -5381,49 +5410,47 @@
       <c r="F129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G129" s="6" t="s">
-        <v>497</v>
-      </c>
+      <c r="G129" s="6"/>
       <c r="H129" s="7" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="7" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>7</v>
@@ -5431,23 +5458,25 @@
       <c r="F131" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="6"/>
+      <c r="G131" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="H131" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>7</v>
@@ -5457,21 +5486,21 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>333</v>
+        <v>226</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>7</v>
@@ -5479,23 +5508,25 @@
       <c r="F133" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G133" s="6"/>
+      <c r="G133" s="6" t="s">
+        <v>477</v>
+      </c>
       <c r="H133" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>283</v>
+        <v>467</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>7</v>
@@ -5505,21 +5536,21 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>7</v>
@@ -5527,14 +5558,16 @@
       <c r="F135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G135" s="6"/>
+      <c r="G135" s="6" t="s">
+        <v>475</v>
+      </c>
       <c r="H135" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>6</v>
@@ -5543,24 +5576,22 @@
         <v>12</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>484</v>
+        <v>13</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>429</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G136" s="6"/>
       <c r="H136" s="7" t="s">
-        <v>213</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>6</v>
@@ -5569,7 +5600,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>7</v>
@@ -5579,12 +5610,12 @@
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="7" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>540</v>
+        <v>376</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>6</v>
@@ -5593,7 +5624,7 @@
         <v>12</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>7</v>
@@ -5603,21 +5634,21 @@
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>7</v>
@@ -5627,21 +5658,21 @@
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>7</v>
@@ -5651,21 +5682,21 @@
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>115</v>
+        <v>375</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>105</v>
+        <v>462</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>7</v>
@@ -5674,24 +5705,24 @@
         <v>7</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>410</v>
+        <v>102</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>7</v>
@@ -5699,25 +5730,23 @@
       <c r="F142" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G142" s="6" t="s">
-        <v>411</v>
-      </c>
+      <c r="G142" s="6"/>
       <c r="H142" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>7</v>
@@ -5725,269 +5754,271 @@
       <c r="F143" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G143" s="6" t="s">
-        <v>406</v>
-      </c>
+      <c r="G143" s="6"/>
       <c r="H143" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>472</v>
+        <v>374</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>508</v>
+        <v>198</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="7" t="s">
-        <v>507</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>515</v>
+        <v>380</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>508</v>
+        <v>280</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>510</v>
+        <v>563</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>511</v>
+        <v>100</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H146" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G147" s="6"/>
       <c r="H147" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>515</v>
+        <v>389</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="H148" s="7" t="s">
-        <v>514</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>510</v>
+        <v>384</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>513</v>
+        <v>120</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="6"/>
-      <c r="H149" s="7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="F150" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G150" s="6" t="s">
-        <v>501</v>
-      </c>
+      <c r="G150" s="6"/>
       <c r="H150" s="7" t="s">
-        <v>350</v>
+        <v>485</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>320</v>
+        <v>486</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="7" t="s">
-        <v>319</v>
+        <v>494</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>221</v>
+        <v>489</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>318</v>
+        <v>451</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G153" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="H153" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>166</v>
+        <v>493</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>478</v>
+        <v>25</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>7</v>
@@ -5997,69 +6028,71 @@
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="7" t="s">
-        <v>165</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="E155" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>479</v>
+      </c>
       <c r="H156" s="7" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>7</v>
@@ -6069,21 +6102,21 @@
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="7" t="s">
-        <v>552</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>28</v>
+        <v>463</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>7</v>
@@ -6091,146 +6124,144 @@
       <c r="F158" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G158" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="G158" s="6"/>
       <c r="H158" s="7" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="7" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>370</v>
+        <v>158</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="E160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="7" t="s">
-        <v>369</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>169</v>
+        <v>458</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>479</v>
+        <v>221</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>478</v>
+        <v>223</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="7" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>445</v>
+        <v>531</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>446</v>
+        <v>75</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>474</v>
+        <v>557</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E164" s="6" t="s">
         <v>7</v>
       </c>
@@ -6238,72 +6269,72 @@
         <v>7</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>481</v>
+        <v>13</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>487</v>
+        <v>161</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>7</v>
@@ -6313,21 +6344,21 @@
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>48</v>
+        <v>457</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>473</v>
+        <v>28</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>316</v>
+        <v>456</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>7</v>
@@ -6335,25 +6366,23 @@
       <c r="F168" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>414</v>
-      </c>
+      <c r="G168" s="6"/>
       <c r="H168" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>567</v>
+        <v>424</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>568</v>
+        <v>28</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>569</v>
+        <v>425</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>14</v>
@@ -6363,21 +6392,21 @@
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>7</v>
@@ -6386,24 +6415,24 @@
         <v>7</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>454</v>
+        <v>60</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>7</v>
@@ -6411,25 +6440,23 @@
       <c r="F171" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G171" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="G171" s="6"/>
       <c r="H171" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
-        <v>198</v>
+        <v>369</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>7</v>
@@ -6439,21 +6466,21 @@
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>7</v>
@@ -6461,25 +6488,23 @@
       <c r="F173" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G173" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="G173" s="6"/>
       <c r="H173" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>10</v>
+        <v>452</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>7</v>
@@ -6488,39 +6513,39 @@
         <v>7</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>85</v>
+        <v>393</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>330</v>
+        <v>545</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>10</v>
+        <v>546</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>81</v>
+        <v>547</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="7" t="s">
-        <v>329</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>6</v>
@@ -6529,7 +6554,7 @@
         <v>10</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>7</v>
@@ -6537,14 +6562,16 @@
       <c r="F176" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G176" s="6"/>
+      <c r="G176" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="H176" s="7" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>6</v>
@@ -6553,7 +6580,7 @@
         <v>10</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>7</v>
@@ -6562,15 +6589,15 @@
         <v>7</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>482</v>
+        <v>68</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>6</v>
@@ -6579,7 +6606,7 @@
         <v>10</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>7</v>
@@ -6589,12 +6616,12 @@
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>33</v>
+        <v>560</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>6</v>
@@ -6603,7 +6630,7 @@
         <v>10</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>7</v>
@@ -6612,15 +6639,15 @@
         <v>7</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>6</v>
@@ -6629,7 +6656,7 @@
         <v>10</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>7</v>
@@ -6638,15 +6665,15 @@
         <v>7</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>6</v>
@@ -6655,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>7</v>
@@ -6665,12 +6692,12 @@
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>6</v>
@@ -6679,7 +6706,7 @@
         <v>10</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>7</v>
@@ -6689,15 +6716,165 @@
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="7" t="s">
-        <v>265</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="6"/>
+      <c r="H184" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187" s="6"/>
+      <c r="H187" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G188" s="6"/>
+      <c r="H188" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H182" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H182">
-    <sortCondition ref="C8:C182"/>
-    <sortCondition ref="D8:D182"/>
-    <sortCondition ref="H8:H182"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H196">
+    <sortCondition ref="C8:C196"/>
+    <sortCondition ref="D8:D196"/>
+    <sortCondition ref="H8:H196"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E7272E-D78E-4FB7-A5F3-6E0C59E2299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DDF6B-2FC5-41B3-81C7-A1C627AE7030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="-20040" windowWidth="22170" windowHeight="18135" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Release 3.0 and 3.6 CORE rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Version 3.0 and 3.6 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Release 3.0 and 3.6 CORE rules'!$A$1:$H$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.6 CORE rules'!$A$1:$H$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="610">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -587,9 +587,6 @@
     <t>CHK0108</t>
   </si>
   <si>
-    <t>The value for each timing must be specified in ISO 8601 duration format.</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -788,18 +785,12 @@
     <t>CHK0143</t>
   </si>
   <si>
-    <t>The lower limit of a timing window must be specified in ISO 8601 duration format.</t>
-  </si>
-  <si>
     <t>windowLower</t>
   </si>
   <si>
     <t>CHK0144</t>
   </si>
   <si>
-    <t>The upper limit of a timing window must be specified in ISO 8601 duration format.</t>
-  </si>
-  <si>
     <t>windowUpper</t>
   </si>
   <si>
@@ -1715,9 +1706,6 @@
     <t>Within a study version, if more than 1 business therapeutic area is defined then they must be distinct.</t>
   </si>
   <si>
-    <t>A window must not be defined for an anchor timing (e.g. type is "Fixed Reference".</t>
-  </si>
-  <si>
     <t>Within a study design, there must be exactly one scheduled timeline which identifies as the main Timeline.</t>
   </si>
   <si>
@@ -1815,6 +1803,72 @@
   </si>
   <si>
     <t>Narrative content item text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>A window must not be defined for an anchor timing (i.e., type is "Fixed Reference").</t>
+  </si>
+  <si>
+    <t>The value for each timing must be a non-negative duration specified in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>When specified, the lower limit of a timing window must be a non-negative duration in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>When specified, the upper limit of a timing window must be a non-negative duration in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>CHK0232</t>
+  </si>
+  <si>
+    <t>A planned sex must ether include a single entry of male or female or both female and male as entries.</t>
+  </si>
+  <si>
+    <t>CHK0233</t>
+  </si>
+  <si>
+    <t>Every study role must apply to either a study version or at least one study design, but not both.</t>
+  </si>
+  <si>
+    <t>StudyRole</t>
+  </si>
+  <si>
+    <t>CHK0234</t>
+  </si>
+  <si>
+    <t>A study role must not reference both assigned persons and organizations.</t>
+  </si>
+  <si>
+    <t>assignedPersons, organizations</t>
+  </si>
+  <si>
+    <t>CHK0235</t>
+  </si>
+  <si>
+    <t>A masking is not expected to be defined for any study role in a study design with an open label blinding schema.</t>
+  </si>
+  <si>
+    <t>masking</t>
+  </si>
+  <si>
+    <t>CHK0236</t>
+  </si>
+  <si>
+    <t>A masking is expected to be defined for at least two study roles in a study design with a double blind blinding schema.</t>
+  </si>
+  <si>
+    <t>CHK0237</t>
+  </si>
+  <si>
+    <t>A masking is expected to be defined for at least one study role in a study design with a blinding schema that is not open label or double blind.</t>
+  </si>
+  <si>
+    <t>DDF00060</t>
+  </si>
+  <si>
+    <t>DDF00061</t>
+  </si>
+  <si>
+    <t>DDF00062</t>
   </si>
 </sst>
 </file>
@@ -1923,6 +1977,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2242,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2264,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2279,15 +2337,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -2311,7 +2369,7 @@
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -2335,7 +2393,7 @@
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -2354,12 +2412,12 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -2378,7 +2436,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2433,16 +2491,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
@@ -2452,21 +2510,21 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
@@ -2476,12 +2534,12 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -2500,7 +2558,7 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2577,7 +2635,7 @@
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
@@ -2596,7 +2654,7 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2625,7 +2683,7 @@
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>107</v>
@@ -2634,7 +2692,7 @@
         <v>131</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>7</v>
@@ -2644,12 +2702,12 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
@@ -2668,12 +2726,12 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
@@ -2692,12 +2750,12 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>6</v>
@@ -2716,7 +2774,7 @@
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2771,7 +2829,7 @@
     </row>
     <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
@@ -2813,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>149</v>
@@ -2821,16 +2879,16 @@
     </row>
     <row r="24" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>14</v>
@@ -2840,18 +2898,18 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>75</v>
@@ -2864,21 +2922,21 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>14</v>
@@ -2888,21 +2946,21 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
@@ -2912,21 +2970,21 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>14</v>
@@ -2936,21 +2994,21 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>14</v>
@@ -2960,21 +3018,21 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>14</v>
@@ -2984,7 +3042,7 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -3015,7 +3073,7 @@
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>107</v>
@@ -3024,7 +3082,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>7</v>
@@ -3033,24 +3091,24 @@
         <v>7</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>7</v>
@@ -3060,21 +3118,21 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>7</v>
@@ -3084,12 +3142,12 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
@@ -3107,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>152</v>
@@ -3115,7 +3173,7 @@
     </row>
     <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>107</v>
@@ -3134,21 +3192,21 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>7</v>
@@ -3158,7 +3216,7 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3181,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>125</v>
@@ -3195,7 +3253,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>124</v>
@@ -3207,7 +3265,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>122</v>
@@ -3241,16 +3299,16 @@
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>7</v>
@@ -3259,24 +3317,24 @@
         <v>7</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>7</v>
@@ -3286,21 +3344,21 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>7</v>
@@ -3310,7 +3368,7 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -3333,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>61</v>
@@ -3365,7 +3423,7 @@
     </row>
     <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
@@ -3384,21 +3442,21 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>7</v>
@@ -3407,15 +3465,15 @@
         <v>7</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>6</v>
@@ -3424,7 +3482,7 @@
         <v>168</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>7</v>
@@ -3434,7 +3492,7 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -3465,7 +3523,7 @@
     </row>
     <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>6</v>
@@ -3489,7 +3547,7 @@
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>107</v>
@@ -3508,12 +3566,12 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>6</v>
@@ -3522,7 +3580,7 @@
         <v>106</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>7</v>
@@ -3531,15 +3589,15 @@
         <v>7</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>6</v>
@@ -3548,7 +3606,7 @@
         <v>106</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>7</v>
@@ -3558,12 +3616,12 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>6</v>
@@ -3572,7 +3630,7 @@
         <v>106</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>7</v>
@@ -3581,15 +3639,15 @@
         <v>14</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>6</v>
@@ -3598,7 +3656,7 @@
         <v>106</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>7</v>
@@ -3608,12 +3666,12 @@
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>6</v>
@@ -3622,7 +3680,7 @@
         <v>106</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>14</v>
@@ -3632,12 +3690,12 @@
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>6</v>
@@ -3646,7 +3704,7 @@
         <v>106</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>14</v>
@@ -3656,12 +3714,12 @@
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>107</v>
@@ -3685,7 +3743,7 @@
     </row>
     <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>6</v>
@@ -3704,12 +3762,12 @@
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>6</v>
@@ -3718,7 +3776,7 @@
         <v>106</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>7</v>
@@ -3728,12 +3786,12 @@
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>6</v>
@@ -3752,7 +3810,7 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3783,7 +3841,7 @@
     </row>
     <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>6</v>
@@ -3807,7 +3865,7 @@
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
@@ -3826,21 +3884,21 @@
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>7</v>
@@ -3850,18 +3908,18 @@
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>75</v>
@@ -3874,12 +3932,12 @@
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
@@ -3888,7 +3946,7 @@
         <v>159</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>7</v>
@@ -3898,12 +3956,12 @@
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
@@ -3922,21 +3980,21 @@
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>7</v>
@@ -3945,24 +4003,24 @@
         <v>7</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>7</v>
@@ -3972,12 +4030,12 @@
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>107</v>
@@ -3986,7 +4044,7 @@
         <v>118</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>14</v>
@@ -3996,12 +4054,12 @@
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>6</v>
@@ -4010,7 +4068,7 @@
         <v>118</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>14</v>
@@ -4020,12 +4078,12 @@
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>6</v>
@@ -4049,7 +4107,7 @@
     </row>
     <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>6</v>
@@ -4058,7 +4116,7 @@
         <v>118</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>14</v>
@@ -4068,12 +4126,12 @@
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>6</v>
@@ -4082,7 +4140,7 @@
         <v>118</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>14</v>
@@ -4092,12 +4150,12 @@
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>6</v>
@@ -4121,7 +4179,7 @@
     </row>
     <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>6</v>
@@ -4140,12 +4198,12 @@
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>107</v>
@@ -4164,7 +4222,7 @@
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
@@ -4175,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>113</v>
@@ -4188,18 +4246,18 @@
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>113</v>
@@ -4212,12 +4270,12 @@
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>6</v>
@@ -4241,7 +4299,7 @@
     </row>
     <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>6</v>
@@ -4260,21 +4318,21 @@
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>7</v>
@@ -4284,21 +4342,21 @@
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>7</v>
@@ -4308,21 +4366,21 @@
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>7</v>
@@ -4332,12 +4390,12 @@
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>6</v>
@@ -4355,7 +4413,7 @@
         <v>7</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>146</v>
@@ -4363,7 +4421,7 @@
     </row>
     <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>107</v>
@@ -4387,16 +4445,16 @@
     </row>
     <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>7</v>
@@ -4405,24 +4463,24 @@
         <v>7</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>14</v>
@@ -4432,21 +4490,21 @@
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>7</v>
@@ -4456,18 +4514,18 @@
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>47</v>
@@ -4480,18 +4538,18 @@
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>75</v>
@@ -4504,12 +4562,12 @@
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>6</v>
@@ -4518,7 +4576,7 @@
         <v>50</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>7</v>
@@ -4528,7 +4586,7 @@
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -4557,7 +4615,7 @@
     </row>
     <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>107</v>
@@ -4576,7 +4634,7 @@
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -4599,7 +4657,7 @@
         <v>7</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>176</v>
@@ -4607,7 +4665,7 @@
     </row>
     <row r="97" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>6</v>
@@ -4626,7 +4684,7 @@
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -4657,7 +4715,7 @@
     </row>
     <row r="99" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>6</v>
@@ -4676,7 +4734,7 @@
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -4707,17 +4765,17 @@
     </row>
     <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="E101" s="6" t="s">
         <v>7</v>
       </c>
@@ -4725,21 +4783,21 @@
         <v>7</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>172</v>
@@ -4752,21 +4810,21 @@
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>14</v>
@@ -4776,21 +4834,21 @@
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>7</v>
@@ -4800,18 +4858,18 @@
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>178</v>
@@ -4824,18 +4882,18 @@
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>84</v>
@@ -4848,12 +4906,12 @@
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>6</v>
@@ -4862,7 +4920,7 @@
         <v>70</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>7</v>
@@ -4872,12 +4930,12 @@
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>6</v>
@@ -4903,16 +4961,16 @@
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>14</v>
@@ -4922,21 +4980,21 @@
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>7</v>
@@ -4946,21 +5004,21 @@
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>14</v>
@@ -4969,15 +5027,15 @@
         <v>15</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>6</v>
@@ -4986,7 +5044,7 @@
         <v>166</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>7</v>
@@ -4996,12 +5054,12 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>6</v>
@@ -5019,7 +5077,7 @@
         <v>7</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>165</v>
@@ -5027,7 +5085,7 @@
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>6</v>
@@ -5045,15 +5103,15 @@
         <v>7</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>6</v>
@@ -5062,7 +5120,7 @@
         <v>94</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>7</v>
@@ -5072,12 +5130,12 @@
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>6</v>
@@ -5086,7 +5144,7 @@
         <v>94</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>7</v>
@@ -5096,12 +5154,12 @@
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>6</v>
@@ -5110,7 +5168,7 @@
         <v>94</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>7</v>
@@ -5120,12 +5178,12 @@
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>6</v>
@@ -5151,7 +5209,7 @@
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>6</v>
@@ -5169,15 +5227,15 @@
         <v>7</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>6</v>
@@ -5196,12 +5254,12 @@
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>6</v>
@@ -5220,18 +5278,18 @@
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>75</v>
@@ -5244,7 +5302,7 @@
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -5255,10 +5313,10 @@
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>14</v>
@@ -5268,21 +5326,21 @@
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>14</v>
@@ -5292,21 +5350,21 @@
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>14</v>
@@ -5316,21 +5374,21 @@
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>7</v>
@@ -5340,21 +5398,21 @@
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>7</v>
@@ -5364,21 +5422,21 @@
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>7</v>
@@ -5388,21 +5446,21 @@
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>7</v>
@@ -5412,21 +5470,21 @@
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>7</v>
@@ -5436,21 +5494,21 @@
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>7</v>
@@ -5459,24 +5517,24 @@
         <v>7</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>7</v>
@@ -5486,22 +5544,22 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="E133" s="6" t="s">
         <v>7</v>
       </c>
@@ -5509,24 +5567,24 @@
         <v>7</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>7</v>
@@ -5536,21 +5594,21 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>7</v>
@@ -5559,15 +5617,15 @@
         <v>7</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>6</v>
@@ -5586,7 +5644,7 @@
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -5615,7 +5673,7 @@
     </row>
     <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>6</v>
@@ -5634,12 +5692,12 @@
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>6</v>
@@ -5648,7 +5706,7 @@
         <v>12</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>7</v>
@@ -5658,12 +5716,12 @@
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>6</v>
@@ -5672,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>7</v>
@@ -5682,12 +5740,12 @@
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>6</v>
@@ -5696,7 +5754,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>7</v>
@@ -5705,10 +5763,10 @@
         <v>7</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -5737,7 +5795,7 @@
     </row>
     <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>6</v>
@@ -5756,45 +5814,45 @@
       </c>
       <c r="G143" s="6"/>
       <c r="H143" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>374</v>
+        <v>593</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="7" t="s">
-        <v>196</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>7</v>
@@ -5804,21 +5862,21 @@
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>563</v>
+        <v>377</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>7</v>
@@ -5826,19 +5884,17 @@
       <c r="F146" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G146" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G146" s="6"/>
       <c r="H146" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>109</v>
@@ -5852,99 +5908,101 @@
       <c r="F147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G147" s="6"/>
+      <c r="G147" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H147" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>389</v>
+        <v>579</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="6"/>
+      <c r="H148" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="5" t="s">
+      <c r="E149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="H149" s="7" t="s">
+      <c r="E150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H150" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G150" s="6"/>
-      <c r="H150" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>14</v>
@@ -5954,36 +6012,36 @@
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>6</v>
@@ -5992,7 +6050,7 @@
         <v>24</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>25</v>
+        <v>486</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>7</v>
@@ -6000,19 +6058,17 @@
       <c r="F153" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G153" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="G153" s="6"/>
       <c r="H153" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>24</v>
@@ -6026,73 +6082,73 @@
       <c r="F154" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G154" s="6"/>
+      <c r="G154" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="H154" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>491</v>
+        <v>24</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>331</v>
+        <v>485</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>209</v>
+        <v>488</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G156" s="6" t="s">
-        <v>479</v>
-      </c>
+      <c r="G156" s="6"/>
       <c r="H156" s="7" t="s">
-        <v>330</v>
+        <v>487</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>472</v>
+        <v>328</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>7</v>
@@ -6100,23 +6156,25 @@
       <c r="F157" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G157" s="6"/>
+      <c r="G157" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="H157" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>7</v>
@@ -6126,21 +6184,21 @@
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="7" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>298</v>
+        <v>460</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C159" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>7</v>
@@ -6150,45 +6208,45 @@
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="7" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>458</v>
+        <v>158</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>7</v>
@@ -6198,21 +6256,21 @@
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D162" s="5" t="s">
-        <v>223</v>
+        <v>453</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>7</v>
@@ -6222,71 +6280,69 @@
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="B163" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="7" t="s">
-        <v>530</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>28</v>
+        <v>596</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G164" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="G164" s="6"/>
       <c r="H164" s="7" t="s">
-        <v>27</v>
+        <v>594</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>348</v>
+        <v>598</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>28</v>
+        <v>596</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>13</v>
+        <v>599</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>14</v>
@@ -6296,21 +6352,21 @@
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>350</v>
+        <v>601</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>28</v>
+        <v>596</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>14</v>
@@ -6320,84 +6376,84 @@
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>161</v>
+        <v>604</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>28</v>
+        <v>596</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>456</v>
+        <v>602</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="7" t="s">
-        <v>160</v>
+        <v>603</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>457</v>
+        <v>606</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>28</v>
+        <v>596</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>456</v>
+        <v>602</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="7" t="s">
-        <v>162</v>
+        <v>605</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>424</v>
+        <v>528</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>453</v>
+        <v>554</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>6</v>
@@ -6406,7 +6462,7 @@
         <v>28</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>7</v>
@@ -6415,15 +6471,15 @@
         <v>7</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>218</v>
+        <v>345</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>6</v>
@@ -6432,22 +6488,22 @@
         <v>28</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>6</v>
@@ -6456,22 +6512,22 @@
         <v>28</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>459</v>
+        <v>13</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
-        <v>465</v>
+        <v>161</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>6</v>
@@ -6480,7 +6536,7 @@
         <v>28</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>7</v>
@@ -6490,21 +6546,21 @@
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
-        <v>46</v>
+        <v>454</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>296</v>
+        <v>453</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>7</v>
@@ -6512,25 +6568,23 @@
       <c r="F174" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G174" s="6" t="s">
-        <v>393</v>
-      </c>
+      <c r="G174" s="6"/>
       <c r="H174" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>545</v>
+        <v>421</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>546</v>
+        <v>28</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>547</v>
+        <v>422</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>14</v>
@@ -6540,10 +6594,10 @@
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>450</v>
       </c>
@@ -6551,10 +6605,10 @@
         <v>6</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>7</v>
@@ -6563,24 +6617,24 @@
         <v>7</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>433</v>
+        <v>60</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>7</v>
@@ -6588,25 +6642,23 @@
       <c r="F177" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G177" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="G177" s="6"/>
       <c r="H177" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>67</v>
+        <v>456</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>7</v>
@@ -6616,21 +6668,21 @@
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>560</v>
+        <v>462</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>7</v>
@@ -6638,25 +6690,23 @@
       <c r="F179" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G179" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="G179" s="6"/>
       <c r="H179" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>10</v>
+        <v>449</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>7</v>
@@ -6665,39 +6715,39 @@
         <v>7</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
-        <v>310</v>
+        <v>542</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>10</v>
+        <v>543</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="7" t="s">
-        <v>309</v>
+        <v>541</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
-        <v>74</v>
+        <v>447</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>6</v>
@@ -6706,7 +6756,7 @@
         <v>10</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>7</v>
@@ -6714,14 +6764,16 @@
       <c r="F182" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G182" s="6"/>
+      <c r="G182" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="H182" s="7" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>6</v>
@@ -6730,7 +6782,7 @@
         <v>10</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>7</v>
@@ -6739,15 +6791,15 @@
         <v>7</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>460</v>
+        <v>68</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>6</v>
@@ -6756,7 +6808,7 @@
         <v>10</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>7</v>
@@ -6766,12 +6818,12 @@
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
-        <v>32</v>
+        <v>556</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>6</v>
@@ -6780,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>7</v>
@@ -6789,15 +6841,15 @@
         <v>7</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>6</v>
@@ -6806,7 +6858,7 @@
         <v>10</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>7</v>
@@ -6815,15 +6867,15 @@
         <v>7</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>6</v>
@@ -6832,7 +6884,7 @@
         <v>10</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>7</v>
@@ -6842,12 +6894,12 @@
       </c>
       <c r="G187" s="6"/>
       <c r="H187" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>6</v>
@@ -6856,7 +6908,7 @@
         <v>10</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>7</v>
@@ -6866,15 +6918,171 @@
       </c>
       <c r="G188" s="6"/>
       <c r="H188" s="7" t="s">
-        <v>251</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H182" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H196">
-    <sortCondition ref="C8:C196"/>
-    <sortCondition ref="D8:D196"/>
-    <sortCondition ref="H8:H196"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H195">
+    <sortCondition ref="C8:C195"/>
+    <sortCondition ref="D8:D195"/>
+    <sortCondition ref="H8:H195"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DDF6B-2FC5-41B3-81C7-A1C627AE7030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADDDED1-219E-4F42-BBE6-0721FE14C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-1815" yWindow="-17295" windowWidth="25275" windowHeight="16215" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 3.0 and 3.6 CORE rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Version 3.0 and 3.7 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.6 CORE rules'!$A$1:$H$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.7 CORE rules'!$A$1:$H$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="625">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -1869,6 +1869,51 @@
   </si>
   <si>
     <t>DDF00062</t>
+  </si>
+  <si>
+    <t>DDF00009</t>
+  </si>
+  <si>
+    <t>DDF00011</t>
+  </si>
+  <si>
+    <t>CHK0238</t>
+  </si>
+  <si>
+    <t>CHK0239</t>
+  </si>
+  <si>
+    <t>Each study enrollment must apply to either a geographic scope, a study site, or a study cohort.</t>
+  </si>
+  <si>
+    <t>CHK0240</t>
+  </si>
+  <si>
+    <t>There must be a one-to-one relationship between referenced section number and title within a study amendment.</t>
+  </si>
+  <si>
+    <t>DocumentContentReference</t>
+  </si>
+  <si>
+    <t>sectionNumber, sectionTitle</t>
+  </si>
+  <si>
+    <t>CHK0241</t>
+  </si>
+  <si>
+    <t>A study version is expected to be documented by only one version of a study definition document.</t>
+  </si>
+  <si>
+    <t>CHK0242</t>
+  </si>
+  <si>
+    <t>Each study definition document version is expected to be referenced by either a study version or a study design.</t>
+  </si>
+  <si>
+    <t>StudyVersion, StudyDesign</t>
+  </si>
+  <si>
+    <t>documentVersions, documentVersion</t>
   </si>
 </sst>
 </file>
@@ -2300,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="K199" sqref="K199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2868,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>401</v>
@@ -2877,18 +2922,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>504</v>
+        <v>150</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>505</v>
+        <v>151</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>14</v>
@@ -2898,21 +2943,21 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>503</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>506</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>14</v>
@@ -2922,21 +2967,21 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>502</v>
+        <v>75</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>14</v>
@@ -2946,12 +2991,12 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>6</v>
@@ -2960,7 +3005,7 @@
         <v>496</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
@@ -2970,21 +3015,21 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>496</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>14</v>
@@ -2994,21 +3039,21 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>496</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>212</v>
+        <v>500</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>14</v>
@@ -3018,12 +3063,12 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
@@ -3032,7 +3077,7 @@
         <v>496</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>14</v>
@@ -3042,88 +3087,88 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>437</v>
-      </c>
       <c r="B32" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="E33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
@@ -3132,7 +3177,7 @@
         <v>211</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>7</v>
@@ -3142,41 +3187,39 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="B36" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>153</v>
@@ -3190,23 +3233,25 @@
       <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="H36" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>282</v>
+        <v>154</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>7</v>
@@ -3216,116 +3261,114 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="E39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="E40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="E41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>254</v>
+        <v>436</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>107</v>
@@ -3334,7 +3377,7 @@
         <v>255</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>7</v>
@@ -3342,17 +3385,19 @@
       <c r="F42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>270</v>
+      </c>
       <c r="H42" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>255</v>
@@ -3368,38 +3413,36 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>6</v>
@@ -3416,14 +3459,16 @@
       <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="H45" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
@@ -3432,7 +3477,7 @@
         <v>63</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>7</v>
@@ -3442,97 +3487,95 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="E48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>111</v>
+        <v>616</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>112</v>
+        <v>617</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>113</v>
+        <v>618</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>114</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="7" t="s">
-        <v>110</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>560</v>
+        <v>204</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>7</v>
@@ -3542,15 +3585,15 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>583</v>
+        <v>111</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>112</v>
@@ -3559,28 +3602,30 @@
         <v>113</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="H51" s="7" t="s">
-        <v>582</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>304</v>
+        <v>560</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>7</v>
@@ -3588,25 +3633,23 @@
       <c r="F52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>471</v>
-      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>478</v>
+        <v>583</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>7</v>
@@ -3616,12 +3659,12 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
-        <v>330</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>6</v>
@@ -3630,24 +3673,24 @@
         <v>106</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>6</v>
@@ -3656,22 +3699,22 @@
         <v>106</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>339</v>
+        <v>199</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>6</v>
@@ -3680,17 +3723,19 @@
         <v>106</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="6"/>
+      <c r="G56" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="H56" s="7" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -3704,46 +3749,46 @@
         <v>106</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>577</v>
+        <v>477</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>6</v>
@@ -3752,31 +3797,31 @@
         <v>106</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>380</v>
+        <v>558</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>7</v>
@@ -3786,12 +3831,12 @@
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>6</v>
@@ -3800,7 +3845,7 @@
         <v>106</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>7</v>
@@ -3810,21 +3855,21 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>7</v>
@@ -3832,25 +3877,23 @@
       <c r="F62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>365</v>
+        <v>540</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>7</v>
@@ -3860,12 +3903,12 @@
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>164</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>535</v>
+        <v>90</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
@@ -3882,23 +3925,25 @@
       <c r="F64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="H64" s="7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>562</v>
+        <v>365</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>7</v>
@@ -3908,21 +3953,21 @@
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>7</v>
@@ -3932,21 +3977,21 @@
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>568</v>
+        <v>267</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>7</v>
@@ -3956,18 +4001,18 @@
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>75</v>
@@ -3980,21 +4025,21 @@
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>324</v>
+        <v>567</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>325</v>
+        <v>159</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>326</v>
+        <v>568</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>7</v>
@@ -4002,25 +4047,23 @@
       <c r="F69" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>475</v>
-      </c>
+      <c r="G69" s="6"/>
       <c r="H69" s="7" t="s">
-        <v>323</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>7</v>
@@ -4030,84 +4073,86 @@
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7" t="s">
-        <v>234</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>118</v>
+        <v>325</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>411</v>
+        <v>326</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6" t="s">
+        <v>475</v>
+      </c>
       <c r="H71" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>425</v>
+        <v>209</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>426</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>180</v>
+        <v>411</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>6</v>
@@ -4116,7 +4161,7 @@
         <v>118</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>14</v>
@@ -4126,12 +4171,12 @@
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>6</v>
@@ -4140,22 +4185,22 @@
         <v>118</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>561</v>
+        <v>413</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>6</v>
@@ -4164,22 +4209,22 @@
         <v>118</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>113</v>
+        <v>414</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="7" t="s">
-        <v>116</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>6</v>
@@ -4188,25 +4233,25 @@
         <v>118</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>113</v>
+        <v>417</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>118</v>
@@ -4215,124 +4260,124 @@
         <v>113</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>117</v>
+        <v>301</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>408</v>
+        <v>118</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="7" t="s">
-        <v>409</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>408</v>
+        <v>118</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>557</v>
+        <v>117</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>512</v>
+        <v>87</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>513</v>
+        <v>88</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>7</v>
@@ -4342,21 +4387,21 @@
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="7" t="s">
-        <v>510</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>7</v>
@@ -4366,21 +4411,21 @@
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>565</v>
+        <v>511</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>237</v>
+        <v>512</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>238</v>
+        <v>513</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>7</v>
@@ -4390,21 +4435,21 @@
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>7</v>
@@ -4412,25 +4457,23 @@
       <c r="F86" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>433</v>
-      </c>
+      <c r="G86" s="6"/>
       <c r="H86" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>367</v>
+        <v>565</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>7</v>
@@ -4440,21 +4483,21 @@
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>7</v>
@@ -4463,120 +4506,122 @@
         <v>7</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="7" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>493</v>
+        <v>376</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>202</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E91" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>531</v>
+        <v>202</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>369</v>
+        <v>525</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>50</v>
+        <v>526</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>7</v>
@@ -4586,45 +4631,45 @@
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>171</v>
+        <v>530</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>50</v>
+        <v>531</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>564</v>
+        <v>369</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>7</v>
@@ -4634,21 +4679,21 @@
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="7" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>7</v>
@@ -4656,25 +4701,23 @@
       <c r="F96" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>392</v>
-      </c>
+      <c r="G96" s="6"/>
       <c r="H96" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>370</v>
+        <v>564</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>7</v>
@@ -4684,12 +4727,12 @@
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>6</v>
@@ -4698,7 +4741,7 @@
         <v>50</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>7</v>
@@ -4707,15 +4750,15 @@
         <v>7</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>85</v>
+        <v>392</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>6</v>
@@ -4724,7 +4767,7 @@
         <v>50</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>7</v>
@@ -4734,12 +4777,12 @@
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="7" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>6</v>
@@ -4748,146 +4791,148 @@
         <v>50</v>
       </c>
       <c r="D100" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="6" t="s">
+      <c r="E102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H102" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>246</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="H103" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="7" t="s">
-        <v>342</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>333</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>107</v>
@@ -4896,7 +4941,7 @@
         <v>333</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>7</v>
@@ -4906,95 +4951,93 @@
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="7" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>555</v>
+        <v>332</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>548</v>
-      </c>
       <c r="D109" s="5" t="s">
-        <v>549</v>
+        <v>194</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="7" t="s">
-        <v>547</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>7</v>
@@ -5002,49 +5045,49 @@
       <c r="F110" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="6"/>
+      <c r="G110" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="H110" s="7" t="s">
-        <v>520</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>359</v>
+        <v>553</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>360</v>
+        <v>548</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>361</v>
+        <v>549</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>362</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G111" s="6"/>
       <c r="H111" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>166</v>
+        <v>360</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>538</v>
+        <v>267</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>7</v>
@@ -5054,38 +5097,38 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>166</v>
+        <v>360</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>6</v>
@@ -5094,7 +5137,7 @@
         <v>166</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>167</v>
+        <v>538</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>7</v>
@@ -5102,25 +5145,23 @@
       <c r="F114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="6" t="s">
-        <v>439</v>
-      </c>
+      <c r="G114" s="6"/>
       <c r="H114" s="7" t="s">
-        <v>438</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>570</v>
+        <v>434</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>571</v>
+        <v>167</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>7</v>
@@ -5128,23 +5169,25 @@
       <c r="F115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="6"/>
+      <c r="G115" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="H115" s="7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>286</v>
+        <v>481</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>7</v>
@@ -5152,14 +5195,16 @@
       <c r="F116" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="6"/>
+      <c r="G116" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="H116" s="7" t="s">
-        <v>285</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>379</v>
+        <v>570</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>6</v>
@@ -5168,7 +5213,7 @@
         <v>94</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>287</v>
+        <v>571</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>7</v>
@@ -5178,12 +5223,12 @@
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>6</v>
@@ -5192,7 +5237,7 @@
         <v>94</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>7</v>
@@ -5200,16 +5245,14 @@
       <c r="F118" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="G118" s="6"/>
       <c r="H118" s="7" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>6</v>
@@ -5218,7 +5261,7 @@
         <v>94</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>7</v>
@@ -5226,16 +5269,14 @@
       <c r="F119" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="6" t="s">
-        <v>432</v>
-      </c>
+      <c r="G119" s="6"/>
       <c r="H119" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>6</v>
@@ -5250,16 +5291,18 @@
         <v>7</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="H120" s="7" t="s">
-        <v>407</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>573</v>
+        <v>400</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>6</v>
@@ -5268,7 +5311,7 @@
         <v>94</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>7</v>
@@ -5276,71 +5319,73 @@
       <c r="F121" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="6"/>
+      <c r="G121" s="6" t="s">
+        <v>432</v>
+      </c>
       <c r="H121" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>419</v>
+        <v>94</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>158</v>
+        <v>573</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>427</v>
+        <v>94</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>453</v>
+        <v>172</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>14</v>
@@ -5350,12 +5395,12 @@
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="7" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>480</v>
+        <v>158</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>6</v>
@@ -5364,7 +5409,7 @@
         <v>427</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>14</v>
@@ -5374,60 +5419,60 @@
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>224</v>
+        <v>427</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>231</v>
+        <v>453</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>224</v>
+        <v>427</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>315</v>
+        <v>466</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>6</v>
@@ -5436,7 +5481,7 @@
         <v>224</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>7</v>
@@ -5446,12 +5491,12 @@
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>6</v>
@@ -5460,7 +5505,7 @@
         <v>224</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>7</v>
@@ -5470,21 +5515,21 @@
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>224</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>7</v>
@@ -5494,12 +5539,12 @@
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>319</v>
+        <v>465</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>6</v>
@@ -5508,7 +5553,7 @@
         <v>224</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>7</v>
@@ -5516,25 +5561,23 @@
       <c r="F131" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G131" s="6" t="s">
-        <v>473</v>
-      </c>
+      <c r="G131" s="6"/>
       <c r="H131" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>463</v>
+        <v>258</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>224</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>7</v>
@@ -5544,12 +5587,12 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>6</v>
@@ -5558,7 +5601,7 @@
         <v>224</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>7</v>
@@ -5567,15 +5610,15 @@
         <v>7</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
@@ -5584,7 +5627,7 @@
         <v>224</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>7</v>
@@ -5594,12 +5637,12 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>6</v>
@@ -5608,57 +5651,57 @@
         <v>224</v>
       </c>
       <c r="D135" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E136" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="7" t="s">
-        <v>356</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>7</v>
@@ -5666,14 +5709,16 @@
       <c r="F137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G137" s="6"/>
+      <c r="G137" s="6" t="s">
+        <v>472</v>
+      </c>
       <c r="H137" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>6</v>
@@ -5682,22 +5727,22 @@
         <v>12</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>6</v>
@@ -5706,7 +5751,7 @@
         <v>12</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>7</v>
@@ -5716,12 +5761,12 @@
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>6</v>
@@ -5730,7 +5775,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>7</v>
@@ -5740,12 +5785,12 @@
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>6</v>
@@ -5754,7 +5799,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>459</v>
+        <v>310</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>7</v>
@@ -5762,16 +5807,14 @@
       <c r="F141" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G141" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="G141" s="6"/>
       <c r="H141" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>6</v>
@@ -5780,7 +5823,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>7</v>
@@ -5790,12 +5833,12 @@
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="7" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>515</v>
+        <v>372</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>6</v>
@@ -5804,7 +5847,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>103</v>
+        <v>459</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>7</v>
@@ -5812,14 +5855,16 @@
       <c r="F143" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G143" s="6"/>
+      <c r="G143" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="H143" s="7" t="s">
-        <v>514</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>593</v>
+        <v>102</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>6</v>
@@ -5831,28 +5876,28 @@
         <v>103</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="7" t="s">
-        <v>592</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>371</v>
+        <v>515</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>7</v>
@@ -5862,45 +5907,45 @@
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="7" t="s">
-        <v>195</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>377</v>
+        <v>593</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>559</v>
+        <v>371</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>7</v>
@@ -5908,25 +5953,23 @@
       <c r="F147" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G147" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G147" s="6"/>
       <c r="H147" s="7" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>579</v>
+        <v>377</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>7</v>
@@ -5936,112 +5979,114 @@
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="6"/>
+      <c r="H150" s="7" t="s">
         <v>578</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="6"/>
-      <c r="H151" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G152" s="6"/>
-      <c r="H152" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>6</v>
@@ -6050,57 +6095,55 @@
         <v>24</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>25</v>
+        <v>483</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G154" s="6"/>
       <c r="H154" s="7" t="s">
-        <v>23</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>25</v>
+        <v>486</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>7</v>
@@ -6110,86 +6153,86 @@
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G156" s="6"/>
+      <c r="G156" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="H156" s="7" t="s">
-        <v>487</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>328</v>
+        <v>490</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>326</v>
+        <v>25</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>476</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G157" s="6"/>
       <c r="H157" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="7" t="s">
-        <v>296</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>460</v>
+        <v>328</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>6</v>
@@ -6198,7 +6241,7 @@
         <v>208</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>7</v>
@@ -6206,14 +6249,16 @@
       <c r="F159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G159" s="6"/>
+      <c r="G159" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="H159" s="7" t="s">
-        <v>207</v>
+        <v>327</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>295</v>
+        <v>469</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>6</v>
@@ -6222,7 +6267,7 @@
         <v>208</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>7</v>
@@ -6232,60 +6277,60 @@
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>158</v>
+        <v>460</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>453</v>
+        <v>209</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>455</v>
+        <v>295</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="7" t="s">
-        <v>163</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>6</v>
@@ -6294,7 +6339,7 @@
         <v>221</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>222</v>
+        <v>453</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>7</v>
@@ -6304,69 +6349,69 @@
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>595</v>
+        <v>455</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>596</v>
+        <v>221</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>64</v>
+        <v>453</v>
       </c>
       <c r="E164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>598</v>
+        <v>220</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>596</v>
+        <v>221</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>599</v>
+        <v>222</v>
       </c>
       <c r="E165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="7" t="s">
-        <v>597</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>596</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>602</v>
+        <v>64</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>14</v>
@@ -6376,21 +6421,21 @@
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>596</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>14</v>
@@ -6400,12 +6445,12 @@
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>107</v>
@@ -6424,86 +6469,84 @@
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>174</v>
+        <v>596</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>75</v>
+        <v>602</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>28</v>
+        <v>596</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>29</v>
+        <v>602</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G170" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="G170" s="6"/>
       <c r="H170" s="7" t="s">
-        <v>27</v>
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>345</v>
+        <v>528</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
-        <v>347</v>
+        <v>554</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>6</v>
@@ -6512,22 +6555,24 @@
         <v>28</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G172" s="6"/>
+      <c r="G172" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H172" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
-        <v>161</v>
+        <v>345</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>6</v>
@@ -6536,46 +6581,46 @@
         <v>28</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>453</v>
+        <v>13</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="7" t="s">
-        <v>160</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>453</v>
+        <v>13</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>421</v>
+        <v>161</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>6</v>
@@ -6584,31 +6629,31 @@
         <v>28</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>59</v>
+        <v>453</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>7</v>
@@ -6616,16 +6661,14 @@
       <c r="F176" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G176" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="G176" s="6"/>
       <c r="H176" s="7" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
-        <v>217</v>
+        <v>421</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>6</v>
@@ -6634,46 +6677,46 @@
         <v>28</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>218</v>
+        <v>422</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="7" t="s">
-        <v>216</v>
+        <v>423</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
-        <v>366</v>
+        <v>620</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>6</v>
@@ -6682,7 +6725,7 @@
         <v>28</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>456</v>
+        <v>59</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>7</v>
@@ -6690,23 +6733,25 @@
       <c r="F179" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G179" s="6"/>
+      <c r="G179" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="H179" s="7" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>449</v>
+        <v>28</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>7</v>
@@ -6714,49 +6759,47 @@
       <c r="F180" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G180" s="6" t="s">
-        <v>390</v>
-      </c>
+      <c r="G180" s="6"/>
       <c r="H180" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
-        <v>542</v>
+        <v>366</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>543</v>
+        <v>28</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>7</v>
@@ -6764,75 +6807,71 @@
       <c r="F182" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G182" s="6" t="s">
-        <v>430</v>
-      </c>
+      <c r="G182" s="6"/>
       <c r="H182" s="7" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>66</v>
+        <v>622</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>10</v>
+        <v>623</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>67</v>
+        <v>624</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G183" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="G183" s="6"/>
       <c r="H183" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
-        <v>186</v>
+        <v>614</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>10</v>
+        <v>449</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
-        <v>556</v>
+        <v>46</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>10</v>
+        <v>449</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>7</v>
@@ -6841,41 +6880,39 @@
         <v>7</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>10</v>
+        <v>543</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G186" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="G186" s="6"/>
       <c r="H186" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
-        <v>307</v>
+        <v>447</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>6</v>
@@ -6884,7 +6921,7 @@
         <v>10</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>7</v>
@@ -6892,14 +6929,16 @@
       <c r="F187" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G187" s="6"/>
+      <c r="G187" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="H187" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>6</v>
@@ -6908,7 +6947,7 @@
         <v>10</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>7</v>
@@ -6916,14 +6955,16 @@
       <c r="F188" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G188" s="6"/>
+      <c r="G188" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H188" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>6</v>
@@ -6932,7 +6973,7 @@
         <v>10</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>7</v>
@@ -6940,16 +6981,14 @@
       <c r="F189" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G189" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="G189" s="6"/>
       <c r="H189" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>6</v>
@@ -6958,7 +6997,7 @@
         <v>10</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>7</v>
@@ -6967,15 +7006,15 @@
         <v>7</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>607</v>
+        <v>78</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>6</v>
@@ -6984,7 +7023,7 @@
         <v>10</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>7</v>
@@ -6993,15 +7032,15 @@
         <v>7</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
-        <v>588</v>
+        <v>307</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>6</v>
@@ -7010,7 +7049,7 @@
         <v>10</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>7</v>
@@ -7019,15 +7058,15 @@
         <v>7</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>36</v>
+        <v>611</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
-        <v>590</v>
+        <v>74</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>6</v>
@@ -7036,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>7</v>
@@ -7045,15 +7084,15 @@
         <v>7</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
-        <v>591</v>
+        <v>184</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>6</v>
@@ -7062,27 +7101,167 @@
         <v>10</v>
       </c>
       <c r="D194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E194" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G194" s="6" t="s">
+      <c r="E199" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="H199" s="7" t="s">
         <v>249</v>
       </c>
     </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="5"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H182" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H195">
-    <sortCondition ref="C8:C195"/>
-    <sortCondition ref="D8:D195"/>
-    <sortCondition ref="H8:H195"/>
+  <autoFilter ref="A1:H199" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H200">
+    <sortCondition ref="C8:C200"/>
+    <sortCondition ref="D8:D200"/>
+    <sortCondition ref="H8:H200"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADDDED1-219E-4F42-BBE6-0721FE14C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2768E1-6EF8-41DB-BA3A-079329590A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1815" yWindow="-17295" windowWidth="25275" windowHeight="16215" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="40785" yWindow="-10800" windowWidth="22125" windowHeight="15585" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 3.0 and 3.7 CORE rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Version 3.0 and 3.8 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.7 CORE rules'!$A$1:$H$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.8 CORE rules'!$A$1:$H$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,20 +39,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294963577" uniqueCount="648">
   <si>
     <t>Textual statement of rule</t>
   </si>
   <si>
-    <t>Attributes within the class(es) to which the rule applies</t>
-  </si>
-  <si>
     <t>Version 3.0</t>
   </si>
   <si>
-    <t>Version 4.0</t>
-  </si>
-  <si>
     <t>CHK0001</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>CHK0033</t>
   </si>
   <si>
-    <t>If timing type is not "Fixed Reference" then it must point to two scheduled instances (e.g. attribute relativeToScheduledInstance  relativeFromScheduledInstance must not be missing and must not be equal toeach other).</t>
-  </si>
-  <si>
     <t>DDF00031</t>
   </si>
   <si>
@@ -962,9 +953,6 @@
     <t>CHK0155</t>
   </si>
   <si>
-    <t>Anchor timings (e.g. type is "Fixed Reference") must be relative to a scheduled activity instance.</t>
-  </si>
-  <si>
     <t>CHK0156</t>
   </si>
   <si>
@@ -1190,9 +1178,6 @@
     <t>DDF00021</t>
   </si>
   <si>
-    <t>A standard code alias is not expected to be equal to the standard code (e.g. no equal code and decode for the same coding system is expected).</t>
-  </si>
-  <si>
     <t>For CDISC codelist references (where the code system is 'http://www.cdisc.org'), the code system version must be a valid CDISC terminology release date in ISO 8601 date format.</t>
   </si>
   <si>
@@ -1901,9 +1886,6 @@
     <t>CHK0241</t>
   </si>
   <si>
-    <t>A study version is expected to be documented by only one version of a study definition document.</t>
-  </si>
-  <si>
     <t>CHK0242</t>
   </si>
   <si>
@@ -1913,7 +1895,94 @@
     <t>StudyVersion, StudyDesign</t>
   </si>
   <si>
-    <t>documentVersions, documentVersion</t>
+    <t>Version 3.8</t>
+  </si>
+  <si>
+    <t>Attributes within the entities to which the rule applies</t>
+  </si>
+  <si>
+    <t>DDF00068</t>
+  </si>
+  <si>
+    <t>DDF00069</t>
+  </si>
+  <si>
+    <t>If timing type is not "Fixed Reference" then it must point to two scheduled instances (e.g. the relativeFromScheduledInstance and relativeToScheduledInstance attributes must not be missing and must not be equal to each other).</t>
+  </si>
+  <si>
+    <t>A standard code alias is not expected to be equal to the standard code (e.g. no equal code for the same coding system version is expected).</t>
+  </si>
+  <si>
+    <t>DDF00063</t>
+  </si>
+  <si>
+    <t>Anchor timings (e.g. type is "Fixed Reference") must be related to a scheduled activity instance.</t>
+  </si>
+  <si>
+    <t>relativeFromScheduledInstance</t>
+  </si>
+  <si>
+    <t>DDF00064</t>
+  </si>
+  <si>
+    <t>DDF00065</t>
+  </si>
+  <si>
+    <t>DDF00066</t>
+  </si>
+  <si>
+    <t>DDF00067</t>
+  </si>
+  <si>
+    <t>There must be exactly one sponsor study identifier (i.e., a study identifier whose scope is an organization that is identified as the organization for the sponsor study role).</t>
+  </si>
+  <si>
+    <t>DDF00070</t>
+  </si>
+  <si>
+    <t>DDF00071</t>
+  </si>
+  <si>
+    <t>DDF00072</t>
+  </si>
+  <si>
+    <t>A study definition document version must not be referenced more than once by the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0243</t>
+  </si>
+  <si>
+    <t>An study impact type must be specified according to the extensible study amendment impact type (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>StudyAmendmentImpact</t>
+  </si>
+  <si>
+    <t>CHK0244</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>CHK0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There must be exactly one study role with a code of sponsor. </t>
+  </si>
+  <si>
+    <t>CHK0246</t>
+  </si>
+  <si>
+    <t>The sponsor study role must point to exactly one organization.</t>
+  </si>
+  <si>
+    <t>organizations</t>
+  </si>
+  <si>
+    <t>CHK0247</t>
+  </si>
+  <si>
+    <t>The sponsor study role must be applicable to a study version.</t>
   </si>
 </sst>
 </file>
@@ -2345,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="K199" sqref="K199"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2367,4901 +2436,5031 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>618</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="H32" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>383</v>
+        <v>623</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>624</v>
+      </c>
       <c r="H37" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="E41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H41" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E45" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>512</v>
+        <v>640</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>513</v>
+        <v>73</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="7" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>237</v>
+        <v>507</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>238</v>
+        <v>508</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>364</v>
+        <v>560</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>433</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="7" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="H89" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>398</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="7" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="H91" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>493</v>
+        <v>399</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>526</v>
+        <v>199</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G93" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>632</v>
+      </c>
       <c r="H93" s="7" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>369</v>
+        <v>525</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>50</v>
+        <v>526</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>171</v>
+        <v>365</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>564</v>
+        <v>168</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>177</v>
+        <v>559</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>392</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G98" s="6"/>
       <c r="H98" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>370</v>
+        <v>174</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G99" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="H99" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G100" s="6"/>
       <c r="H100" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G101" s="6"/>
       <c r="H101" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>49</v>
+        <v>374</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="H104" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>629</v>
+      </c>
       <c r="H107" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>70</v>
+        <v>329</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>627</v>
+      </c>
       <c r="H109" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>555</v>
+        <v>190</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G110" s="6"/>
       <c r="H110" s="7" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>548</v>
+        <v>68</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>549</v>
+        <v>69</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H111" s="7" t="s">
-        <v>547</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>360</v>
+        <v>543</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>267</v>
+        <v>544</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>359</v>
+        <v>637</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>360</v>
+        <v>638</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>362</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G113" s="6"/>
       <c r="H113" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>538</v>
+        <v>264</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="7" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>434</v>
+        <v>355</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>435</v>
+        <v>358</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>167</v>
+        <v>533</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>439</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G116" s="6"/>
       <c r="H116" s="7" t="s">
-        <v>438</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>570</v>
+        <v>429</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>571</v>
+        <v>164</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="H117" s="7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>286</v>
+        <v>476</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>434</v>
+      </c>
       <c r="H118" s="7" t="s">
-        <v>285</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>379</v>
+        <v>565</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>287</v>
+        <v>566</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>633</v>
+      </c>
       <c r="H119" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>385</v>
+        <v>283</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>96</v>
+        <v>620</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>432</v>
+        <v>621</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="H122" s="7" t="s">
-        <v>407</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>573</v>
+        <v>395</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>427</v>
+      </c>
       <c r="H123" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>479</v>
+        <v>401</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>419</v>
+        <v>91</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>630</v>
+      </c>
       <c r="H124" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>158</v>
+        <v>568</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>427</v>
+        <v>91</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>453</v>
+        <v>169</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>634</v>
+      </c>
       <c r="H125" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>453</v>
+        <v>73</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="7" t="s">
-        <v>517</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>480</v>
+        <v>155</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>224</v>
+        <v>422</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>231</v>
+        <v>448</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>224</v>
+        <v>422</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>233</v>
+        <v>423</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>319</v>
+        <v>635</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>320</v>
+        <v>417</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>473</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G133" s="6"/>
       <c r="H133" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C135" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G136" s="6"/>
-      <c r="H136" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" s="6"/>
-      <c r="H138" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E139" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="7" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G140" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="H140" s="7" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="F141" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="7" t="s">
-        <v>311</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>459</v>
+        <v>42</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>405</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G143" s="6"/>
       <c r="H143" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>515</v>
+        <v>308</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="7" t="s">
-        <v>514</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>593</v>
+        <v>368</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>103</v>
+        <v>454</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G146" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="H146" s="7" t="s">
-        <v>592</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>371</v>
+        <v>99</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="7" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>377</v>
+        <v>510</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G149" s="6"/>
       <c r="H149" s="7" t="s">
-        <v>108</v>
+        <v>587</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>579</v>
+        <v>367</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>387</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G151" s="6"/>
       <c r="H151" s="7" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>381</v>
+        <v>554</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>448</v>
+        <v>574</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>483</v>
+        <v>97</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>490</v>
+        <v>381</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>483</v>
+        <v>240</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G154" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="H154" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>485</v>
+        <v>377</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>486</v>
+        <v>118</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="H155" s="7" t="s">
-        <v>484</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>448</v>
+        <v>631</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>25</v>
+        <v>478</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G156" s="6"/>
       <c r="H156" s="7" t="s">
-        <v>23</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>25</v>
+        <v>478</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>488</v>
+        <v>22</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>113</v>
+        <v>481</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>328</v>
+        <v>443</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>476</v>
+        <v>24</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>327</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="7" t="s">
-        <v>207</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G162" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="H162" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E163" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>455</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>453</v>
+        <v>206</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>595</v>
+        <v>155</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>596</v>
+        <v>218</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>598</v>
+        <v>450</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>596</v>
+        <v>218</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>599</v>
+        <v>448</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="7" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>601</v>
+        <v>217</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>596</v>
+        <v>218</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>602</v>
+        <v>219</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="7" t="s">
-        <v>600</v>
+        <v>216</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>602</v>
+        <v>62</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>606</v>
+        <v>647</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>602</v>
+        <v>62</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="7" t="s">
-        <v>605</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>174</v>
+        <v>591</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>75</v>
+        <v>594</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
-        <v>554</v>
+        <v>642</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>28</v>
+        <v>591</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G172" s="6"/>
       <c r="H172" s="7" t="s">
-        <v>27</v>
+        <v>641</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
-        <v>345</v>
+        <v>596</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>28</v>
+        <v>591</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>13</v>
+        <v>597</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
-        <v>347</v>
+        <v>599</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>28</v>
+        <v>591</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>13</v>
+        <v>597</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="7" t="s">
-        <v>346</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>161</v>
+        <v>601</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>28</v>
+        <v>591</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>453</v>
+        <v>597</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
-        <v>454</v>
+        <v>644</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>28</v>
+        <v>591</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>453</v>
+        <v>645</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="7" t="s">
-        <v>162</v>
+        <v>643</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
-        <v>421</v>
+        <v>523</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>422</v>
+        <v>73</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="7" t="s">
-        <v>423</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
-        <v>620</v>
+        <v>549</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C178" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G178" s="6"/>
       <c r="H178" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>450</v>
+        <v>341</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G179" s="6"/>
       <c r="H179" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
-        <v>366</v>
+        <v>158</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="7" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>622</v>
+        <v>416</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>623</v>
+        <v>26</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>624</v>
+        <v>417</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="7" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
-        <v>614</v>
+        <v>445</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>449</v>
+        <v>26</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G184" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="H184" s="7" t="s">
-        <v>613</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>449</v>
+        <v>26</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>390</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G185" s="6"/>
       <c r="H185" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>542</v>
+        <v>362</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>543</v>
+        <v>26</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>544</v>
+        <v>451</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G186" s="6"/>
       <c r="H186" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>430</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G187" s="6"/>
       <c r="H187" s="7" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
-        <v>66</v>
+        <v>616</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>10</v>
+        <v>617</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G188" s="6"/>
       <c r="H188" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
-        <v>186</v>
+        <v>609</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>10</v>
+        <v>444</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G189" s="6"/>
       <c r="H189" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
-        <v>556</v>
+        <v>44</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>10</v>
+        <v>444</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>10</v>
+        <v>538</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G191" s="6"/>
       <c r="H191" s="7" t="s">
-        <v>79</v>
+        <v>536</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
-        <v>307</v>
+        <v>625</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>77</v>
+        <v>626</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E193" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H193" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D194" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="6"/>
+      <c r="H195" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E194" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="H194" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E196" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
-        <v>590</v>
+        <v>72</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
-        <v>591</v>
+        <v>181</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>609</v>
+        <v>452</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="5"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="7"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H199" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H200">
-    <sortCondition ref="C8:C200"/>
-    <sortCondition ref="D8:D200"/>
-    <sortCondition ref="H8:H200"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H204">
+    <sortCondition ref="C8:C204"/>
+    <sortCondition ref="D8:D204"/>
+    <sortCondition ref="H8:H204"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2768E1-6EF8-41DB-BA3A-079329590A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FABC3A2-5CDA-4516-8C6A-8FE333E7C6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40785" yWindow="-10800" windowWidth="22125" windowHeight="15585" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-3210" yWindow="-19845" windowWidth="30285" windowHeight="19125" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 3.0 and 3.8 CORE rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Version 3.0 and 3.9 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.8 CORE rules'!$A$1:$H$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.9 CORE rules'!$A$1:$H$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294963577" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="758">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -164,18 +164,12 @@
     <t>CHK0085</t>
   </si>
   <si>
-    <t>Within a study design, the planned age range must be specified either in the study population or in all cohorts</t>
-  </si>
-  <si>
     <t>plannedAge</t>
   </si>
   <si>
     <t>CHK0021</t>
   </si>
   <si>
-    <t>Within subject enrollment, the quantity must be a number or a percentage (i.e. the unit must be empty or %)</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>CHK0029</t>
   </si>
   <si>
-    <t>If timing type is "Fixed Reference" then the corresponding attribute relativeToFrom must be filled with "Start to Start"</t>
-  </si>
-  <si>
     <t>relativeToFrom</t>
   </si>
   <si>
@@ -302,9 +293,6 @@
     <t>CHK0036</t>
   </si>
   <si>
-    <t>Within a study design, there must be at least 1 endpoint with level primary.</t>
-  </si>
-  <si>
     <t>Endpoint</t>
   </si>
   <si>
@@ -338,9 +326,6 @@
     <t>CHK0087</t>
   </si>
   <si>
-    <t>Within a study design, the planned sex must be specified either in the study population or in all cohorts</t>
-  </si>
-  <si>
     <t>plannedSex</t>
   </si>
   <si>
@@ -500,9 +485,6 @@
     <t>CHK0072</t>
   </si>
   <si>
-    <t>When a condition applies to a procedure, activity, biomedical concept, biomedical concept category, or biomedicalconceptsurrogate then an instance must be available in the corresponding class with the specified id.</t>
-  </si>
-  <si>
     <t>CHK0076</t>
   </si>
   <si>
@@ -611,9 +593,6 @@
     <t>CHK0116</t>
   </si>
   <si>
-    <t>There must be at least one exit defined for each timeline (i.e., at least one instance of StudyTimelineExit linked via the 'exits' relationship)</t>
-  </si>
-  <si>
     <t>exits</t>
   </si>
   <si>
@@ -644,9 +623,6 @@
     <t>CHK0122</t>
   </si>
   <si>
-    <t>An eligibility criterion's category must be specfied using the Category of Inclusion/Exclusion (C66797) SDTM codelist.</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -683,18 +659,12 @@
     <t>CHK0129</t>
   </si>
   <si>
-    <t>A study version's study type must be specifed using the Study Type Response (C99077) SDTM codelist.</t>
-  </si>
-  <si>
     <t>studyType</t>
   </si>
   <si>
     <t>CHK0131</t>
   </si>
   <si>
-    <t>A study protocol document version's protocol status must be specifed using the Protocol Status Value Set Terminology (C188723) DDF codelist.</t>
-  </si>
-  <si>
     <t>StudyProtocolDocumentVersion</t>
   </si>
   <si>
@@ -794,9 +764,6 @@
     <t>CHK0046</t>
   </si>
   <si>
-    <t>Within a study version, any code library used is expected to utilize consistently the same code library version.</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -806,15 +773,9 @@
     <t>CHK0047</t>
   </si>
   <si>
-    <t>If the interventionmodel indicates a single group design then only one intervention is expected. In all other cases more interventions are expected.</t>
-  </si>
-  <si>
     <t>CHK0057</t>
   </si>
   <si>
-    <t>An activity is expected to refer to at least 1 procedure, biomedical concept, biomedical concept category or biomedical concept surrogate.</t>
-  </si>
-  <si>
     <t>definedProcedures, biomedicalConcepts, bcCategories, bcSurrogates</t>
   </si>
   <si>
@@ -875,9 +836,6 @@
     <t>CHK0126</t>
   </si>
   <si>
-    <t>If a synonym is specified then it is not expected to be similar to the name of the biomedical concept.</t>
-  </si>
-  <si>
     <t>synonyms</t>
   </si>
   <si>
@@ -890,9 +848,6 @@
     <t>CHK0037</t>
   </si>
   <si>
-    <t>Each StudyArm must have one StudyCell for each StudyEpoch</t>
-  </si>
-  <si>
     <t>arm, epoch</t>
   </si>
   <si>
@@ -917,9 +872,6 @@
     <t>CHK0149</t>
   </si>
   <si>
-    <t>A study intervention's type must be specifed using the Intervention Type Response (C99078) SDTM codelist.</t>
-  </si>
-  <si>
     <t>CHK0150</t>
   </si>
   <si>
@@ -1127,9 +1079,6 @@
     <t>All primary endpoints must be referenced by a primary objective.</t>
   </si>
   <si>
-    <t>Within a study version, there must be no more than 1 title of each type.</t>
-  </si>
-  <si>
     <t>Within a study design, if study type is Interventional then at least one intervention is expected to be referenced from a procedure.</t>
   </si>
   <si>
@@ -1148,9 +1097,6 @@
     <t>A unit must not be specified for a planned enrollment number or a planned completion number.</t>
   </si>
   <si>
-    <t>In case of a planned age, an age related unit is expected (i.e. DAYS, MONTHS, or YEARS).</t>
-  </si>
-  <si>
     <t>Attributes must be included as defined in the USDM schema based on the API specification (i.e., all required properties are present and no additional attributes are present).</t>
   </si>
   <si>
@@ -1370,15 +1316,9 @@
     <t>A timing must only be specified as being relative to/from a scheduled activity/decision instance that is defined within the same timeline as the timing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Every study version must have exactly one study identifier with an identifier scope that references a clinical study sponsor organization. </t>
-  </si>
-  <si>
     <t>SubjectEnrollment</t>
   </si>
   <si>
-    <t>A study version's study phase must be specifed according to the extensible Trial Phase Response (C66737) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
-  </si>
-  <si>
     <t>All standard code aliases referenced by an instance of the alias code class must be unique.</t>
   </si>
   <si>
@@ -1406,12 +1346,6 @@
     <t>plannedEnrollmentNumber, plannedCompletionNumber</t>
   </si>
   <si>
-    <t>A study intervention's role must be specifed using the study intervention role (C207417) DDF codelist.</t>
-  </si>
-  <si>
-    <t>An agent administration's frequency must be specfied according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
-  </si>
-  <si>
     <t>Every study version must have a title of type "Official Study Title".</t>
   </si>
   <si>
@@ -1427,18 +1361,6 @@
     <t>A study design's blinding schema must be specified according to the extensible Trial Blinding Schema Response (C66735) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
   </si>
   <si>
-    <t>A study design's characteristics must be specifed according to the Study design characteristics (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
-  </si>
-  <si>
-    <t>A masking role must be specifed according to the extensible masking role (C207414) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
-  </si>
-  <si>
-    <t>A study intervention's product designation must be specifed using the product Designation (C207418) DDF codelist.</t>
-  </si>
-  <si>
-    <t>An agent administration's route must be specfied according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
-  </si>
-  <si>
     <t>DDF00054</t>
   </si>
   <si>
@@ -1460,18 +1382,12 @@
     <t>An encounter's environmental setting must be specified according to the extensible Environmental Setting (C127262) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
   </si>
   <si>
-    <t>An encounter's contact modes must be specfied according to the Mode of Subject Contact (C171445) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
-  </si>
-  <si>
     <t>A study definition document type must be specifed according to the extensible XXX (Cnnn) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
   </si>
   <si>
     <t>A study definition document version's status must be specifed using the status Value Set Terminology (C188723) DDF codelist.</t>
   </si>
   <si>
-    <t>A study arm must only reference cohorts that are defined within the same study design as the study arm.</t>
-  </si>
-  <si>
     <t>CHK0193</t>
   </si>
   <si>
@@ -1571,9 +1487,6 @@
     <t>CHK0206</t>
   </si>
   <si>
-    <t>A planned sex must be specfied using to the Sex of participants (C66732) SDTM codelist.</t>
-  </si>
-  <si>
     <t>CHK0207</t>
   </si>
   <si>
@@ -1601,9 +1514,6 @@
     <t>CHK0212</t>
   </si>
   <si>
-    <t xml:space="preserve">A unit must be coded according to the extensible unit (C71620) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist). </t>
-  </si>
-  <si>
     <t>Range, Quantity</t>
   </si>
   <si>
@@ -1637,9 +1547,6 @@
     <t>CHK0217</t>
   </si>
   <si>
-    <t>A study arm data origin type must be specified according to the extensible data origin type (C188727) DDF codelist  (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
-  </si>
-  <si>
     <t>dataOriginType</t>
   </si>
   <si>
@@ -1679,9 +1586,6 @@
     <t>If a dose is specified then a corresponding frequency must also be specified.</t>
   </si>
   <si>
-    <t>If a dose is specified then a corresponding administrable product must also be specified and vice versa.</t>
-  </si>
-  <si>
     <t>If an administration's dose is specified then a corresponding route is expected and vice versa.</t>
   </si>
   <si>
@@ -1715,15 +1619,6 @@
     <t>If geographic scope type is global then no codes are expected to specify the specific area within scope while if it is not global then at least one code is expected to specify the specific area within scope.</t>
   </si>
   <si>
-    <t xml:space="preserve">Referenced items in a parameter map must be available elsewhere in the data model. </t>
-  </si>
-  <si>
-    <t>All scheduled activity instances are expected to refer to an epoch within the same study Design</t>
-  </si>
-  <si>
-    <t>References must be a fixed value or a reference to items stored elsewhere in the data model which must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
-  </si>
-  <si>
     <t>CHK0222</t>
   </si>
   <si>
@@ -1763,9 +1658,6 @@
     <t>CHK0227</t>
   </si>
   <si>
-    <t>An epoch must only reference encounters that are specified within the same study design.</t>
-  </si>
-  <si>
     <t>CHK0228</t>
   </si>
   <si>
@@ -1895,9 +1787,6 @@
     <t>StudyVersion, StudyDesign</t>
   </si>
   <si>
-    <t>Version 3.8</t>
-  </si>
-  <si>
     <t>Attributes within the entities to which the rule applies</t>
   </si>
   <si>
@@ -1910,15 +1799,9 @@
     <t>If timing type is not "Fixed Reference" then it must point to two scheduled instances (e.g. the relativeFromScheduledInstance and relativeToScheduledInstance attributes must not be missing and must not be equal to each other).</t>
   </si>
   <si>
-    <t>A standard code alias is not expected to be equal to the standard code (e.g. no equal code for the same coding system version is expected).</t>
-  </si>
-  <si>
     <t>DDF00063</t>
   </si>
   <si>
-    <t>Anchor timings (e.g. type is "Fixed Reference") must be related to a scheduled activity instance.</t>
-  </si>
-  <si>
     <t>relativeFromScheduledInstance</t>
   </si>
   <si>
@@ -1983,6 +1866,453 @@
   </si>
   <si>
     <t>The sponsor study role must be applicable to a study version.</t>
+  </si>
+  <si>
+    <t>Version 3.9</t>
+  </si>
+  <si>
+    <t>DDF00081</t>
+  </si>
+  <si>
+    <t>DDF00082</t>
+  </si>
+  <si>
+    <t>DDF00083</t>
+  </si>
+  <si>
+    <t>Within subject enrollment, the quantity must be a number or a percentage (i.e. the unit must be empty or %).</t>
+  </si>
+  <si>
+    <t>A study version's study phase must be specified according to the extensible Trial Phase Response (C66737) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>If timing type is "Fixed Reference" then the corresponding attribute relativeToFrom must be filled with "Start to Start".</t>
+  </si>
+  <si>
+    <t>DDF00084</t>
+  </si>
+  <si>
+    <t>Within a study design, there must be at least one endpoint with level primary.</t>
+  </si>
+  <si>
+    <t>Each StudyArm must have one StudyCell for each StudyEpoch.</t>
+  </si>
+  <si>
+    <t>DDF00023</t>
+  </si>
+  <si>
+    <t>DDF00027</t>
+  </si>
+  <si>
+    <t>DDF00087</t>
+  </si>
+  <si>
+    <t>DDF00088</t>
+  </si>
+  <si>
+    <t>Only one version of any code system is expected to be used within a study version.</t>
+  </si>
+  <si>
+    <t>DDF00073</t>
+  </si>
+  <si>
+    <t>If the intervention model indicates a single group design then only one intervention is expected. In all other cases more interventions are expected.</t>
+  </si>
+  <si>
+    <t>DDF00074</t>
+  </si>
+  <si>
+    <t>DDF00089</t>
+  </si>
+  <si>
+    <t>An activity is expected to refer to at least one procedure, biomedical concept, biomedical concept category or biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>DDF00075</t>
+  </si>
+  <si>
+    <t>DDF00090</t>
+  </si>
+  <si>
+    <t>DDF00076</t>
+  </si>
+  <si>
+    <t>When a condition applies to a procedure, activity, biomedical concept, biomedical concept category, or biomedical concept surrogate then an instance must be available in the corresponding class with the specified id.</t>
+  </si>
+  <si>
+    <t>DDF00091</t>
+  </si>
+  <si>
+    <t>DDF00077</t>
+  </si>
+  <si>
+    <t>DDF00092</t>
+  </si>
+  <si>
+    <t>DDF00093</t>
+  </si>
+  <si>
+    <t>DDF00094</t>
+  </si>
+  <si>
+    <t>DDF00095</t>
+  </si>
+  <si>
+    <t>DDF00096</t>
+  </si>
+  <si>
+    <t>DDF00097</t>
+  </si>
+  <si>
+    <t>DDF00098</t>
+  </si>
+  <si>
+    <t>DDF00099</t>
+  </si>
+  <si>
+    <t>Within a study version, there must be no more than one title of each type.</t>
+  </si>
+  <si>
+    <t>DDF00100</t>
+  </si>
+  <si>
+    <t>DDF00101</t>
+  </si>
+  <si>
+    <t>DDF00102</t>
+  </si>
+  <si>
+    <t>DDF00103</t>
+  </si>
+  <si>
+    <t>DDF00104</t>
+  </si>
+  <si>
+    <t>DDF00105</t>
+  </si>
+  <si>
+    <t>DDF00106</t>
+  </si>
+  <si>
+    <t>DDF00107</t>
+  </si>
+  <si>
+    <t>DDF00108</t>
+  </si>
+  <si>
+    <t>DDF00109</t>
+  </si>
+  <si>
+    <t>DDF00078</t>
+  </si>
+  <si>
+    <t>An eligibility criterion's category must be specified using the Category of Inclusion/Exclusion (C66797) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>DDF00110</t>
+  </si>
+  <si>
+    <t>The unit of a planned age is expected to be specified using terms from the Age Unit (C66781) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>DDF00111</t>
+  </si>
+  <si>
+    <t>A study intervention's role must be specified using the study intervention role (C207417) DDF codelist.</t>
+  </si>
+  <si>
+    <t>DDF00112</t>
+  </si>
+  <si>
+    <t>An agent administration's frequency must be specified according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00113</t>
+  </si>
+  <si>
+    <t>DDF00079</t>
+  </si>
+  <si>
+    <t>DDF00114</t>
+  </si>
+  <si>
+    <t>DDF00115</t>
+  </si>
+  <si>
+    <t>A study version's study type must be specified using the Study Type Response (C99077) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>DDF00116</t>
+  </si>
+  <si>
+    <t>A study protocol document version's protocol status must be specified using the Protocol Status Value Set Terminology (C188723) DDF codelist.</t>
+  </si>
+  <si>
+    <t>DDF00117</t>
+  </si>
+  <si>
+    <t>DDF00118</t>
+  </si>
+  <si>
+    <t>DDF00119</t>
+  </si>
+  <si>
+    <t>DDF00120</t>
+  </si>
+  <si>
+    <t>DDF00121</t>
+  </si>
+  <si>
+    <t>A study design's characteristics must be specified according to the Study design characteristics (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00122</t>
+  </si>
+  <si>
+    <t>A masking role must be specified according to the extensible masking role (C207414) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00123</t>
+  </si>
+  <si>
+    <t>DDF00124</t>
+  </si>
+  <si>
+    <t>All scheduled activity instances are expected to refer to an epoch.</t>
+  </si>
+  <si>
+    <t>DDF00080</t>
+  </si>
+  <si>
+    <t>DDF00125</t>
+  </si>
+  <si>
+    <t>DDF00126</t>
+  </si>
+  <si>
+    <t>DDF00127</t>
+  </si>
+  <si>
+    <t>A study intervention's type must be specified using the Intervention Type Response (C99078) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>DDF00128</t>
+  </si>
+  <si>
+    <t>A study intervention's product designation must be specified using the product Designation (C207418) DDF codelist.</t>
+  </si>
+  <si>
+    <t>DDF00129</t>
+  </si>
+  <si>
+    <t>An agent administration's route must be specified according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00130</t>
+  </si>
+  <si>
+    <t>DDF00131</t>
+  </si>
+  <si>
+    <t>A standard code alias is not expected to be equal to the standard code (e.g. no equal code or decode for the same coding system version is expected).</t>
+  </si>
+  <si>
+    <t>Anchor timings (e.g. type is "Fixed Reference") must be related to a scheduled activity instance via a relativeFromScheduledInstance relationship.</t>
+  </si>
+  <si>
+    <t>DDF00132</t>
+  </si>
+  <si>
+    <t>DDF00133</t>
+  </si>
+  <si>
+    <t>DDF00134</t>
+  </si>
+  <si>
+    <t>DDF00135</t>
+  </si>
+  <si>
+    <t>An encounter's contact modes must be specified according to the Mode of Subject Contact (C171445) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00136</t>
+  </si>
+  <si>
+    <t>DDF00155</t>
+  </si>
+  <si>
+    <t>DDF00137</t>
+  </si>
+  <si>
+    <t>CHK0248</t>
+  </si>
+  <si>
+    <t>CHK0249</t>
+  </si>
+  <si>
+    <t>CHK0250</t>
+  </si>
+  <si>
+    <t>CHK0251</t>
+  </si>
+  <si>
+    <t>CHK0252</t>
+  </si>
+  <si>
+    <t>CHK0253</t>
+  </si>
+  <si>
+    <t>CHK0254</t>
+  </si>
+  <si>
+    <t>A study arm must only reference study populations or cohorts that are defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>DDF00138</t>
+  </si>
+  <si>
+    <t>An identified organization is not expected to have more than one identifier for the study.</t>
+  </si>
+  <si>
+    <t>DDF00139</t>
+  </si>
+  <si>
+    <t>DDF00140</t>
+  </si>
+  <si>
+    <t>DDF00141</t>
+  </si>
+  <si>
+    <t>DDF00142</t>
+  </si>
+  <si>
+    <t>DDF00143</t>
+  </si>
+  <si>
+    <t>DDF00144</t>
+  </si>
+  <si>
+    <t>DDF00145</t>
+  </si>
+  <si>
+    <t>DDF00146</t>
+  </si>
+  <si>
+    <t>DDF00147</t>
+  </si>
+  <si>
+    <t>DDF00148</t>
+  </si>
+  <si>
+    <t>DDF00149</t>
+  </si>
+  <si>
+    <t>DDF00150</t>
+  </si>
+  <si>
+    <t>If a dose is specified, then a corresponding administrable product must also be specified either directly or embedded in the medical device and vice versa.</t>
+  </si>
+  <si>
+    <t>DDF00151</t>
+  </si>
+  <si>
+    <t>DDF00028</t>
+  </si>
+  <si>
+    <t>DDF00029</t>
+  </si>
+  <si>
+    <t>An epoch must only reference epochs that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>DDF00024</t>
+  </si>
+  <si>
+    <t>DDF00152</t>
+  </si>
+  <si>
+    <t>DDF00086</t>
+  </si>
+  <si>
+    <t>DDF00085</t>
+  </si>
+  <si>
+    <t>Narrative content must only reference narrative content that is specified within the same study definition document version.</t>
+  </si>
+  <si>
+    <t>next, previous, children</t>
+  </si>
+  <si>
+    <t>An administrable product must not be referenced as both the administrable product for an administration and the embedded product of a medical device that is referenced by the same administration.</t>
+  </si>
+  <si>
+    <t>administrableProduct</t>
+  </si>
+  <si>
+    <t>In case a medical device includes an embedded product then the sourcing information must be defined at the medical device level not at the embedded product level.</t>
+  </si>
+  <si>
+    <t>AdminstrableProduct</t>
+  </si>
+  <si>
+    <t>sourcing</t>
+  </si>
+  <si>
+    <t>A medical device identifier type must be specified according to the extensible medical device identifier type (Cxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>MedicalDeviceIdentifier</t>
+  </si>
+  <si>
+    <t>An administrable product sourcing must be specified using the sourcing (Cxxx) DDF codelist.</t>
+  </si>
+  <si>
+    <t>A medical device sourcing must be specified using the sourcing (Cxxx) DDF codelist.</t>
+  </si>
+  <si>
+    <t>MedicalDevice</t>
+  </si>
+  <si>
+    <t>A planned sex must be specified using the Sex of Participants (C66732) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>Every study version must have exactly one study identifier with an identifier scope that references a clinical study sponsor organization.</t>
+  </si>
+  <si>
+    <t>Within a study design, the planned age range must be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>Within a study design, the planned sex must be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>There must be at least one exit defined for each timeline (i.e., at least one instance of StudyTimelineExit linked via the 'exits' relationship).</t>
+  </si>
+  <si>
+    <t>If a synonym is specified then it is not expected to be equal to the name of the biomedical concept (case insensitive).</t>
+  </si>
+  <si>
+    <t>Referenced items in a parameter map must be available elsewhere in the data model.</t>
+  </si>
+  <si>
+    <t>References must be a fixed value or a reference to items stored elsewhere in the data model which must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"', 'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>A unit must be coded according to the extensible unit (C71620) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study arm data origin type must be specified according to the extensible data origin type (C188727) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>An administrable product's product designation must be specified using the product designation (C207418) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0255</t>
+  </si>
+  <si>
+    <t>A product organization role is expected to either apply to at least a medical device or an administrable product.</t>
+  </si>
+  <si>
+    <t>ProductOrganizationRole</t>
   </si>
 </sst>
 </file>
@@ -2414,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2436,30 +2766,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>619</v>
+        <v>582</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -2476,14 +2806,16 @@
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>610</v>
+      </c>
       <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -2500,14 +2832,16 @@
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>611</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -2524,14 +2858,16 @@
       <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>681</v>
+      </c>
       <c r="H4" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -2548,9 +2884,11 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>682</v>
+      </c>
       <c r="H5" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2572,7 +2910,9 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>612</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2605,16 +2945,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
@@ -2624,21 +2964,21 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -2648,21 +2988,21 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>5</v>
@@ -2670,23 +3010,25 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>630</v>
+      </c>
       <c r="H10" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
@@ -2696,21 +3038,21 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>12</v>
@@ -2720,21 +3062,21 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
@@ -2744,21 +3086,21 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -2768,21 +3110,21 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
@@ -2792,21 +3134,21 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>257</v>
+        <v>628</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>5</v>
@@ -2814,23 +3156,25 @@
       <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>629</v>
+      </c>
       <c r="H16" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -2840,21 +3184,21 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>5</v>
@@ -2862,23 +3206,25 @@
       <c r="F18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>725</v>
+      </c>
       <c r="H18" s="7" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>5</v>
@@ -2886,23 +3232,25 @@
       <c r="F19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>729</v>
+      </c>
       <c r="H19" s="7" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>5</v>
@@ -2910,23 +3258,25 @@
       <c r="F20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>631</v>
+      </c>
       <c r="H20" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>5</v>
@@ -2935,45 +3285,47 @@
         <v>5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>13</v>
+        <v>619</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
@@ -2985,21 +3337,21 @@
         <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -3012,21 +3364,21 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>12</v>
@@ -3036,21 +3388,21 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>503</v>
+        <v>741</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>73</v>
+        <v>738</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -3060,21 +3412,21 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>545</v>
+        <v>475</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>497</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>12</v>
@@ -3084,21 +3436,21 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>546</v>
+        <v>734</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>541</v>
+        <v>735</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -3108,21 +3460,21 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>540</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
@@ -3132,21 +3484,21 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>490</v>
+        <v>723</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>209</v>
+        <v>510</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
@@ -3156,21 +3508,21 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>12</v>
@@ -3180,197 +3532,197 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="E34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="5" t="s">
+    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="H35" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>446</v>
+        <v>736</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>150</v>
+        <v>737</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>151</v>
+        <v>738</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>447</v>
-      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>623</v>
+        <v>661</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>278</v>
+        <v>688</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>123</v>
+        <v>426</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>5</v>
@@ -3379,24 +3731,24 @@
         <v>5</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>120</v>
+        <v>691</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>394</v>
+        <v>145</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>5</v>
@@ -3405,24 +3757,24 @@
         <v>5</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>384</v>
+        <v>586</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>749</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>5</v>
@@ -3431,24 +3783,24 @@
         <v>5</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>55</v>
+        <v>663</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>431</v>
+        <v>118</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>5</v>
@@ -3457,24 +3809,24 @@
         <v>5</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>5</v>
@@ -3482,295 +3834,309 @@
       <c r="F43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>366</v>
+      </c>
       <c r="H43" s="7" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>379</v>
+        <v>50</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+    </row>
+    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="E48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>612</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>613</v>
+        <v>60</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>633</v>
+      </c>
       <c r="H49" s="7" t="s">
-        <v>610</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="D50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>111</v>
+        <v>380</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>110</v>
+        <v>577</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
-        <v>112</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>466</v>
+        <v>106</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>5</v>
@@ -3778,193 +4144,203 @@
       <c r="F55" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>627</v>
+      </c>
       <c r="H55" s="7" t="s">
-        <v>326</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>196</v>
+        <v>542</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>453</v>
+        <v>730</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>472</v>
+        <v>285</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="H57" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>335</v>
+        <v>697</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="H58" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>472</v>
+        <v>189</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>336</v>
+        <v>190</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="H59" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>553</v>
+        <v>446</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>696</v>
+      </c>
       <c r="H60" s="7" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>572</v>
+        <v>319</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>5</v>
@@ -3972,23 +4348,25 @@
       <c r="F63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>621</v>
+      </c>
       <c r="H63" s="7" t="s">
-        <v>534</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>87</v>
+        <v>537</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>5</v>
@@ -3997,96 +4375,102 @@
         <v>5</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>89</v>
+        <v>726</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>86</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D65" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>262</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>518</v>
+        <v>345</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>5</v>
@@ -4094,23 +4478,25 @@
       <c r="F68" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>639</v>
+      </c>
       <c r="H68" s="7" t="s">
-        <v>517</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>563</v>
+        <v>82</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>5</v>
@@ -4118,23 +4504,25 @@
       <c r="F69" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6" t="s">
+        <v>720</v>
+      </c>
       <c r="H69" s="7" t="s">
-        <v>561</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>5</v>
@@ -4142,23 +4530,25 @@
       <c r="F70" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6" t="s">
+        <v>634</v>
+      </c>
       <c r="H70" s="7" t="s">
-        <v>513</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>322</v>
+        <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>5</v>
@@ -4167,24 +4557,24 @@
         <v>5</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>470</v>
+        <v>716</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>5</v>
@@ -4192,71 +4582,77 @@
       <c r="F72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>724</v>
+      </c>
       <c r="H72" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>406</v>
+        <v>70</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6" t="s">
+        <v>714</v>
+      </c>
       <c r="H73" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="H74" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>397</v>
+        <v>676</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>5</v>
@@ -4264,23 +4660,25 @@
       <c r="F75" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="6"/>
+      <c r="G75" s="6" t="s">
+        <v>677</v>
+      </c>
       <c r="H75" s="7" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>408</v>
+        <v>742</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>115</v>
+        <v>743</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>409</v>
+        <v>738</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>12</v>
@@ -4290,21 +4688,21 @@
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>411</v>
+        <v>739</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>115</v>
+        <v>740</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>412</v>
+        <v>70</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>12</v>
@@ -4314,117 +4712,119 @@
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>556</v>
+        <v>387</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>580</v>
+        <v>732</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>110</v>
+        <v>733</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>403</v>
+        <v>110</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="D82" s="5" t="s">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>12</v>
@@ -4434,93 +4834,95 @@
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>581</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>552</v>
+        <v>393</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>85</v>
+        <v>394</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>506</v>
+        <v>282</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>640</v>
+        <v>110</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>690</v>
+      </c>
       <c r="H85" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>507</v>
+        <v>110</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>508</v>
+        <v>105</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>5</v>
@@ -4528,71 +4930,73 @@
       <c r="F86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>731</v>
+      </c>
       <c r="H86" s="7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>558</v>
+        <v>109</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>234</v>
+        <v>385</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>234</v>
+        <v>385</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>5</v>
@@ -4601,24 +5005,24 @@
         <v>5</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>428</v>
+        <v>616</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>363</v>
+        <v>498</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>5</v>
@@ -4626,73 +5030,75 @@
       <c r="F90" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>719</v>
+      </c>
       <c r="H90" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>199</v>
+        <v>601</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>393</v>
-      </c>
+      <c r="G91" s="6"/>
       <c r="H91" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>199</v>
+        <v>479</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>276</v>
+        <v>480</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>712</v>
+      </c>
       <c r="H92" s="7" t="s">
-        <v>275</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>488</v>
+        <v>750</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>5</v>
@@ -4701,24 +5107,24 @@
         <v>5</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>520</v>
+        <v>751</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>521</v>
+        <v>224</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>5</v>
@@ -4726,47 +5132,51 @@
       <c r="F94" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>700</v>
+      </c>
       <c r="H94" s="7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>525</v>
+        <v>344</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>526</v>
+        <v>139</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>410</v>
+      </c>
       <c r="H95" s="7" t="s">
-        <v>524</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>5</v>
@@ -4774,47 +5184,49 @@
       <c r="F96" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="6"/>
+      <c r="G96" s="6" t="s">
+        <v>645</v>
+      </c>
       <c r="H96" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>168</v>
+        <v>756</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>48</v>
+        <v>757</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>167</v>
+        <v>755</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>559</v>
+        <v>354</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>5</v>
@@ -4822,49 +5234,49 @@
       <c r="F98" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="H98" s="7" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>174</v>
+        <v>381</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>387</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" s="6"/>
       <c r="H99" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>5</v>
@@ -4872,23 +5284,25 @@
       <c r="F100" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="H100" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>80</v>
+        <v>752</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>48</v>
+        <v>491</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>5</v>
@@ -4897,48 +5311,48 @@
         <v>5</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>82</v>
+        <v>717</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>48</v>
+        <v>496</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>47</v>
+        <v>348</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>5</v>
@@ -4947,24 +5361,24 @@
         <v>5</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>5</v>
@@ -4973,24 +5387,24 @@
         <v>5</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>383</v>
+        <v>642</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>364</v>
+        <v>679</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>5</v>
@@ -4998,125 +5412,129 @@
       <c r="F105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="6" t="s">
+        <v>680</v>
+      </c>
       <c r="H105" s="7" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>331</v>
+        <v>168</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="6"/>
+      <c r="G106" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="H106" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>338</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>628</v>
+        <v>79</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>5</v>
@@ -5124,23 +5542,25 @@
       <c r="F110" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="6"/>
+      <c r="G110" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="H110" s="7" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>550</v>
+        <v>232</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>5</v>
@@ -5149,48 +5569,50 @@
         <v>5</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>70</v>
+        <v>365</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>548</v>
+        <v>347</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>543</v>
+        <v>179</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>544</v>
+        <v>163</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="6"/>
+      <c r="G112" s="6" t="s">
+        <v>649</v>
+      </c>
       <c r="H112" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>637</v>
+        <v>315</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>638</v>
+        <v>313</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>12</v>
@@ -5200,95 +5622,99 @@
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="7" t="s">
-        <v>636</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>516</v>
+        <v>323</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="H114" s="7" t="s">
-        <v>515</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>357</v>
+        <v>169</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>358</v>
+        <v>589</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>532</v>
+        <v>312</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>588</v>
+      </c>
       <c r="H116" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>429</v>
+        <v>748</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>5</v>
@@ -5297,24 +5723,24 @@
         <v>5</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>430</v>
+        <v>652</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>5</v>
@@ -5323,76 +5749,72 @@
         <v>5</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>434</v>
+        <v>67</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>433</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>91</v>
+        <v>512</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="6" t="s">
-        <v>633</v>
-      </c>
+      <c r="G119" s="6"/>
       <c r="H119" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>283</v>
+        <v>598</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>91</v>
+        <v>599</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="6" t="s">
-        <v>620</v>
-      </c>
+      <c r="G120" s="6"/>
       <c r="H120" s="7" t="s">
-        <v>282</v>
+        <v>597</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>375</v>
+        <v>487</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>91</v>
+        <v>340</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>5</v>
@@ -5401,50 +5823,50 @@
         <v>5</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>621</v>
+        <v>715</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>286</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>91</v>
+        <v>340</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>93</v>
+        <v>342</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>395</v>
+        <v>753</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>5</v>
@@ -5453,50 +5875,50 @@
         <v>5</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>427</v>
+        <v>721</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>630</v>
+        <v>412</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>402</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>568</v>
+        <v>708</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>5</v>
@@ -5505,120 +5927,128 @@
         <v>5</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>634</v>
+        <v>416</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>414</v>
+        <v>87</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>73</v>
+        <v>531</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G126" s="6"/>
+      <c r="G126" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="H126" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>155</v>
+        <v>618</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>422</v>
+        <v>87</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>448</v>
+        <v>269</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="6"/>
+      <c r="G127" s="6" t="s">
+        <v>583</v>
+      </c>
       <c r="H127" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>422</v>
+        <v>87</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>448</v>
+        <v>269</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>584</v>
+      </c>
       <c r="H128" s="7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>475</v>
+        <v>362</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>422</v>
+        <v>87</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>423</v>
+        <v>88</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="H129" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>461</v>
+        <v>377</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>5</v>
@@ -5626,47 +6056,51 @@
       <c r="F130" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>409</v>
+      </c>
       <c r="H130" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>462</v>
+        <v>383</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G131" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>591</v>
+      </c>
       <c r="H131" s="7" t="s">
-        <v>229</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>311</v>
+        <v>533</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>5</v>
@@ -5674,23 +6108,25 @@
       <c r="F132" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>595</v>
+      </c>
       <c r="H132" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>635</v>
+        <v>447</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>221</v>
+        <v>396</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>417</v>
+        <v>70</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>12</v>
@@ -5700,95 +6136,93 @@
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>460</v>
+        <v>149</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>226</v>
+        <v>428</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>225</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>255</v>
+        <v>430</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>194</v>
+        <v>428</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G136" s="6" t="s">
-        <v>468</v>
-      </c>
+      <c r="G136" s="6"/>
       <c r="H136" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>5</v>
@@ -5796,24 +6230,26 @@
       <c r="F137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G137" s="6"/>
+      <c r="G137" s="6" t="s">
+        <v>673</v>
+      </c>
       <c r="H137" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="E138" s="6" t="s">
         <v>5</v>
       </c>
@@ -5821,24 +6257,24 @@
         <v>5</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>469</v>
+        <v>675</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>459</v>
+        <v>295</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>5</v>
@@ -5846,73 +6282,75 @@
       <c r="F139" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G139" s="6"/>
+      <c r="G139" s="6" t="s">
+        <v>695</v>
+      </c>
       <c r="H139" s="7" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>313</v>
+        <v>596</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>224</v>
+        <v>399</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G140" s="6" t="s">
-        <v>467</v>
-      </c>
+      <c r="G140" s="6"/>
       <c r="H140" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>672</v>
+      </c>
       <c r="H141" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>41</v>
+        <v>625</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>5</v>
@@ -5920,23 +6358,25 @@
       <c r="F142" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G142" s="6"/>
+      <c r="G142" s="6" t="s">
+        <v>626</v>
+      </c>
       <c r="H142" s="7" t="s">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>5</v>
@@ -5944,23 +6384,25 @@
       <c r="F143" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G143" s="6"/>
+      <c r="G143" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="H143" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>305</v>
+        <v>436</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>5</v>
@@ -5968,23 +6410,25 @@
       <c r="F144" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G144" s="6"/>
+      <c r="G144" s="6" t="s">
+        <v>670</v>
+      </c>
       <c r="H144" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>5</v>
@@ -5992,23 +6436,25 @@
       <c r="F145" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G145" s="6"/>
+      <c r="G145" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="H145" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>5</v>
@@ -6017,24 +6463,24 @@
         <v>5</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>400</v>
+        <v>671</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>99</v>
+        <v>297</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>5</v>
@@ -6042,14 +6488,16 @@
       <c r="F147" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="6"/>
+      <c r="G147" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="H147" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>510</v>
+        <v>337</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>4</v>
@@ -6058,22 +6506,22 @@
         <v>10</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="7" t="s">
-        <v>509</v>
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>588</v>
+        <v>746</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>4</v>
@@ -6082,31 +6530,33 @@
         <v>10</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="6"/>
+      <c r="G149" s="6" t="s">
+        <v>640</v>
+      </c>
       <c r="H149" s="7" t="s">
-        <v>587</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>367</v>
+        <v>657</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>5</v>
@@ -6114,23 +6564,25 @@
       <c r="F150" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="6"/>
+      <c r="G150" s="6" t="s">
+        <v>658</v>
+      </c>
       <c r="H150" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>5</v>
@@ -6138,23 +6590,25 @@
       <c r="F151" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G151" s="6"/>
+      <c r="G151" s="6" t="s">
+        <v>693</v>
+      </c>
       <c r="H151" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>554</v>
+        <v>292</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>5</v>
@@ -6163,24 +6617,24 @@
         <v>5</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>13</v>
+        <v>694</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>574</v>
+        <v>351</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>97</v>
+        <v>434</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>5</v>
@@ -6188,23 +6642,25 @@
       <c r="F153" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="6"/>
+      <c r="G153" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="H153" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>381</v>
+        <v>747</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>239</v>
+        <v>10</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>5</v>
@@ -6213,24 +6669,24 @@
         <v>5</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>382</v>
+        <v>641</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>377</v>
+        <v>744</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>5</v>
@@ -6239,24 +6695,24 @@
         <v>5</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>378</v>
+        <v>713</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>631</v>
+        <v>552</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>478</v>
+        <v>95</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>12</v>
@@ -6266,143 +6722,151 @@
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="7" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>485</v>
+        <v>350</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>478</v>
+        <v>187</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G157" s="6"/>
+      <c r="G157" s="6" t="s">
+        <v>653</v>
+      </c>
       <c r="H157" s="7" t="s">
-        <v>486</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>480</v>
+        <v>355</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>481</v>
+        <v>261</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>654</v>
+      </c>
       <c r="H158" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>24</v>
+        <v>622</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>485</v>
+        <v>727</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>728</v>
+      </c>
       <c r="H160" s="7" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>480</v>
+        <v>363</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>483</v>
+        <v>229</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G161" s="6"/>
+      <c r="G161" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="H161" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>5</v>
@@ -6411,96 +6875,98 @@
         <v>5</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>471</v>
+        <v>360</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>464</v>
+        <v>592</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="7" t="s">
-        <v>293</v>
+        <v>449</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>206</v>
+        <v>450</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="7" t="s">
-        <v>204</v>
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>292</v>
+        <v>452</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>73</v>
+        <v>453</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G165" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>709</v>
+      </c>
       <c r="H165" s="7" t="s">
-        <v>291</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>155</v>
+        <v>745</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>5</v>
@@ -6508,23 +6974,25 @@
       <c r="F166" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="6"/>
+      <c r="G166" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="H166" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>450</v>
+        <v>710</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>5</v>
@@ -6532,95 +7000,101 @@
       <c r="F167" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="6"/>
+      <c r="G167" s="6" t="s">
+        <v>711</v>
+      </c>
       <c r="H167" s="7" t="s">
-        <v>160</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>217</v>
+        <v>452</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="7" t="s">
-        <v>216</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>590</v>
+        <v>308</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>591</v>
+        <v>197</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="6"/>
+      <c r="G169" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="H169" s="7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>591</v>
+        <v>197</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G170" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>687</v>
+      </c>
       <c r="H170" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>593</v>
+        <v>754</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>591</v>
+        <v>197</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>594</v>
+        <v>278</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>12</v>
@@ -6630,191 +7104,199 @@
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>591</v>
+        <v>197</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G172" s="6"/>
+      <c r="G172" s="6" t="s">
+        <v>660</v>
+      </c>
       <c r="H172" s="7" t="s">
-        <v>641</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>591</v>
+        <v>197</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>597</v>
+        <v>70</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G173" s="6"/>
+      <c r="G173" s="6" t="s">
+        <v>685</v>
+      </c>
       <c r="H173" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
-        <v>599</v>
+        <v>149</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>591</v>
+        <v>208</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>597</v>
+        <v>428</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G174" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>635</v>
+      </c>
       <c r="H174" s="7" t="s">
-        <v>598</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>601</v>
+        <v>430</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>591</v>
+        <v>208</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>597</v>
+        <v>428</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G175" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>638</v>
+      </c>
       <c r="H175" s="7" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>591</v>
+        <v>208</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>645</v>
+        <v>209</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>669</v>
+      </c>
       <c r="H176" s="7" t="s">
-        <v>643</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>171</v>
+        <v>555</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G178" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G178" s="6"/>
       <c r="H178" s="7" t="s">
-        <v>25</v>
+        <v>607</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>341</v>
+        <v>557</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>11</v>
+        <v>558</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>12</v>
@@ -6824,21 +7306,21 @@
       </c>
       <c r="G179" s="6"/>
       <c r="H179" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
-        <v>343</v>
+        <v>603</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>12</v>
@@ -6848,69 +7330,69 @@
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
-        <v>158</v>
+        <v>560</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>448</v>
+        <v>561</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
-        <v>449</v>
+        <v>563</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>448</v>
+        <v>561</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>416</v>
+        <v>565</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>417</v>
+        <v>561</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>12</v>
@@ -6920,47 +7402,45 @@
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
-        <v>445</v>
+        <v>605</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>57</v>
+        <v>606</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G184" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="G184" s="6"/>
       <c r="H184" s="7" t="s">
-        <v>56</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
-        <v>214</v>
+        <v>493</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>5</v>
@@ -6968,14 +7448,16 @@
       <c r="F185" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G185" s="6"/>
+      <c r="G185" s="6" t="s">
+        <v>718</v>
+      </c>
       <c r="H185" s="7" t="s">
-        <v>213</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>362</v>
+        <v>517</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>4</v>
@@ -6984,7 +7466,7 @@
         <v>26</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>451</v>
+        <v>27</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>5</v>
@@ -6992,14 +7474,16 @@
       <c r="F186" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G186" s="6"/>
+      <c r="G186" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H186" s="7" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
-        <v>457</v>
+        <v>325</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>4</v>
@@ -7008,31 +7492,31 @@
         <v>26</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>451</v>
+        <v>11</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G187" s="6"/>
       <c r="H187" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
-        <v>616</v>
+        <v>327</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>617</v>
+        <v>26</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>12</v>
@@ -7042,45 +7526,47 @@
       </c>
       <c r="G188" s="6"/>
       <c r="H188" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
-        <v>609</v>
+        <v>152</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>444</v>
+        <v>26</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G189" s="6"/>
+      <c r="G189" s="6" t="s">
+        <v>636</v>
+      </c>
       <c r="H189" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>444</v>
+        <v>26</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>290</v>
+        <v>428</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>5</v>
@@ -7089,24 +7575,24 @@
         <v>5</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>385</v>
+        <v>637</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
-        <v>537</v>
+        <v>398</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>538</v>
+        <v>26</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>12</v>
@@ -7116,21 +7602,21 @@
       </c>
       <c r="G191" s="6"/>
       <c r="H191" s="7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>626</v>
+        <v>55</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>5</v>
@@ -7139,24 +7625,24 @@
         <v>5</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>606</v>
+        <v>56</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
-        <v>442</v>
+        <v>666</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>5</v>
@@ -7165,24 +7651,24 @@
         <v>5</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>425</v>
+        <v>667</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>65</v>
+        <v>431</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>5</v>
@@ -7191,24 +7677,24 @@
         <v>5</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>66</v>
+        <v>644</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
-        <v>183</v>
+        <v>435</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>65</v>
+        <v>431</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>5</v>
@@ -7216,75 +7702,73 @@
       <c r="F195" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G195" s="6"/>
+      <c r="G195" s="6" t="s">
+        <v>665</v>
+      </c>
       <c r="H195" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>8</v>
+        <v>581</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G196" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="G196" s="6"/>
       <c r="H196" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G197" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="G197" s="6"/>
       <c r="H197" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
-        <v>72</v>
+        <v>613</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>5</v>
@@ -7293,41 +7777,39 @@
         <v>5</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>605</v>
+        <v>367</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>8</v>
+        <v>507</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>73</v>
+        <v>508</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G199" s="6" t="s">
-        <v>452</v>
-      </c>
+      <c r="G199" s="6"/>
       <c r="H199" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
-        <v>584</v>
+        <v>692</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>4</v>
@@ -7336,7 +7818,7 @@
         <v>8</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>179</v>
+        <v>587</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>5</v>
@@ -7345,15 +7827,15 @@
         <v>5</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
-        <v>30</v>
+        <v>424</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>4</v>
@@ -7362,7 +7844,7 @@
         <v>8</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>5</v>
@@ -7371,15 +7853,15 @@
         <v>5</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>32</v>
+        <v>407</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>4</v>
@@ -7388,7 +7870,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>5</v>
@@ -7397,15 +7879,15 @@
         <v>5</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>585</v>
+        <v>177</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>4</v>
@@ -7414,7 +7896,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>5</v>
@@ -7423,15 +7905,15 @@
         <v>5</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>603</v>
+        <v>648</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>4</v>
@@ -7440,7 +7922,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>5</v>
@@ -7449,18 +7931,226 @@
         <v>5</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>604</v>
+        <v>73</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>246</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A210" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A212" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H199" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H204">
-    <sortCondition ref="C8:C204"/>
-    <sortCondition ref="D8:D204"/>
-    <sortCondition ref="H8:H204"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H212">
+    <sortCondition ref="C8:C212"/>
+    <sortCondition ref="D8:D212"/>
+    <sortCondition ref="H8:H212"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FABC3A2-5CDA-4516-8C6A-8FE333E7C6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA4BC11-6FD8-4546-A434-20EBF7D6AE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3210" yWindow="-19845" windowWidth="30285" windowHeight="19125" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="38040" yWindow="-10920" windowWidth="29040" windowHeight="15720" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 3.0 and 3.9 CORE rules" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="760">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -2099,9 +2099,6 @@
     <t>DDF00128</t>
   </si>
   <si>
-    <t>A study intervention's product designation must be specified using the product Designation (C207418) DDF codelist.</t>
-  </si>
-  <si>
     <t>DDF00129</t>
   </si>
   <si>
@@ -2249,9 +2246,6 @@
     <t>administrableProduct</t>
   </si>
   <si>
-    <t>In case a medical device includes an embedded product then the sourcing information must be defined at the medical device level not at the embedded product level.</t>
-  </si>
-  <si>
     <t>AdminstrableProduct</t>
   </si>
   <si>
@@ -2309,10 +2303,22 @@
     <t>CHK0255</t>
   </si>
   <si>
-    <t>A product organization role is expected to either apply to at least a medical device or an administrable product.</t>
-  </si>
-  <si>
     <t>ProductOrganizationRole</t>
+  </si>
+  <si>
+    <t>A study intervention's product designation must be specified using the product designation (C207418) DDF codelist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourcing must not be defined for an administrable product which is only referenced as an embedded product for a medical device. </t>
+  </si>
+  <si>
+    <t>A product organization role is expected to apply to at least one medical device or administrable product.</t>
+  </si>
+  <si>
+    <t>CHK0256</t>
+  </si>
+  <si>
+    <t>If 'appliesTo' is specified for a product organization role, then the product organization role must only apply to medical devices or administrable products.</t>
   </si>
 </sst>
 </file>
@@ -2744,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3207,7 +3213,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>534</v>
@@ -3233,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>539</v>
@@ -3393,7 +3399,7 @@
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>4</v>
@@ -3402,7 +3408,7 @@
         <v>472</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -3412,7 +3418,7 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -3441,7 +3447,7 @@
     </row>
     <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>4</v>
@@ -3450,7 +3456,7 @@
         <v>463</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>12</v>
@@ -3460,7 +3466,7 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3489,7 +3495,7 @@
     </row>
     <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>4</v>
@@ -3637,16 +3643,16 @@
     </row>
     <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>12</v>
@@ -3656,7 +3662,7 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -3687,7 +3693,7 @@
     </row>
     <row r="38" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -3705,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>279</v>
@@ -3739,7 +3745,7 @@
     </row>
     <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>99</v>
@@ -3765,7 +3771,7 @@
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>99</v>
@@ -3939,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>328</v>
@@ -4171,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>541</v>
@@ -4205,7 +4211,7 @@
     </row>
     <row r="58" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>4</v>
@@ -4223,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>310</v>
@@ -4275,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>309</v>
@@ -4375,7 +4381,7 @@
         <v>5</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>536</v>
@@ -4427,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>503</v>
@@ -4505,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>499</v>
@@ -4557,7 +4563,7 @@
         <v>5</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>488</v>
@@ -4583,7 +4589,7 @@
         <v>5</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>526</v>
@@ -4609,7 +4615,7 @@
         <v>5</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>484</v>
@@ -4669,16 +4675,16 @@
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>12</v>
@@ -4688,18 +4694,18 @@
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>70</v>
@@ -4712,7 +4718,7 @@
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -4765,7 +4771,7 @@
     </row>
     <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>4</v>
@@ -4774,7 +4780,7 @@
         <v>110</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>12</v>
@@ -4784,7 +4790,7 @@
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -4905,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>281</v>
@@ -4931,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>543</v>
@@ -5031,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>497</v>
@@ -5081,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>477</v>
@@ -5089,7 +5095,7 @@
     </row>
     <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>4</v>
@@ -5115,7 +5121,7 @@
     </row>
     <row r="94" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>4</v>
@@ -5133,7 +5139,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>329</v>
@@ -5193,13 +5199,13 @@
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>60</v>
@@ -5212,38 +5218,36 @@
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>354</v>
+        <v>759</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>192</v>
+        <v>754</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="6" t="s">
-        <v>375</v>
-      </c>
+      <c r="G98" s="6"/>
       <c r="H98" s="7" t="s">
-        <v>247</v>
+        <v>758</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>99</v>
@@ -5252,25 +5256,27 @@
         <v>192</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="H99" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>192</v>
@@ -5279,106 +5285,104 @@
         <v>263</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="B103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="7" t="s">
+      <c r="E103" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
+    <row r="104" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="B104" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>5</v>
@@ -5387,15 +5391,15 @@
         <v>5</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>679</v>
+        <v>162</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>99</v>
@@ -5413,24 +5417,24 @@
         <v>5</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>168</v>
+        <v>679</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>5</v>
@@ -5439,15 +5443,15 @@
         <v>5</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>369</v>
+        <v>680</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>349</v>
+        <v>168</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>4</v>
@@ -5465,15 +5469,15 @@
         <v>5</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>651</v>
+        <v>369</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>4</v>
@@ -5482,7 +5486,7 @@
         <v>46</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>5</v>
@@ -5491,15 +5495,15 @@
         <v>5</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>4</v>
@@ -5517,15 +5521,15 @@
         <v>5</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>646</v>
+        <v>79</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>4</v>
@@ -5534,7 +5538,7 @@
         <v>46</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>5</v>
@@ -5543,41 +5547,41 @@
         <v>5</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>48</v>
+        <v>646</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>4</v>
@@ -5586,51 +5590,53 @@
         <v>179</v>
       </c>
       <c r="D112" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="6" t="s">
+      <c r="E113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H113" s="7" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="6"/>
-      <c r="H113" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>313</v>
@@ -5639,21 +5645,19 @@
         <v>233</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>590</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G114" s="6"/>
       <c r="H114" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>99</v>
@@ -5662,7 +5666,7 @@
         <v>313</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>5</v>
@@ -5671,15 +5675,15 @@
         <v>12</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>99</v>
@@ -5688,50 +5692,50 @@
         <v>313</v>
       </c>
       <c r="D116" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="6" t="s">
+      <c r="E117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>518</v>
+        <v>746</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>4</v>
@@ -5740,7 +5744,7 @@
         <v>65</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>5</v>
@@ -5749,48 +5753,50 @@
         <v>5</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>67</v>
+        <v>652</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="5" t="s">
+      <c r="B120" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>12</v>
@@ -5800,38 +5806,36 @@
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="7" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>4</v>
@@ -5840,50 +5844,50 @@
         <v>340</v>
       </c>
       <c r="D122" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="6" t="s">
+      <c r="E123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G122" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="H123" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>411</v>
+        <v>751</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>4</v>
@@ -5892,7 +5896,7 @@
         <v>157</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>158</v>
+        <v>502</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>5</v>
@@ -5901,15 +5905,15 @@
         <v>5</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>412</v>
+        <v>720</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>156</v>
+        <v>501</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>708</v>
+        <v>411</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>4</v>
@@ -5927,41 +5931,41 @@
         <v>5</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>415</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>4</v>
@@ -5970,7 +5974,7 @@
         <v>87</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>269</v>
+        <v>531</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>5</v>
@@ -5979,15 +5983,15 @@
         <v>5</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>357</v>
+        <v>618</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>4</v>
@@ -6005,15 +6009,15 @@
         <v>5</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>4</v>
@@ -6022,7 +6026,7 @@
         <v>87</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>5</v>
@@ -6031,15 +6035,15 @@
         <v>5</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>89</v>
+        <v>584</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>4</v>
@@ -6057,15 +6061,15 @@
         <v>5</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>409</v>
+        <v>89</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>4</v>
@@ -6080,18 +6084,18 @@
         <v>5</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>591</v>
+        <v>409</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>533</v>
+        <v>383</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>4</v>
@@ -6100,57 +6104,59 @@
         <v>87</v>
       </c>
       <c r="D132" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="6" t="s">
+      <c r="E133" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="H132" s="7" t="s">
+      <c r="H133" s="7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
+    <row r="134" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="5" t="s">
+      <c r="B134" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="6"/>
-      <c r="H133" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>12</v>
@@ -6160,15 +6166,15 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>430</v>
+        <v>149</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>404</v>
@@ -6184,21 +6190,21 @@
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>404</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>12</v>
@@ -6208,38 +6214,36 @@
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
+    <row r="138" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>4</v>
@@ -6248,7 +6252,7 @@
         <v>211</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>5</v>
@@ -6257,15 +6261,15 @@
         <v>5</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>295</v>
+        <v>674</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>4</v>
@@ -6283,74 +6287,74 @@
         <v>5</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>596</v>
+        <v>295</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>399</v>
+        <v>220</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G140" s="6"/>
+      <c r="G140" s="6" t="s">
+        <v>694</v>
+      </c>
       <c r="H140" s="7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>438</v>
+        <v>596</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>216</v>
+        <v>399</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G141" s="6" t="s">
-        <v>672</v>
-      </c>
+      <c r="G141" s="6"/>
       <c r="H141" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>5</v>
@@ -6359,24 +6363,24 @@
         <v>5</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>299</v>
+        <v>625</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>5</v>
@@ -6385,15 +6389,15 @@
         <v>5</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>442</v>
+        <v>626</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>4</v>
@@ -6402,7 +6406,7 @@
         <v>211</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>5</v>
@@ -6411,15 +6415,15 @@
         <v>5</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>670</v>
+        <v>442</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>4</v>
@@ -6437,15 +6441,15 @@
         <v>5</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>443</v>
+        <v>670</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>437</v>
+        <v>302</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>4</v>
@@ -6454,7 +6458,7 @@
         <v>211</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>5</v>
@@ -6463,15 +6467,15 @@
         <v>5</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>671</v>
+        <v>443</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>297</v>
+        <v>437</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>4</v>
@@ -6489,39 +6493,41 @@
         <v>5</v>
       </c>
       <c r="G147" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="H147" s="7" t="s">
+      <c r="H148" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
+    <row r="149" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="6"/>
-      <c r="H148" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
-        <v>746</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>4</v>
@@ -6530,24 +6536,22 @@
         <v>10</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>640</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" s="6"/>
       <c r="H149" s="7" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>657</v>
+        <v>744</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>4</v>
@@ -6565,15 +6569,15 @@
         <v>5</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>289</v>
+        <v>657</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>4</v>
@@ -6582,7 +6586,7 @@
         <v>10</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>5</v>
@@ -6591,15 +6595,15 @@
         <v>5</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>288</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>4</v>
@@ -6608,7 +6612,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>5</v>
@@ -6617,15 +6621,15 @@
         <v>5</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>4</v>
@@ -6634,7 +6638,7 @@
         <v>10</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>434</v>
+        <v>293</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>5</v>
@@ -6643,15 +6647,15 @@
         <v>5</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>382</v>
+        <v>693</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>747</v>
+        <v>351</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>4</v>
@@ -6660,7 +6664,7 @@
         <v>10</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>5</v>
@@ -6669,15 +6673,15 @@
         <v>5</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>641</v>
+        <v>382</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>4</v>
@@ -6695,15 +6699,15 @@
         <v>5</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>713</v>
+        <v>641</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>481</v>
+        <v>94</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>552</v>
+        <v>742</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>4</v>
@@ -6715,80 +6719,80 @@
         <v>95</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G156" s="6"/>
+      <c r="G156" s="6" t="s">
+        <v>712</v>
+      </c>
       <c r="H156" s="7" t="s">
-        <v>551</v>
+        <v>481</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>350</v>
+        <v>552</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G157" s="6" t="s">
-        <v>653</v>
-      </c>
+      <c r="G157" s="6"/>
       <c r="H157" s="7" t="s">
-        <v>185</v>
+        <v>551</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>5</v>
@@ -6797,18 +6801,18 @@
         <v>5</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>727</v>
+        <v>522</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>101</v>
@@ -6823,94 +6827,96 @@
         <v>5</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>728</v>
+        <v>622</v>
       </c>
       <c r="H160" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="H161" s="7" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
+    <row r="162" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="5" t="s">
+      <c r="B162" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E161" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G161" s="6" t="s">
+      <c r="E162" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H162" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
+    <row r="163" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="5" t="s">
+      <c r="B163" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E162" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162" s="6" t="s">
+      <c r="E163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="H162" s="7" t="s">
+      <c r="H163" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
+    <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G163" s="6"/>
-      <c r="H163" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="B164" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>22</v>
@@ -6926,38 +6932,36 @@
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>709</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G165" s="6"/>
       <c r="H165" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>745</v>
+        <v>452</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>4</v>
@@ -6966,7 +6970,7 @@
         <v>22</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>23</v>
+        <v>453</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>5</v>
@@ -6975,18 +6979,18 @@
         <v>12</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>24</v>
+        <v>708</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>22</v>
@@ -7001,65 +7005,65 @@
         <v>12</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>711</v>
+        <v>24</v>
       </c>
       <c r="H167" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="H168" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
+    <row r="169" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="5" t="s">
+      <c r="B169" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D169" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E168" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G168" s="6"/>
-      <c r="H168" s="7" t="s">
+      <c r="E169" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="6"/>
+      <c r="H169" s="7" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>686</v>
+        <v>308</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>4</v>
@@ -7068,24 +7072,24 @@
         <v>197</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>687</v>
+        <v>445</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>4</v>
@@ -7097,19 +7101,21 @@
         <v>278</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G171" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>686</v>
+      </c>
       <c r="H171" s="7" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
-        <v>659</v>
+        <v>752</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>4</v>
@@ -7118,24 +7124,22 @@
         <v>197</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G172" s="6" t="s">
-        <v>660</v>
-      </c>
+      <c r="G172" s="6"/>
       <c r="H172" s="7" t="s">
-        <v>196</v>
+        <v>706</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>4</v>
@@ -7144,53 +7148,53 @@
         <v>197</v>
       </c>
       <c r="D173" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G173" s="6" t="s">
+      <c r="E174" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H174" s="7" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
-        <v>430</v>
+        <v>149</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>208</v>
@@ -7205,65 +7209,67 @@
         <v>12</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
-        <v>668</v>
+        <v>430</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>208</v>
       </c>
       <c r="D176" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E176" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="6" t="s">
+      <c r="E177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H177" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
+    <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G177" s="6"/>
-      <c r="H177" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>4</v>
@@ -7282,12 +7288,12 @@
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>4</v>
@@ -7296,7 +7302,7 @@
         <v>555</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>558</v>
+        <v>60</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>12</v>
@@ -7306,12 +7312,12 @@
       </c>
       <c r="G179" s="6"/>
       <c r="H179" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
-        <v>603</v>
+        <v>557</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>4</v>
@@ -7320,7 +7326,7 @@
         <v>555</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>251</v>
+        <v>558</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>12</v>
@@ -7330,21 +7336,21 @@
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>555</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>561</v>
+        <v>251</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>12</v>
@@ -7354,12 +7360,12 @@
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="7" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>99</v>
@@ -7378,12 +7384,12 @@
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>99</v>
@@ -7402,21 +7408,21 @@
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>555</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>606</v>
+        <v>561</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>12</v>
@@ -7426,47 +7432,45 @@
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="6"/>
+      <c r="H185" s="7" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>5</v>
@@ -7475,15 +7479,15 @@
         <v>5</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>28</v>
+        <v>717</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>25</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>4</v>
@@ -7492,22 +7496,24 @@
         <v>26</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G187" s="6"/>
+      <c r="G187" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H187" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>4</v>
@@ -7526,12 +7532,12 @@
       </c>
       <c r="G188" s="6"/>
       <c r="H188" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>4</v>
@@ -7540,27 +7546,25 @@
         <v>26</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>428</v>
+        <v>11</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G189" s="6" t="s">
-        <v>636</v>
-      </c>
+      <c r="G189" s="6"/>
       <c r="H189" s="7" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
-        <v>429</v>
+        <v>152</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>26</v>
@@ -7575,39 +7579,41 @@
         <v>5</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G191" s="6"/>
+      <c r="G191" s="6" t="s">
+        <v>637</v>
+      </c>
       <c r="H191" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
-        <v>614</v>
+        <v>398</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>4</v>
@@ -7616,24 +7622,22 @@
         <v>26</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G192" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="G192" s="6"/>
       <c r="H192" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>4</v>
@@ -7642,7 +7646,7 @@
         <v>26</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>5</v>
@@ -7651,15 +7655,15 @@
         <v>5</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>667</v>
+        <v>56</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>4</v>
@@ -7668,7 +7672,7 @@
         <v>26</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>431</v>
+        <v>206</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>5</v>
@@ -7677,15 +7681,15 @@
         <v>5</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
-        <v>435</v>
+        <v>643</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>4</v>
@@ -7703,48 +7707,50 @@
         <v>5</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
-        <v>580</v>
+        <v>435</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>581</v>
+        <v>26</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G196" s="6"/>
+      <c r="G196" s="6" t="s">
+        <v>665</v>
+      </c>
       <c r="H196" s="7" t="s">
-        <v>579</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>425</v>
+        <v>581</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>12</v>
@@ -7754,12 +7760,12 @@
       </c>
       <c r="G197" s="6"/>
       <c r="H197" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>4</v>
@@ -7768,74 +7774,72 @@
         <v>425</v>
       </c>
       <c r="D198" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G198" s="6"/>
+      <c r="H198" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E198" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G198" s="6" t="s">
+      <c r="E199" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H199" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="5" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="5" t="s">
+      <c r="B200" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D200" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="E199" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G199" s="6"/>
-      <c r="H199" s="7" t="s">
+      <c r="E200" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" s="6"/>
+      <c r="H200" s="7" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="H200" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
-        <v>424</v>
+        <v>691</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>4</v>
@@ -7844,7 +7848,7 @@
         <v>8</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>9</v>
+        <v>587</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>5</v>
@@ -7853,15 +7857,15 @@
         <v>5</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>407</v>
+        <v>570</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
-        <v>615</v>
+        <v>424</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>4</v>
@@ -7870,7 +7874,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>5</v>
@@ -7879,15 +7883,15 @@
         <v>5</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>63</v>
+        <v>407</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>177</v>
+        <v>615</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>4</v>
@@ -7905,15 +7909,15 @@
         <v>5</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>648</v>
+        <v>63</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
-        <v>519</v>
+        <v>177</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>4</v>
@@ -7922,7 +7926,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>5</v>
@@ -7931,15 +7935,15 @@
         <v>5</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>73</v>
+        <v>648</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>4</v>
@@ -7957,15 +7961,15 @@
         <v>5</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
-        <v>69</v>
+        <v>585</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>4</v>
@@ -7974,7 +7978,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>5</v>
@@ -7983,15 +7987,15 @@
         <v>5</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>569</v>
+        <v>75</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>4</v>
@@ -8009,15 +8013,15 @@
         <v>5</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>432</v>
+        <v>569</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
-        <v>548</v>
+        <v>175</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>4</v>
@@ -8026,7 +8030,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>5</v>
@@ -8035,15 +8039,15 @@
         <v>5</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>566</v>
+        <v>432</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
-        <v>30</v>
+        <v>548</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>4</v>
@@ -8052,7 +8056,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>5</v>
@@ -8061,15 +8065,15 @@
         <v>5</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>32</v>
+        <v>566</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
-        <v>547</v>
+        <v>30</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>4</v>
@@ -8087,15 +8091,15 @@
         <v>5</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>4</v>
@@ -8104,7 +8108,7 @@
         <v>8</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>5</v>
@@ -8113,15 +8117,15 @@
         <v>5</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>567</v>
+        <v>34</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>4</v>
@@ -8130,27 +8134,53 @@
         <v>8</v>
       </c>
       <c r="D212" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E212" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G212" s="6" t="s">
+      <c r="E213" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G213" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="H212" s="7" t="s">
+      <c r="H213" s="7" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H199" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H212">
-    <sortCondition ref="C8:C212"/>
-    <sortCondition ref="D8:D212"/>
-    <sortCondition ref="H8:H212"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H213">
+    <sortCondition ref="C8:C213"/>
+    <sortCondition ref="D8:D213"/>
+    <sortCondition ref="H8:H213"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235231A2-FF39-4BA0-AD59-BC173E417838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40994008-9B16-48E0-9DDC-17527580F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13560" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-5145" yWindow="-20895" windowWidth="27975" windowHeight="18150" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 3.0 and 3.10 CORE rules" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="806">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -2451,6 +2451,12 @@
   </si>
   <si>
     <t>includesDNA</t>
+  </si>
+  <si>
+    <t>An observational study (including patient registries) is expected to have a study phase decode value of "NOT APPLICABLE".</t>
+  </si>
+  <si>
+    <t>CHK0276</t>
   </si>
 </sst>
 </file>
@@ -2540,10 +2546,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2863,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5446,18 +5448,18 @@
         <v>787</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>4</v>
+        <v>804</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>783</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>12</v>
@@ -5466,12 +5468,12 @@
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>4</v>
@@ -5480,7 +5482,7 @@
         <v>783</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>770</v>
+        <v>206</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>12</v>
@@ -5489,12 +5491,12 @@
         <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>4</v>
@@ -5503,53 +5505,53 @@
         <v>783</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="E108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>759</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
@@ -5558,12 +5560,12 @@
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>4</v>
@@ -5572,39 +5574,39 @@
         <v>759</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="E111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -5615,53 +5617,50 @@
         <v>4</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H113" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="H113" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>4</v>
@@ -5679,44 +5678,44 @@
         <v>5</v>
       </c>
       <c r="G114" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H115" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H115" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>139</v>
@@ -5731,41 +5730,44 @@
         <v>5</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>638</v>
+        <v>407</v>
       </c>
       <c r="H116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>749</v>
+        <v>343</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>746</v>
+        <v>139</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G117" s="2" t="s">
+        <v>638</v>
+      </c>
       <c r="H117" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>746</v>
@@ -5780,38 +5782,35 @@
         <v>5</v>
       </c>
       <c r="H118" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H119" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>99</v>
@@ -5820,24 +5819,27 @@
         <v>192</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="H120" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>752</v>
+        <v>378</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>192</v>
@@ -5846,105 +5848,102 @@
         <v>263</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H122" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="H122" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="H123" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="E124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H124" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="H124" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="B125" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>5</v>
@@ -5953,15 +5952,15 @@
         <v>5</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>672</v>
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>99</v>
@@ -5979,24 +5978,24 @@
         <v>5</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
       <c r="H126" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>168</v>
+        <v>672</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>5</v>
@@ -6005,15 +6004,15 @@
         <v>5</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>366</v>
+        <v>673</v>
       </c>
       <c r="H127" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>346</v>
+        <v>168</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>4</v>
@@ -6031,15 +6030,15 @@
         <v>5</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>644</v>
+        <v>366</v>
       </c>
       <c r="H128" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>4</v>
@@ -6048,7 +6047,7 @@
         <v>46</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>5</v>
@@ -6057,15 +6056,15 @@
         <v>5</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="H129" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>4</v>
@@ -6083,15 +6082,15 @@
         <v>5</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="H130" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>4</v>
@@ -6100,7 +6099,7 @@
         <v>46</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>5</v>
@@ -6109,41 +6108,41 @@
         <v>5</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>48</v>
+        <v>639</v>
       </c>
       <c r="H131" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H132" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>4</v>
@@ -6152,50 +6151,53 @@
         <v>179</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H133" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H134" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H134" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>313</v>
@@ -6204,21 +6206,18 @@
         <v>233</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>584</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>99</v>
@@ -6227,7 +6226,7 @@
         <v>313</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>5</v>
@@ -6236,15 +6235,15 @@
         <v>12</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H136" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>99</v>
@@ -6253,50 +6252,50 @@
         <v>313</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H137" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H138" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="H138" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>4</v>
@@ -6305,7 +6304,7 @@
         <v>65</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>5</v>
@@ -6314,87 +6313,87 @@
         <v>5</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>67</v>
+        <v>645</v>
       </c>
       <c r="H139" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H140" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="E141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="B142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="E142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="H142" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>336</v>
+        <v>483</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>4</v>
@@ -6403,50 +6402,50 @@
         <v>337</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="H143" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H144" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="H144" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>4</v>
@@ -6455,7 +6454,7 @@
         <v>157</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>158</v>
+        <v>498</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>5</v>
@@ -6464,15 +6463,15 @@
         <v>5</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>409</v>
+        <v>713</v>
       </c>
       <c r="H145" t="s">
-        <v>156</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>700</v>
+        <v>408</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>4</v>
@@ -6490,41 +6489,41 @@
         <v>5</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H146" t="s">
-        <v>412</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H147" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="H147" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>4</v>
@@ -6533,7 +6532,7 @@
         <v>87</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>269</v>
+        <v>527</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>5</v>
@@ -6542,15 +6541,15 @@
         <v>5</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="H148" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>354</v>
+        <v>611</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>4</v>
@@ -6568,15 +6567,15 @@
         <v>5</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H149" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>4</v>
@@ -6585,7 +6584,7 @@
         <v>87</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>5</v>
@@ -6594,15 +6593,15 @@
         <v>5</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>89</v>
+        <v>578</v>
       </c>
       <c r="H150" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>4</v>
@@ -6620,15 +6619,15 @@
         <v>5</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>406</v>
+        <v>89</v>
       </c>
       <c r="H151" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>4</v>
@@ -6643,18 +6642,18 @@
         <v>5</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>585</v>
+        <v>406</v>
       </c>
       <c r="H152" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>529</v>
+        <v>380</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>4</v>
@@ -6663,73 +6662,76 @@
         <v>87</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H153" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G153" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H154" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="B155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="E155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H155" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>427</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>401</v>
@@ -6744,61 +6746,58 @@
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>401</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="E158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H158" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="H158" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>4</v>
@@ -6807,7 +6806,7 @@
         <v>211</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>5</v>
@@ -6816,15 +6815,15 @@
         <v>12</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H159" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>295</v>
+        <v>667</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>4</v>
@@ -6842,15 +6841,15 @@
         <v>12</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="H160" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>435</v>
+        <v>295</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
@@ -6859,7 +6858,7 @@
         <v>211</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>5</v>
@@ -6868,24 +6867,24 @@
         <v>12</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="H161" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>618</v>
+        <v>435</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>5</v>
@@ -6894,24 +6893,24 @@
         <v>12</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="H162" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>299</v>
+        <v>618</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>5</v>
@@ -6920,15 +6919,15 @@
         <v>12</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>439</v>
+        <v>619</v>
       </c>
       <c r="H163" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>433</v>
+        <v>299</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>4</v>
@@ -6937,7 +6936,7 @@
         <v>211</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>5</v>
@@ -6946,15 +6945,15 @@
         <v>12</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>663</v>
+        <v>439</v>
       </c>
       <c r="H164" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>302</v>
+        <v>433</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>4</v>
@@ -6972,15 +6971,15 @@
         <v>12</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>440</v>
+        <v>663</v>
       </c>
       <c r="H165" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>4</v>
@@ -6989,7 +6988,7 @@
         <v>211</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>5</v>
@@ -6998,15 +6997,15 @@
         <v>12</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>664</v>
+        <v>440</v>
       </c>
       <c r="H166" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>297</v>
+        <v>434</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>4</v>
@@ -7024,38 +7023,41 @@
         <v>12</v>
       </c>
       <c r="G167" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H167" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H168" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>4</v>
@@ -7064,24 +7066,21 @@
         <v>10</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>633</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>650</v>
+        <v>736</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>4</v>
@@ -7099,15 +7098,15 @@
         <v>5</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="H170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>289</v>
+        <v>650</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>4</v>
@@ -7116,7 +7115,7 @@
         <v>10</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>5</v>
@@ -7125,15 +7124,15 @@
         <v>5</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="H171" t="s">
-        <v>288</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>4</v>
@@ -7142,7 +7141,7 @@
         <v>10</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>5</v>
@@ -7151,15 +7150,15 @@
         <v>5</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H172" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>4</v>
@@ -7168,7 +7167,7 @@
         <v>10</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>431</v>
+        <v>293</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>5</v>
@@ -7177,15 +7176,15 @@
         <v>5</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>379</v>
+        <v>686</v>
       </c>
       <c r="H173" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>737</v>
+        <v>348</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>4</v>
@@ -7194,7 +7193,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>95</v>
+        <v>431</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>5</v>
@@ -7203,15 +7202,15 @@
         <v>5</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>634</v>
+        <v>379</v>
       </c>
       <c r="H174" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>4</v>
@@ -7229,15 +7228,15 @@
         <v>5</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>705</v>
+        <v>634</v>
       </c>
       <c r="H175" t="s">
-        <v>477</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>548</v>
+        <v>754</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
@@ -7249,79 +7248,79 @@
         <v>95</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G176" s="2" t="s">
+        <v>705</v>
+      </c>
       <c r="H176" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>347</v>
+        <v>548</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="H177" t="s">
-        <v>185</v>
+        <v>547</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="H178" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="H178" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>5</v>
@@ -7330,18 +7329,18 @@
         <v>5</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="H179" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>719</v>
+        <v>518</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>101</v>
@@ -7356,93 +7355,96 @@
         <v>5</v>
       </c>
       <c r="G180" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H180" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H181" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="B182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G181" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H182" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C182" s="1" t="s">
+      <c r="B183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G182" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H183" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H183" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A184" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="B184" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>22</v>
@@ -7457,38 +7459,35 @@
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>701</v>
+        <v>5</v>
       </c>
       <c r="H185" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>735</v>
+        <v>449</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>4</v>
@@ -7497,7 +7496,7 @@
         <v>22</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>5</v>
@@ -7506,18 +7505,18 @@
         <v>12</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>24</v>
+        <v>701</v>
       </c>
       <c r="H186" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>22</v>
@@ -7532,64 +7531,64 @@
         <v>12</v>
       </c>
       <c r="G187" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H188" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="B189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H188" t="s">
+      <c r="E189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H189" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H189" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>747</v>
+        <v>308</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>4</v>
@@ -7598,24 +7597,24 @@
         <v>197</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>679</v>
+        <v>442</v>
       </c>
       <c r="H190" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
@@ -7627,18 +7626,21 @@
         <v>278</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="H191" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>4</v>
@@ -7647,24 +7649,21 @@
         <v>197</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G192" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="H192" t="s">
-        <v>196</v>
+        <v>699</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>4</v>
@@ -7673,53 +7672,53 @@
         <v>197</v>
       </c>
       <c r="D193" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G193" s="2" t="s">
+      <c r="E194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H194" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="H194" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>427</v>
+        <v>149</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>208</v>
@@ -7734,64 +7733,67 @@
         <v>12</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H195" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>661</v>
+        <v>427</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D196" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="H196" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H197" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A197" s="1" t="s">
+    <row r="198" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H197" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>4</v>
@@ -7809,12 +7811,12 @@
         <v>5</v>
       </c>
       <c r="H198" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>4</v>
@@ -7823,7 +7825,7 @@
         <v>551</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>554</v>
+        <v>60</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>12</v>
@@ -7832,12 +7834,12 @@
         <v>5</v>
       </c>
       <c r="H199" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>4</v>
@@ -7846,7 +7848,7 @@
         <v>551</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>251</v>
+        <v>554</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>12</v>
@@ -7855,21 +7857,21 @@
         <v>5</v>
       </c>
       <c r="H200" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>551</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>557</v>
+        <v>251</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>12</v>
@@ -7878,12 +7880,12 @@
         <v>5</v>
       </c>
       <c r="H201" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>99</v>
@@ -7901,12 +7903,12 @@
         <v>5</v>
       </c>
       <c r="H202" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>99</v>
@@ -7924,70 +7926,67 @@
         <v>5</v>
       </c>
       <c r="H203" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>551</v>
       </c>
       <c r="D204" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H204" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H204" t="s">
+      <c r="E205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H205" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="H205" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>5</v>
@@ -7996,15 +7995,15 @@
         <v>5</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>28</v>
+        <v>710</v>
       </c>
       <c r="H206" t="s">
-        <v>25</v>
+        <v>488</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>325</v>
+        <v>513</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>4</v>
@@ -8013,21 +8012,24 @@
         <v>26</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G207" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H207" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>4</v>
@@ -8045,12 +8047,12 @@
         <v>5</v>
       </c>
       <c r="H208" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>4</v>
@@ -8059,27 +8061,24 @@
         <v>26</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G209" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="H209" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>426</v>
+        <v>152</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>26</v>
@@ -8094,38 +8093,41 @@
         <v>5</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H210" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G211" s="2" t="s">
+        <v>630</v>
+      </c>
       <c r="H211" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>607</v>
+        <v>395</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>4</v>
@@ -8134,24 +8136,21 @@
         <v>26</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="H212" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>4</v>
@@ -8160,7 +8159,7 @@
         <v>26</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>5</v>
@@ -8169,15 +8168,15 @@
         <v>12</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>660</v>
+        <v>56</v>
       </c>
       <c r="H213" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>4</v>
@@ -8186,24 +8185,24 @@
         <v>26</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>428</v>
+        <v>206</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="H214" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>432</v>
+        <v>636</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>4</v>
@@ -8221,61 +8220,64 @@
         <v>5</v>
       </c>
       <c r="G215" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H215" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H216" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="1" t="s">
+    <row r="217" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H216" t="s">
+      <c r="E217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H217" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H217" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>4</v>
@@ -8284,73 +8286,70 @@
         <v>422</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H218" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G218" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H219" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C219" s="1" t="s">
+      <c r="B220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H219" t="s">
+      <c r="E220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H220" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="H220" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>421</v>
+        <v>684</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>4</v>
@@ -8359,7 +8358,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9</v>
+        <v>581</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>5</v>
@@ -8368,15 +8367,15 @@
         <v>5</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>404</v>
+        <v>566</v>
       </c>
       <c r="H221" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>608</v>
+        <v>421</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>4</v>
@@ -8385,7 +8384,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>5</v>
@@ -8394,15 +8393,15 @@
         <v>5</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>63</v>
+        <v>404</v>
       </c>
       <c r="H222" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>177</v>
+        <v>608</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>4</v>
@@ -8420,15 +8419,15 @@
         <v>5</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>641</v>
+        <v>63</v>
       </c>
       <c r="H223" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>4</v>
@@ -8437,7 +8436,7 @@
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>5</v>
@@ -8446,15 +8445,15 @@
         <v>5</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>73</v>
+        <v>641</v>
       </c>
       <c r="H224" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>4</v>
@@ -8472,15 +8471,15 @@
         <v>5</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H225" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>69</v>
+        <v>579</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>4</v>
@@ -8489,7 +8488,7 @@
         <v>8</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>5</v>
@@ -8498,15 +8497,15 @@
         <v>5</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>565</v>
+        <v>75</v>
       </c>
       <c r="H226" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>4</v>
@@ -8524,15 +8523,15 @@
         <v>5</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>429</v>
+        <v>565</v>
       </c>
       <c r="H227" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>544</v>
+        <v>175</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>4</v>
@@ -8541,7 +8540,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>5</v>
@@ -8550,15 +8549,15 @@
         <v>5</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>562</v>
+        <v>429</v>
       </c>
       <c r="H228" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>30</v>
+        <v>544</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>4</v>
@@ -8567,7 +8566,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>5</v>
@@ -8576,15 +8575,15 @@
         <v>5</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>32</v>
+        <v>562</v>
       </c>
       <c r="H229" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>543</v>
+        <v>30</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>4</v>
@@ -8602,15 +8601,15 @@
         <v>5</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H230" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>4</v>
@@ -8619,7 +8618,7 @@
         <v>8</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>5</v>
@@ -8628,15 +8627,15 @@
         <v>5</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>563</v>
+        <v>34</v>
       </c>
       <c r="H231" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>4</v>
@@ -8645,27 +8644,53 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G232" s="2" t="s">
+      <c r="E233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H233" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H232">
-    <sortCondition ref="C8:C232"/>
-    <sortCondition ref="D8:D232"/>
-    <sortCondition ref="H8:H232"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H233">
+    <sortCondition ref="C8:C233"/>
+    <sortCondition ref="D8:D233"/>
+    <sortCondition ref="H8:H233"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40994008-9B16-48E0-9DDC-17527580F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB7C1A5-D983-4B2E-8C4F-4EDDF7DED44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5145" yWindow="-20895" windowWidth="27975" windowHeight="18150" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-3375" yWindow="-20175" windowWidth="34935" windowHeight="18540" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 3.0 and 3.10 CORE rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Version 3.0 and 3.11 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.10 CORE rules'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.11 CORE rules'!$A$1:$H$268</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294963376" uniqueCount="842">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -1568,18 +1568,12 @@
     <t>Strength</t>
   </si>
   <si>
-    <t>numerator, denominator</t>
-  </si>
-  <si>
     <t>If a dose is specified then a corresponding frequency must also be specified.</t>
   </si>
   <si>
     <t>If an administration's dose is specified then a corresponding route is expected and vice versa.</t>
   </si>
   <si>
-    <t>A unit must be specified for every strength denominator and numerator</t>
-  </si>
-  <si>
     <t>Within a study version, if more than 1 business therapeutic area is defined then they must be distinct.</t>
   </si>
   <si>
@@ -2300,9 +2294,6 @@
     <t>The minimum value of a range must be less than or equal to the maximum value of the range.</t>
   </si>
   <si>
-    <t>Version 3.10</t>
-  </si>
-  <si>
     <t>A planned sex must be specified using the Sex of Participants (C66732) SDTM codelist.</t>
   </si>
   <si>
@@ -2457,6 +2448,123 @@
   </si>
   <si>
     <t>CHK0276</t>
+  </si>
+  <si>
+    <t>Version 3.11</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint</t>
+  </si>
+  <si>
+    <t>If a strength denominator is specified, it must have a unit.</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>forStudyCohort, forStudySite, forGeographicScope</t>
+  </si>
+  <si>
+    <t>CHK0277</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>CHK0278</t>
+  </si>
+  <si>
+    <t>A unit must not be specified for a planned enrollment number.</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumberQuantity, plannedEnrollmentNumberRange</t>
+  </si>
+  <si>
+    <t>CHK0279</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumberRange, plannedCompletionNumberQuantity</t>
+  </si>
+  <si>
+    <t>CHK0280</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumberRange, plannedEnrollmentNumberQuantity</t>
+  </si>
+  <si>
+    <t>CHK0281</t>
+  </si>
+  <si>
+    <t>CHK0282</t>
+  </si>
+  <si>
+    <t>If a strength numerator quantity is specified, it must have a unit.</t>
+  </si>
+  <si>
+    <t>numeratorQuantity</t>
+  </si>
+  <si>
+    <t>CHK0283</t>
+  </si>
+  <si>
+    <t>If a strength numerator range is specified, both the minValue and maxValue must have a unit.</t>
+  </si>
+  <si>
+    <t>numeratorRange</t>
+  </si>
+  <si>
+    <t>CHK0284</t>
+  </si>
+  <si>
+    <t>For each strength, either a numerator quantity or range must be specified.</t>
+  </si>
+  <si>
+    <t>numeratorQuantity, numeratorRange</t>
+  </si>
+  <si>
+    <t>CHK0285</t>
+  </si>
+  <si>
+    <t>If the unit is the same (or missing) for both the minimum and maximum value, then the minimum value must be less than the maximum value.</t>
+  </si>
+  <si>
+    <t>CHK0286</t>
+  </si>
+  <si>
+    <t>For each range, a unit must be specified either for both the minimum and the maximum value, or for neither of them.</t>
+  </si>
+  <si>
+    <t>CHK0287</t>
+  </si>
+  <si>
+    <t>A unit must not be specified for a planned completion number.</t>
+  </si>
+  <si>
+    <t>CHK0288</t>
+  </si>
+  <si>
+    <t>For planned enrollment number, both a quantity and a range must not be specified for the same study design population or study cohort.</t>
+  </si>
+  <si>
+    <t>CHK0289</t>
+  </si>
+  <si>
+    <t>For planned completion number, both a quantity and a range must not be specified for the same study design population or study cohort.</t>
+  </si>
+  <si>
+    <t>CHK0290</t>
+  </si>
+  <si>
+    <t>CHK0291</t>
+  </si>
+  <si>
+    <t>CHK0292</t>
+  </si>
+  <si>
+    <t>An eligibility criterion item must not be used more than once within a study design.</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem</t>
   </si>
 </sst>
 </file>
@@ -2546,6 +2654,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2865,10 +2977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2876,7 +2988,7 @@
     <col min="1" max="1" width="52.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.08984375" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.36328125" customWidth="1"/>
@@ -2887,25 +2999,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>753</v>
+        <v>803</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2928,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -2954,7 +3066,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -2980,7 +3092,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H4" t="s">
         <v>238</v>
@@ -3006,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H5" t="s">
         <v>239</v>
@@ -3032,7 +3144,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -3130,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H10" t="s">
         <v>226</v>
@@ -3253,7 +3365,7 @@
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>99</v>
@@ -3271,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H16" t="s">
         <v>244</v>
@@ -3302,7 +3414,7 @@
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -3320,15 +3432,15 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -3346,10 +3458,10 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -3372,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H20" t="s">
         <v>134</v>
@@ -3398,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H21" t="s">
         <v>90</v>
@@ -3424,7 +3536,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H22" t="s">
         <v>96</v>
@@ -3476,7 +3588,7 @@
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -3504,7 +3616,7 @@
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -3513,7 +3625,7 @@
         <v>468</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -3522,7 +3634,7 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -3550,7 +3662,7 @@
     </row>
     <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -3559,7 +3671,7 @@
         <v>459</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
@@ -3568,12 +3680,12 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -3596,7 +3708,7 @@
     </row>
     <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -3619,7 +3731,7 @@
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>99</v>
@@ -3740,16 +3852,16 @@
     </row>
     <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -3758,12 +3870,12 @@
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -3781,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H37" t="s">
         <v>199</v>
@@ -3789,7 +3901,7 @@
     </row>
     <row r="38" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -3807,7 +3919,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H38" t="s">
         <v>279</v>
@@ -3841,7 +3953,7 @@
     </row>
     <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>99</v>
@@ -3859,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H40" t="s">
         <v>283</v>
@@ -3867,7 +3979,7 @@
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>99</v>
@@ -3885,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H41" t="s">
         <v>264</v>
@@ -3971,16 +4083,16 @@
     </row>
     <row r="45" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -3989,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -4020,7 +4132,7 @@
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
@@ -4038,7 +4150,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H47" t="s">
         <v>240</v>
@@ -4064,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H48" t="s">
         <v>328</v>
@@ -4098,7 +4210,7 @@
     </row>
     <row r="50" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
@@ -4116,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H50" t="s">
         <v>147</v>
@@ -4142,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H51" t="s">
         <v>202</v>
@@ -4176,17 +4288,17 @@
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
@@ -4194,12 +4306,12 @@
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
@@ -4217,41 +4329,38 @@
         <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>840</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>105</v>
+        <v>841</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>102</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
@@ -4266,10 +4375,10 @@
         <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H56" t="s">
         <v>107</v>
@@ -4277,7 +4386,7 @@
     </row>
     <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>99</v>
@@ -4292,96 +4401,90 @@
         <v>5</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H57" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="H58" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="H59" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="H60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -4390,24 +4493,24 @@
         <v>98</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>688</v>
+        <v>437</v>
       </c>
       <c r="H61" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>319</v>
+        <v>687</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
@@ -4416,21 +4519,24 @@
         <v>98</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>688</v>
+      </c>
       <c r="H62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>443</v>
+        <v>189</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
@@ -4439,47 +4545,50 @@
         <v>98</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="H63" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="H64" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>533</v>
+        <v>319</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4</v>
@@ -4488,24 +4597,21 @@
         <v>98</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>718</v>
-      </c>
       <c r="H65" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>355</v>
+        <v>443</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
@@ -4514,33 +4620,30 @@
         <v>98</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>676</v>
-      </c>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
@@ -4549,24 +4652,24 @@
         <v>5</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>714</v>
+        <v>612</v>
       </c>
       <c r="H67" t="s">
-        <v>499</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>5</v>
@@ -4575,24 +4678,24 @@
         <v>5</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>85</v>
+        <v>716</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>5</v>
@@ -4601,24 +4704,24 @@
         <v>5</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="H69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
@@ -4630,21 +4733,21 @@
         <v>712</v>
       </c>
       <c r="H70" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>521</v>
+        <v>608</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
@@ -4653,24 +4756,24 @@
         <v>5</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>627</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>485</v>
+        <v>342</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
@@ -4679,24 +4782,24 @@
         <v>5</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>708</v>
+        <v>630</v>
       </c>
       <c r="H72" t="s">
-        <v>484</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>5</v>
@@ -4705,24 +4808,24 @@
         <v>5</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="H73" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>5</v>
@@ -4731,24 +4834,24 @@
         <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>706</v>
+        <v>625</v>
       </c>
       <c r="H74" t="s">
-        <v>480</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>304</v>
+        <v>485</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>306</v>
+        <v>70</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>5</v>
@@ -4757,93 +4860,102 @@
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>441</v>
+        <v>706</v>
       </c>
       <c r="H75" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>763</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>218</v>
+        <v>522</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G76" s="2" t="s">
+        <v>714</v>
+      </c>
       <c r="H76" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>766</v>
+        <v>481</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>763</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>767</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G77" s="2" t="s">
+        <v>704</v>
+      </c>
       <c r="H77" t="s">
-        <v>765</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>780</v>
+        <v>304</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>763</v>
+        <v>305</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>767</v>
+        <v>306</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G78" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="H78" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>618</v>
+        <v>436</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>764</v>
+        <v>218</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
@@ -4852,18 +4964,18 @@
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>435</v>
+        <v>763</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>764</v>
@@ -4875,21 +4987,21 @@
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>206</v>
+        <v>764</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
@@ -4898,21 +5010,21 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>769</v>
+        <v>616</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
@@ -4921,12 +5033,12 @@
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>774</v>
+        <v>435</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>4</v>
@@ -4935,7 +5047,7 @@
         <v>760</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>220</v>
+        <v>761</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
@@ -4944,12 +5056,12 @@
         <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>295</v>
+        <v>790</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>4</v>
@@ -4958,7 +5070,7 @@
         <v>760</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>12</v>
@@ -4967,12 +5079,12 @@
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -4981,172 +5093,172 @@
         <v>760</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" t="s">
         <v>770</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>669</v>
+        <v>295</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>222</v>
+        <v>757</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>670</v>
-      </c>
       <c r="H87" t="s">
-        <v>221</v>
+        <v>772</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>733</v>
+        <v>774</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
@@ -5154,38 +5266,35 @@
         <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>171</v>
+        <v>385</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="H93" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>4</v>
@@ -5194,7 +5303,7 @@
         <v>110</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>12</v>
@@ -5203,12 +5312,12 @@
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>390</v>
+        <v>722</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>4</v>
@@ -5217,7 +5326,7 @@
         <v>110</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>391</v>
+        <v>723</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>12</v>
@@ -5226,12 +5335,12 @@
         <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>520</v>
+        <v>376</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>4</v>
@@ -5240,21 +5349,24 @@
         <v>110</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="H96" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>4</v>
@@ -5263,56 +5375,50 @@
         <v>110</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>105</v>
+        <v>388</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="H97" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>105</v>
+        <v>391</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>723</v>
+        <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>539</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>518</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>105</v>
@@ -5321,215 +5427,221 @@
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>542</v>
+        <v>282</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G100" s="2" t="s">
+        <v>680</v>
+      </c>
       <c r="H100" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="H101" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="E104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H104" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+    <row r="105" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="E105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="H105" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H103" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H104" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
@@ -5537,21 +5649,21 @@
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>590</v>
+        <v>792</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>396</v>
+        <v>206</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
@@ -5560,21 +5672,21 @@
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>574</v>
+        <v>791</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>55</v>
+        <v>767</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
@@ -5583,21 +5695,21 @@
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>206</v>
+        <v>783</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
@@ -5606,21 +5718,21 @@
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>474</v>
+        <v>588</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>595</v>
+        <v>756</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>12</v>
@@ -5629,197 +5741,194 @@
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>474</v>
+        <v>794</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>475</v>
+        <v>756</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>476</v>
+        <v>55</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>704</v>
+        <v>5</v>
       </c>
       <c r="H113" t="s">
-        <v>473</v>
+        <v>793</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>740</v>
+        <v>796</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="H116" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="E117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="H117" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="1" t="s">
+    <row r="118" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="E118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H118" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="H117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>751</v>
+        <v>341</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>746</v>
+        <v>139</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G119" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="H119" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>5</v>
@@ -5828,269 +5937,254 @@
         <v>5</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>372</v>
+        <v>636</v>
       </c>
       <c r="H120" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>378</v>
+        <v>747</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>192</v>
+        <v>744</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>192</v>
+        <v>744</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="H122" t="s">
-        <v>456</v>
+        <v>748</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>487</v>
+        <v>809</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>709</v>
-      </c>
       <c r="H123" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>491</v>
+        <v>351</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G124" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="H124" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>643</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>162</v>
+        <v>750</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="H126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>672</v>
+        <v>828</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="H127" t="s">
-        <v>266</v>
+        <v>827</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>168</v>
+        <v>830</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="H128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>346</v>
+        <v>740</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>644</v>
+        <v>707</v>
       </c>
       <c r="H129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>46</v>
+        <v>492</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H130" t="s">
-        <v>76</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>4</v>
@@ -6099,7 +6193,7 @@
         <v>46</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>5</v>
@@ -6108,24 +6202,24 @@
         <v>5</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H131" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>5</v>
@@ -6134,24 +6228,24 @@
         <v>5</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="H132" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>232</v>
+        <v>670</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>5</v>
@@ -6160,24 +6254,24 @@
         <v>5</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>362</v>
+        <v>671</v>
       </c>
       <c r="H133" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>5</v>
@@ -6186,125 +6280,128 @@
         <v>5</v>
       </c>
       <c r="G134" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="H134" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="H135" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>584</v>
+        <v>79</v>
       </c>
       <c r="H136" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>583</v>
+        <v>637</v>
       </c>
       <c r="H137" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>582</v>
+        <v>48</v>
       </c>
       <c r="H138" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>738</v>
+        <v>232</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>5</v>
@@ -6313,24 +6410,24 @@
         <v>5</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>645</v>
+        <v>362</v>
       </c>
       <c r="H139" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>514</v>
+        <v>344</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>5</v>
@@ -6339,24 +6436,24 @@
         <v>5</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>67</v>
+        <v>640</v>
       </c>
       <c r="H140" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>512</v>
+        <v>315</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>508</v>
+        <v>313</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>509</v>
+        <v>233</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>12</v>
@@ -6365,96 +6462,99 @@
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>592</v>
+        <v>323</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>593</v>
+        <v>313</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="H142" t="s">
-        <v>591</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>483</v>
+        <v>317</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>707</v>
+        <v>581</v>
       </c>
       <c r="H143" t="s">
-        <v>482</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>339</v>
+        <v>580</v>
       </c>
       <c r="H144" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>498</v>
+        <v>184</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>5</v>
@@ -6463,24 +6563,24 @@
         <v>5</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>713</v>
+        <v>643</v>
       </c>
       <c r="H145" t="s">
-        <v>497</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>408</v>
+        <v>512</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>5</v>
@@ -6489,154 +6589,139 @@
         <v>5</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>409</v>
+        <v>67</v>
       </c>
       <c r="H146" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>700</v>
+        <v>805</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>157</v>
+        <v>508</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>158</v>
+        <v>806</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="H147" t="s">
-        <v>412</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>526</v>
+        <v>819</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>87</v>
+        <v>508</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>527</v>
+        <v>820</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="H148" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>611</v>
+        <v>825</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>87</v>
+        <v>508</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>269</v>
+        <v>826</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="H149" t="s">
-        <v>268</v>
+        <v>824</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>354</v>
+        <v>822</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>87</v>
+        <v>508</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>269</v>
+        <v>823</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="H150" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>359</v>
+        <v>590</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>87</v>
+        <v>591</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G151" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="H151" t="s">
-        <v>86</v>
+        <v>589</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>374</v>
+        <v>483</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>5</v>
@@ -6645,246 +6730,258 @@
         <v>5</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>406</v>
+        <v>705</v>
       </c>
       <c r="H152" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>585</v>
+        <v>339</v>
       </c>
       <c r="H153" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>529</v>
+        <v>741</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="H154" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H156" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="H154" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H155" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H156" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="D157" s="1" t="s">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G157" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="H157" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>445</v>
+        <v>609</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>401</v>
+        <v>87</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G158" s="2" t="s">
+        <v>575</v>
+      </c>
       <c r="H158" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="H159" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>667</v>
+        <v>359</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>668</v>
+        <v>89</v>
       </c>
       <c r="H160" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>687</v>
+        <v>406</v>
       </c>
       <c r="H161" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>5</v>
@@ -6893,145 +6990,133 @@
         <v>12</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>665</v>
+        <v>583</v>
       </c>
       <c r="H162" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>618</v>
+        <v>527</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H163" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H164" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H165" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H163" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H164" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A165" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H165" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C166" s="1" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>212</v>
+        <v>425</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="H166" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>214</v>
+        <v>402</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>664</v>
+        <v>5</v>
       </c>
       <c r="H167" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>297</v>
+        <v>436</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>4</v>
@@ -7040,7 +7125,7 @@
         <v>211</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>5</v>
@@ -7049,278 +7134,281 @@
         <v>12</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>438</v>
+        <v>664</v>
       </c>
       <c r="H168" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>334</v>
+        <v>665</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="H169" t="s">
-        <v>333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>736</v>
+        <v>295</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>633</v>
+        <v>685</v>
       </c>
       <c r="H170" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>650</v>
+        <v>435</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>289</v>
+        <v>616</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>685</v>
+        <v>617</v>
       </c>
       <c r="H172" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>686</v>
+        <v>439</v>
       </c>
       <c r="H173" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>431</v>
+        <v>212</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>379</v>
+        <v>661</v>
       </c>
       <c r="H174" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>737</v>
+        <v>302</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>634</v>
+        <v>440</v>
       </c>
       <c r="H175" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>754</v>
+        <v>434</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>705</v>
+        <v>662</v>
       </c>
       <c r="H176" t="s">
-        <v>477</v>
+        <v>213</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>548</v>
+        <v>297</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H177" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H177" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D178" s="1" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>646</v>
+        <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>352</v>
+        <v>734</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>5</v>
@@ -7329,128 +7417,122 @@
         <v>5</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="H179" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>518</v>
+        <v>648</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="H180" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>719</v>
+        <v>648</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G181" s="2" t="s">
-        <v>720</v>
-      </c>
       <c r="H181" t="s">
-        <v>534</v>
+        <v>817</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>361</v>
+        <v>683</v>
       </c>
       <c r="H182" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>113</v>
+        <v>814</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G183" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="H183" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>586</v>
+        <v>832</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>447</v>
+        <v>814</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>12</v>
@@ -7459,21 +7541,21 @@
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>454</v>
+        <v>836</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>447</v>
+        <v>814</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>12</v>
@@ -7482,21 +7564,21 @@
         <v>5</v>
       </c>
       <c r="H185" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>449</v>
+        <v>292</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>450</v>
+        <v>293</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>5</v>
@@ -7505,24 +7587,24 @@
         <v>12</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="H186" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>735</v>
+        <v>348</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>23</v>
+        <v>431</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>5</v>
@@ -7531,50 +7613,47 @@
         <v>12</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>24</v>
+        <v>379</v>
       </c>
       <c r="H187" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>702</v>
+        <v>811</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>23</v>
+        <v>812</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>703</v>
+        <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>453</v>
+        <v>810</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>449</v>
+        <v>834</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>452</v>
+        <v>10</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>105</v>
+        <v>812</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>12</v>
@@ -7583,122 +7662,119 @@
         <v>5</v>
       </c>
       <c r="H189" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>306</v>
+        <v>816</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G190" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="H190" t="s">
-        <v>307</v>
+        <v>815</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="H191" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G192" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="H192" t="s">
-        <v>699</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G193" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="H193" t="s">
-        <v>196</v>
+        <v>545</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>677</v>
+        <v>347</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>5</v>
@@ -7707,148 +7783,154 @@
         <v>5</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="H194" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>425</v>
+        <v>261</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="H195" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>427</v>
+        <v>516</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>425</v>
+        <v>93</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="H196" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>661</v>
+        <v>717</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>662</v>
+        <v>718</v>
       </c>
       <c r="H197" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>550</v>
+        <v>360</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>551</v>
+        <v>229</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G198" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="H198" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>602</v>
+        <v>356</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>551</v>
+        <v>112</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G199" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="H199" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>551</v>
+        <v>22</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>554</v>
+        <v>447</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>12</v>
@@ -7857,21 +7939,21 @@
         <v>5</v>
       </c>
       <c r="H200" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>597</v>
+        <v>454</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>551</v>
+        <v>22</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>251</v>
+        <v>447</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>12</v>
@@ -7880,90 +7962,99 @@
         <v>5</v>
       </c>
       <c r="H201" t="s">
-        <v>596</v>
+        <v>455</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>556</v>
+        <v>449</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>551</v>
+        <v>22</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>557</v>
+        <v>450</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="H202" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>559</v>
+        <v>733</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>551</v>
+        <v>22</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>557</v>
+        <v>23</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H203" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>561</v>
+        <v>700</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>551</v>
+        <v>22</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>557</v>
+        <v>23</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="H204" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>599</v>
+        <v>449</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>551</v>
+        <v>452</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>600</v>
+        <v>105</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>12</v>
@@ -7972,21 +8063,21 @@
         <v>5</v>
       </c>
       <c r="H205" t="s">
-        <v>598</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>489</v>
+        <v>308</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>5</v>
@@ -7995,50 +8086,50 @@
         <v>5</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>710</v>
+        <v>442</v>
       </c>
       <c r="H206" t="s">
-        <v>488</v>
+        <v>307</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>513</v>
+        <v>745</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>28</v>
+        <v>677</v>
       </c>
       <c r="H207" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>325</v>
+        <v>742</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>12</v>
@@ -8047,44 +8138,47 @@
         <v>5</v>
       </c>
       <c r="H208" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>327</v>
+        <v>650</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G209" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="H209" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>152</v>
+        <v>675</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>425</v>
+        <v>70</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>5</v>
@@ -8093,21 +8187,21 @@
         <v>5</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>629</v>
+        <v>676</v>
       </c>
       <c r="H210" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>426</v>
+        <v>149</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>425</v>
@@ -8116,50 +8210,53 @@
         <v>5</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H211" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="H212" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>607</v>
+        <v>659</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>5</v>
@@ -8168,102 +8265,93 @@
         <v>12</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>56</v>
+        <v>660</v>
       </c>
       <c r="H213" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>659</v>
+        <v>548</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>26</v>
+        <v>549</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>660</v>
+        <v>5</v>
       </c>
       <c r="H214" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>26</v>
+        <v>549</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G215" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="H215" t="s">
-        <v>164</v>
+        <v>599</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>432</v>
+        <v>551</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>26</v>
+        <v>549</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>428</v>
+        <v>552</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="H216" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>761</v>
+        <v>549</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>12</v>
@@ -8272,21 +8360,21 @@
         <v>5</v>
       </c>
       <c r="H217" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>422</v>
+        <v>549</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>60</v>
+        <v>555</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>12</v>
@@ -8295,47 +8383,44 @@
         <v>5</v>
       </c>
       <c r="H218" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>422</v>
+        <v>549</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G219" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="H219" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>12</v>
@@ -8344,47 +8429,44 @@
         <v>5</v>
       </c>
       <c r="H220" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>684</v>
+        <v>597</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>8</v>
+        <v>549</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G221" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="H221" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>5</v>
@@ -8393,24 +8475,24 @@
         <v>5</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>404</v>
+        <v>708</v>
       </c>
       <c r="H222" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>608</v>
+        <v>511</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>5</v>
@@ -8419,76 +8501,70 @@
         <v>5</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="H223" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>177</v>
+        <v>325</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G224" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="H224" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>515</v>
+        <v>327</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G225" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H225" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>579</v>
+        <v>152</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>72</v>
+        <v>425</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>5</v>
@@ -8497,24 +8573,24 @@
         <v>5</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>75</v>
+        <v>627</v>
       </c>
       <c r="H226" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>69</v>
+        <v>426</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>70</v>
+        <v>425</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>5</v>
@@ -8523,102 +8599,99 @@
         <v>5</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="H227" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>175</v>
+        <v>395</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G228" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="H228" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>562</v>
+        <v>56</v>
       </c>
       <c r="H229" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B230" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>32</v>
+        <v>658</v>
       </c>
       <c r="H230" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>543</v>
+        <v>634</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>31</v>
+        <v>428</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>5</v>
@@ -8627,70 +8700,477 @@
         <v>5</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>34</v>
+        <v>635</v>
       </c>
       <c r="H231" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>545</v>
+        <v>432</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H232" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H233" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H234" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H235" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H236" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D237" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H237" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H239" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H240" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H241" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H242" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H243" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H244" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H245" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H246" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H247" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H232" t="s">
+      <c r="E248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H248" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A233" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="1" t="s">
+    <row r="249" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="H233" t="s">
+      <c r="E249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="H249" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H233">
-    <sortCondition ref="C8:C233"/>
-    <sortCondition ref="D8:D233"/>
-    <sortCondition ref="H8:H233"/>
+  <autoFilter ref="A1:H268" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H275">
+    <sortCondition ref="C8:C275"/>
+    <sortCondition ref="D8:D275"/>
+    <sortCondition ref="H8:H275"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.11b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7D305-B130-4542-B3A2-EF0391B20EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE8BCB-CFAE-402F-9177-E2CE7F6DECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-11505" yWindow="-20535" windowWidth="24855" windowHeight="18600" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 3.0 and 3.11 CORE rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.11 CORE rules'!$A$1:$H$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version 3.0 and 3.11 CORE rules'!$A$1:$H$276</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="859">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -63,6 +63,2559 @@
   </si>
   <si>
     <t>Version 3.11</t>
+  </si>
+  <si>
+    <t>CHK0001</t>
+  </si>
+  <si>
+    <t>Class relationships must conform with the USDM schema based on the API specification.</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>DDF00081</t>
+  </si>
+  <si>
+    <t>CHK0002</t>
+  </si>
+  <si>
+    <t>Data types of attributes (string, number, boolean) must conform with the USDM schema based on the API specification.</t>
+  </si>
+  <si>
+    <t>DDF00082</t>
+  </si>
+  <si>
+    <t>CHK0003</t>
+  </si>
+  <si>
+    <t>A timing must only be specified as being relative to/from a scheduled activity/decision instance that is defined within the same timeline as the timing.</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>relativeFromScheduledInstance, relativeToScheduledInstance</t>
+  </si>
+  <si>
+    <t>DDF00046</t>
+  </si>
+  <si>
+    <t>CHK0004</t>
+  </si>
+  <si>
+    <t>Within a study design, there must be at least 1 eligibility criterion that is referenced by either a study population or a cohort.</t>
+  </si>
+  <si>
+    <t>StudyDesignPopulation, StudyCohort</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>CHK0005</t>
+  </si>
+  <si>
+    <t>Within a study version, all id values must be unique.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>DDF00083</t>
+  </si>
+  <si>
+    <t>CHK0009</t>
+  </si>
+  <si>
+    <t>The names of all child instances of the same parent class must be unique.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>DDF00010</t>
+  </si>
+  <si>
+    <t>CHK0012</t>
+  </si>
+  <si>
+    <t>Every study version must have exactly one study identifier with an identifier scope that references a clinical study sponsor organization.</t>
+  </si>
+  <si>
+    <t>StudyIdentifier</t>
+  </si>
+  <si>
+    <t>studyIdentifierScope</t>
+  </si>
+  <si>
+    <t>DDF00005</t>
+  </si>
+  <si>
+    <t>CHK0013</t>
+  </si>
+  <si>
+    <t>Within a study version, if more than 1 business therapeutic area is defined then they must be distinct.</t>
+  </si>
+  <si>
+    <t>StudyVersion</t>
+  </si>
+  <si>
+    <t>businessTherapeuticAreas</t>
+  </si>
+  <si>
+    <t>DDF00032</t>
+  </si>
+  <si>
+    <t>CHK0017</t>
+  </si>
+  <si>
+    <t>Timing windows must be fully defined, if one of the window attributes (i.e., window label, window lower, and window upper) is defined then all must be specified.</t>
+  </si>
+  <si>
+    <t>windowLabel, windowLower, windowUpper</t>
+  </si>
+  <si>
+    <t>DDF00006</t>
+  </si>
+  <si>
+    <t>CHK0018</t>
+  </si>
+  <si>
+    <t>A window must not be defined for an anchor timing (i.e., type is "Fixed Reference").</t>
+  </si>
+  <si>
+    <t>DDF00025</t>
+  </si>
+  <si>
+    <t>CHK0019</t>
+  </si>
+  <si>
+    <t>If duration will vary (attribute durationWillVary is True) then a reason (attribute reasonDurationWillVary) must be given and vice versa.</t>
+  </si>
+  <si>
+    <t>AdministrationDuration</t>
+  </si>
+  <si>
+    <t>durationWillVary, reasonDurationWillVary</t>
+  </si>
+  <si>
+    <t>DDF00004</t>
+  </si>
+  <si>
+    <t>CHK0020</t>
+  </si>
+  <si>
+    <t>The range specified for a planned age is not expected to be approximate.</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>isApproximate</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>DDF00042</t>
+  </si>
+  <si>
+    <t>CHK0021</t>
+  </si>
+  <si>
+    <t>Within subject enrollment, the quantity must be a number or a percentage (i.e. the unit must be empty or %).</t>
+  </si>
+  <si>
+    <t>SubjectEnrollment</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>DDF00017</t>
+  </si>
+  <si>
+    <t>CHK0024</t>
+  </si>
+  <si>
+    <t>A scheduled activity instance must refer to either a default condition or a timeline exit, but not both.</t>
+  </si>
+  <si>
+    <t>ScheduledActivityInstance</t>
+  </si>
+  <si>
+    <t>timelineExit, defaultCondition</t>
+  </si>
+  <si>
+    <t>DDF00008</t>
+  </si>
+  <si>
+    <t>CHK0025</t>
+  </si>
+  <si>
+    <t>If a biomedical concept property is required then it must also be enabled, while if it is not enabled then it must not be required.</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptProperty</t>
+  </si>
+  <si>
+    <t>isRequired, isEnabled</t>
+  </si>
+  <si>
+    <t>DDF00013</t>
+  </si>
+  <si>
+    <t>CHK0026</t>
+  </si>
+  <si>
+    <t>A study version's study phase must be specified according to the extensible Trial Phase Response (C66737) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>studyPhase</t>
+  </si>
+  <si>
+    <t>DDF00015</t>
+  </si>
+  <si>
+    <t>CHK0027</t>
+  </si>
+  <si>
+    <t>A specified condition for assessments must apply to at least to a procedure, biomedical concept, biomedical concept surrogate, biomedical concept category or a whole activity.</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>appliesTo</t>
+  </si>
+  <si>
+    <t>DDF00016</t>
+  </si>
+  <si>
+    <t>CHK0028</t>
+  </si>
+  <si>
+    <t>If the reason for a study amendment is 'Other' then this must be specified (attribute reasonOther must be completed)</t>
+  </si>
+  <si>
+    <t>StudyAmendmentReason</t>
+  </si>
+  <si>
+    <t>code, otherReason</t>
+  </si>
+  <si>
+    <t>DDF00020</t>
+  </si>
+  <si>
+    <t>CHK0029</t>
+  </si>
+  <si>
+    <t>If timing type is "Fixed Reference" then the corresponding attribute relativeToFrom must be filled with "Start to Start".</t>
+  </si>
+  <si>
+    <t>relativeToFrom</t>
+  </si>
+  <si>
+    <t>DDF00036</t>
+  </si>
+  <si>
+    <t>CHK0030</t>
+  </si>
+  <si>
+    <t>Within a study design, there must be exactly one scheduled timeline which identifies as the main Timeline.</t>
+  </si>
+  <si>
+    <t>ScheduleTimeline</t>
+  </si>
+  <si>
+    <t>mainTimeline</t>
+  </si>
+  <si>
+    <t>DDF00012</t>
+  </si>
+  <si>
+    <t>CHK0031</t>
+  </si>
+  <si>
+    <t>Each schedule timeline must contain at least one anchor (fixed time) - i.e., at least one scheduled activity instance that is referenced by a Fixed Reference timing.</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>DDF00009</t>
+  </si>
+  <si>
+    <t>CHK0032</t>
+  </si>
+  <si>
+    <t>If timing type is "Fixed Reference" then it must point to only one scheduled instance (e.g. attribute relativeToScheduledInstance must be equal to relativeFromScheduledInstance or it must be missing).</t>
+  </si>
+  <si>
+    <t>relativeToScheduledInstance</t>
+  </si>
+  <si>
+    <t>DDF00007</t>
+  </si>
+  <si>
+    <t>CHK0033</t>
+  </si>
+  <si>
+    <t>If timing type is not "Fixed Reference" then it must point to two scheduled instances (e.g. the relativeFromScheduledInstance and relativeToScheduledInstance attributes must not be missing and must not be equal to each other).</t>
+  </si>
+  <si>
+    <t>DDF00031</t>
+  </si>
+  <si>
+    <t>CHK0034</t>
+  </si>
+  <si>
+    <t>At least one scheduled activity instance within a timeline must point to a timeline exit.</t>
+  </si>
+  <si>
+    <t>timelineExit</t>
+  </si>
+  <si>
+    <t>DDF00037</t>
+  </si>
+  <si>
+    <t>CHK0035</t>
+  </si>
+  <si>
+    <t>Within a study design there must be exactly one objective with level 'Primary Objective'.</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>DDF00084</t>
+  </si>
+  <si>
+    <t>CHK0036</t>
+  </si>
+  <si>
+    <t>Within a study design, there must be at least one endpoint with level primary.</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>DDF00041</t>
+  </si>
+  <si>
+    <t>CHK0037</t>
+  </si>
+  <si>
+    <t>Each StudyArm must have one StudyCell for each StudyEpoch.</t>
+  </si>
+  <si>
+    <t>StudyCell</t>
+  </si>
+  <si>
+    <t>arm, epoch</t>
+  </si>
+  <si>
+    <t>DDF00068</t>
+  </si>
+  <si>
+    <t>CHK0038</t>
+  </si>
+  <si>
+    <t>Each study element must be referenced by at least one study cell.</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>DDF00040</t>
+  </si>
+  <si>
+    <t>CHK0040</t>
+  </si>
+  <si>
+    <t>To ensure consistent ordering, when both previous and next attributes are available within an entity the previous id value must match the next id value of the referred instance.</t>
+  </si>
+  <si>
+    <t>Activity, EligibilityCriterion, Encounter, NarrativeContent, StudyEpoch</t>
+  </si>
+  <si>
+    <t>previous, next</t>
+  </si>
+  <si>
+    <t>DDF00023</t>
+  </si>
+  <si>
+    <t>EligibilityCriterion</t>
+  </si>
+  <si>
+    <t>CHK0043</t>
+  </si>
+  <si>
+    <t>To ensure consistent ordering, the same instance must not be referenced more than once as previous or next.</t>
+  </si>
+  <si>
+    <t>DDF00027</t>
+  </si>
+  <si>
+    <t>CHK0044</t>
+  </si>
+  <si>
+    <t>Encounter ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their specified default conditions.</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>DDF00087</t>
+  </si>
+  <si>
+    <t>CHK0045</t>
+  </si>
+  <si>
+    <t>Epoch ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their specified default conditions.</t>
+  </si>
+  <si>
+    <t>StudyEpoch</t>
+  </si>
+  <si>
+    <t>DDF00088</t>
+  </si>
+  <si>
+    <t>CHK0046</t>
+  </si>
+  <si>
+    <t>Only one version of any code system is expected to be used within a study version.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>codeSystemVersion</t>
+  </si>
+  <si>
+    <t>DDF00073</t>
+  </si>
+  <si>
+    <t>CHK0047</t>
+  </si>
+  <si>
+    <t>If the intervention model indicates a single group design then only one intervention is expected. In all other cases more interventions are expected.</t>
+  </si>
+  <si>
+    <t>StudyDesign</t>
+  </si>
+  <si>
+    <t>studyInterventions</t>
+  </si>
+  <si>
+    <t>DDF00074</t>
+  </si>
+  <si>
+    <t>CHK0048</t>
+  </si>
+  <si>
+    <t>When included in text, references to items specified in the dictionary must be specified in the correct format. They must start with &lt;usdm:tag, end with either '/&gt;'', and must contain name="parametername" (where "parametername"  contain only letters, numbers or underscores).</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>DDF00038</t>
+  </si>
+  <si>
+    <t>CHK0049</t>
+  </si>
+  <si>
+    <t>Any parameter name referenced in a tag in the text should be specified in the data dictionary parameter maps.</t>
+  </si>
+  <si>
+    <t>EligibilityCriterion, Characteristic, Condition, Objective, Endpoint</t>
+  </si>
+  <si>
+    <t>DDF00089</t>
+  </si>
+  <si>
+    <t>CHK0050</t>
+  </si>
+  <si>
+    <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>NarrativeContent</t>
+  </si>
+  <si>
+    <t>CHK0052</t>
+  </si>
+  <si>
+    <t>An instance of a class must not refer to itself as its previous instance.</t>
+  </si>
+  <si>
+    <t>StudyEpoch, Encounter, Activity, NarrativeContent, EligibilityCriterion, StudyAmendment</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>DDF00021</t>
+  </si>
+  <si>
+    <t>CHK0053</t>
+  </si>
+  <si>
+    <t>An instance of a class must not reference itself as one of its own children.</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory, StudyProtocolDocumentVersion, StudyDefinitionDocumentVersion, NarrativeContent, Activity</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>DDF00018</t>
+  </si>
+  <si>
+    <t>CHK0056</t>
+  </si>
+  <si>
+    <t>A study cell must only reference elements that are defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>DDF00047</t>
+  </si>
+  <si>
+    <t>CHK0057</t>
+  </si>
+  <si>
+    <t>An activity is expected to refer to at least one procedure, biomedical concept, biomedical concept category or biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>definedProcedures, biomedicalConcepts, bcCategories, bcSurrogates</t>
+  </si>
+  <si>
+    <t>DDF00075</t>
+  </si>
+  <si>
+    <t>BiomedicalConcept</t>
+  </si>
+  <si>
+    <t>CHK0059</t>
+  </si>
+  <si>
+    <t>The same Biomedical Concept Category must not be referenced more than once from the same activity.</t>
+  </si>
+  <si>
+    <t>bcCategories</t>
+  </si>
+  <si>
+    <t>DDF00090</t>
+  </si>
+  <si>
+    <t>CHK0060</t>
+  </si>
+  <si>
+    <t>A biomedical concept category is expected to have at least a member or a child.</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory</t>
+  </si>
+  <si>
+    <t>members, children</t>
+  </si>
+  <si>
+    <t>DDF00014</t>
+  </si>
+  <si>
+    <t>CHK0061</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept category is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>CHK0062</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>biomedicalConcepts</t>
+  </si>
+  <si>
+    <t>CHK0063</t>
+  </si>
+  <si>
+    <t>Each specified procedure is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>definedProcedures</t>
+  </si>
+  <si>
+    <t>CHK0064</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept surrogate is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>bcSurrogates</t>
+  </si>
+  <si>
+    <t>CHK0065</t>
+  </si>
+  <si>
+    <t>If a biomedical concept is referenced from an activity then it is not expected to be referenced as well by a biomedical concept category that is referenced from the same activity.</t>
+  </si>
+  <si>
+    <t>Activity, BiomedicalConceptCategory</t>
+  </si>
+  <si>
+    <t>biomedicalConcepts, members</t>
+  </si>
+  <si>
+    <t>DDF00076</t>
+  </si>
+  <si>
+    <t>CHK0066</t>
+  </si>
+  <si>
+    <t>A procedure must only reference a study intervention that is defined within the same study design as the activity within which the procedure is defined.</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>studyIntervention</t>
+  </si>
+  <si>
+    <t>DDF00048</t>
+  </si>
+  <si>
+    <t>CHK0067</t>
+  </si>
+  <si>
+    <t>A study arm must only reference populations that are defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>StudyArm</t>
+  </si>
+  <si>
+    <t>populations</t>
+  </si>
+  <si>
+    <t>DDF00049</t>
+  </si>
+  <si>
+    <t>CHK0068</t>
+  </si>
+  <si>
+    <t>At least one attribute must be specified for an address.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>DDF00045</t>
+  </si>
+  <si>
+    <t>CHK0069</t>
+  </si>
+  <si>
+    <t>All standard code aliases referenced by an instance of the alias code class must be unique.</t>
+  </si>
+  <si>
+    <t>AliasCode</t>
+  </si>
+  <si>
+    <t>standardCodeAliases</t>
+  </si>
+  <si>
+    <t>DDF00052</t>
+  </si>
+  <si>
+    <t>CHK0072</t>
+  </si>
+  <si>
+    <t>When a condition applies to a procedure, activity, biomedical concept, biomedical concept category, or biomedical concept surrogate then an instance must be available in the corresponding class with the specified id.</t>
+  </si>
+  <si>
+    <t>DDF00091</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>CHK0075</t>
+  </si>
+  <si>
+    <t>If geographic scope type is global then no codes are expected to specify the specific area within scope while if it is not global then at least one code is expected to specify the specific area within scope.</t>
+  </si>
+  <si>
+    <t>GeographicScope</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>DDF00077</t>
+  </si>
+  <si>
+    <t>CHK0076</t>
+  </si>
+  <si>
+    <t>Date values associated to a study protocol document version must be unique regarding the combination of type and geographic scopes of the date.</t>
+  </si>
+  <si>
+    <t>StudyProtocolDocumentVersion</t>
+  </si>
+  <si>
+    <t>dateValues</t>
+  </si>
+  <si>
+    <t>DDF00092</t>
+  </si>
+  <si>
+    <t>CHK0077</t>
+  </si>
+  <si>
+    <t>Date values associated to a study version must be unique regarding the combination of type and geographic scopes of the date.</t>
+  </si>
+  <si>
+    <t>DDF00093</t>
+  </si>
+  <si>
+    <t>CHK0078</t>
+  </si>
+  <si>
+    <t>Within a study version, if a date of a specific type exists with a global geographic scope then no other dates are expected with the same type.</t>
+  </si>
+  <si>
+    <t>DDF00094</t>
+  </si>
+  <si>
+    <t>CHK0079</t>
+  </si>
+  <si>
+    <t>Within a study protocol document version, if a date of a specific type exists with a global geographic scope then no other dates are expected with the same type.</t>
+  </si>
+  <si>
+    <t>DDF00095</t>
+  </si>
+  <si>
+    <t>CHK0080</t>
+  </si>
+  <si>
+    <t>All primary endpoints must be referenced by a primary objective.</t>
+  </si>
+  <si>
+    <t>DDF00096</t>
+  </si>
+  <si>
+    <t>CHK0085</t>
+  </si>
+  <si>
+    <t>Within a study design, the planned age range must be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>DDF00097</t>
+  </si>
+  <si>
+    <t>CHK0087</t>
+  </si>
+  <si>
+    <t>Within a study design, the planned sex must be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>plannedSex</t>
+  </si>
+  <si>
+    <t>DDF00098</t>
+  </si>
+  <si>
+    <t>CHK0089</t>
+  </si>
+  <si>
+    <t>All epochs are expected to be referred to from a scheduled Activity Instance.</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>DDF00099</t>
+  </si>
+  <si>
+    <t>CHK0090</t>
+  </si>
+  <si>
+    <t>Within a study version, there must be no more than one title of each type.</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>DDF00100</t>
+  </si>
+  <si>
+    <t>CHK0091</t>
+  </si>
+  <si>
+    <t>Each combination of arm and epoch must occur no more than once within a study design.</t>
+  </si>
+  <si>
+    <t>DDF00069</t>
+  </si>
+  <si>
+    <t>CHK0099</t>
+  </si>
+  <si>
+    <t>Within a study design, if study type is Interventional then at least one intervention is expected to be referenced from a procedure.</t>
+  </si>
+  <si>
+    <t>DDF00101</t>
+  </si>
+  <si>
+    <t>CHK0100</t>
+  </si>
+  <si>
+    <t>A scheduled activity instance must not point (via the "timeline" relationship) to the timeline in which it is specified.</t>
+  </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>DDF00026</t>
+  </si>
+  <si>
+    <t>CHK0101</t>
+  </si>
+  <si>
+    <t>Within a code system and corresponding version, a one-to-one relationship between code and decode is expected.</t>
+  </si>
+  <si>
+    <t>code, decode</t>
+  </si>
+  <si>
+    <t>DDF00035</t>
+  </si>
+  <si>
+    <t>CHK0103</t>
+  </si>
+  <si>
+    <t>A scheduled activity instance must only reference a timeline exit that is defined within the same schedule timeline as the scheduled activity instance.</t>
+  </si>
+  <si>
+    <t>DDF00102</t>
+  </si>
+  <si>
+    <t>CHK0105</t>
+  </si>
+  <si>
+    <t>Within a document version, the specified section numbers for narrative content must be unique.</t>
+  </si>
+  <si>
+    <t>sectionNumber</t>
+  </si>
+  <si>
+    <t>DDF00103</t>
+  </si>
+  <si>
+    <t>CHK0108</t>
+  </si>
+  <si>
+    <t>The value for each timing must be a non-negative duration specified in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>DDF00060</t>
+  </si>
+  <si>
+    <t>CHK0109</t>
+  </si>
+  <si>
+    <t>A timing's type must be specified using the Timing Type Value Set Terminology (C201264) DDF codelist.</t>
+  </si>
+  <si>
+    <t>DDF00051</t>
+  </si>
+  <si>
+    <t>CHK0110</t>
+  </si>
+  <si>
+    <t>A timing's relative to/from property must be specified using the Timing Relative To From Value Set Terminology (C201265) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>DDF00104</t>
+  </si>
+  <si>
+    <t>CHK0111</t>
+  </si>
+  <si>
+    <t>A scheduled activity/decision instance must only reference an epoch that is defined within the same study design as the scheduled activity/decision instance.</t>
+  </si>
+  <si>
+    <t>ScheduledActivityInstance, ScheduledDecisionInstance</t>
+  </si>
+  <si>
+    <t>DDF00105</t>
+  </si>
+  <si>
+    <t>CHK0112</t>
+  </si>
+  <si>
+    <t>A scheduled activity instance must only reference an encounter that is defined within the same study design as the scheduled activity instance.</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>DDF00106</t>
+  </si>
+  <si>
+    <t>CHK0113</t>
+  </si>
+  <si>
+    <t>A scheduled activity instance must only have a sub-timeline that is defined within the same study design as the scheduled activity instance.</t>
+  </si>
+  <si>
+    <t>DDF00107</t>
+  </si>
+  <si>
+    <t>CHK0114</t>
+  </si>
+  <si>
+    <t>The target for a condition must not be equal to its parent.</t>
+  </si>
+  <si>
+    <t>ConditionAssignment</t>
+  </si>
+  <si>
+    <t>conditionTarget</t>
+  </si>
+  <si>
+    <t>DDF00044</t>
+  </si>
+  <si>
+    <t>CHK0116</t>
+  </si>
+  <si>
+    <t>There must be at least one exit defined for each timeline (i.e., at least one instance of StudyTimelineExit linked via the 'exits' relationship).</t>
+  </si>
+  <si>
+    <t>exits</t>
+  </si>
+  <si>
+    <t>DDF00108</t>
+  </si>
+  <si>
+    <t>CHK0117</t>
+  </si>
+  <si>
+    <t>A study element must only reference study interventions that are defined within the same study design as the study element.</t>
+  </si>
+  <si>
+    <t>StudyElement</t>
+  </si>
+  <si>
+    <t>DDF00109</t>
+  </si>
+  <si>
+    <t>CHK0118</t>
+  </si>
+  <si>
+    <t>If a transition start rule is defined then an end rule is expected and vice versa.</t>
+  </si>
+  <si>
+    <t>StudyElement, Encounter</t>
+  </si>
+  <si>
+    <t>transitionStartRule, transitionEndRule</t>
+  </si>
+  <si>
+    <t>DDF00078</t>
+  </si>
+  <si>
+    <t>CHK0119</t>
+  </si>
+  <si>
+    <t>Within an encounter there must be no duplicate environmental settings.</t>
+  </si>
+  <si>
+    <t>environmentalSetting</t>
+  </si>
+  <si>
+    <t>DDF00053</t>
+  </si>
+  <si>
+    <t>CHK0120</t>
+  </si>
+  <si>
+    <t>For a specified range at least a minimum or maximum value is expected.</t>
+  </si>
+  <si>
+    <t>minValue, maxValue</t>
+  </si>
+  <si>
+    <t>CHK0121</t>
+  </si>
+  <si>
+    <t>A unit must not be specified for a planned enrollment number or a planned completion number.</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber, plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>DDF00043</t>
+  </si>
+  <si>
+    <t>CHK0122</t>
+  </si>
+  <si>
+    <t>An eligibility criterion's category must be specified using the Category of Inclusion/Exclusion (C66797) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>DDF00110</t>
+  </si>
+  <si>
+    <t>CHK0123</t>
+  </si>
+  <si>
+    <t>The unit of a planned age is expected to be specified using terms from the Age Unit (C66781) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>DDF00111</t>
+  </si>
+  <si>
+    <t>CHK0124</t>
+  </si>
+  <si>
+    <t>A study intervention's role must be specified using the study intervention role (C207417) DDF codelist.</t>
+  </si>
+  <si>
+    <t>StudyIntervention</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>DDF00112</t>
+  </si>
+  <si>
+    <t>CHK0125</t>
+  </si>
+  <si>
+    <t>An agent administration's frequency must be specified according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>AgentAdministration</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>DDF00113</t>
+  </si>
+  <si>
+    <t>CHK0126</t>
+  </si>
+  <si>
+    <t>If a synonym is specified then it is not expected to be equal to the name of the biomedical concept (case insensitive).</t>
+  </si>
+  <si>
+    <t>synonyms</t>
+  </si>
+  <si>
+    <t>DDF00079</t>
+  </si>
+  <si>
+    <t>CHK0127</t>
+  </si>
+  <si>
+    <t>If specified, the context of a condition must point to a valid instance in the activity or scheduled activity instance class.</t>
+  </si>
+  <si>
+    <t>DDF00114</t>
+  </si>
+  <si>
+    <t>CHK0128</t>
+  </si>
+  <si>
+    <t>Every study version must have a title of type "Official Study Title".</t>
+  </si>
+  <si>
+    <t>DDF00115</t>
+  </si>
+  <si>
+    <t>CHK0129</t>
+  </si>
+  <si>
+    <t>A study version's study type must be specified using the Study Type Response (C99077) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>studyType</t>
+  </si>
+  <si>
+    <t>DDF00116</t>
+  </si>
+  <si>
+    <t>CHK0131</t>
+  </si>
+  <si>
+    <t>A study protocol document version's protocol status must be specified using the Protocol Status Value Set Terminology (C188723) DDF codelist.</t>
+  </si>
+  <si>
+    <t>protocolStatus</t>
+  </si>
+  <si>
+    <t>DDF00117</t>
+  </si>
+  <si>
+    <t>CHK0133</t>
+  </si>
+  <si>
+    <t>A study design's trial intent types must be specified according to the extensible Trial Intent Type Response (C66736) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>trialIntentTypes</t>
+  </si>
+  <si>
+    <t>DDF00118</t>
+  </si>
+  <si>
+    <t>CHK0134</t>
+  </si>
+  <si>
+    <t>A study design's trial types must be specified according to the extensible Trial Type Response (C66739) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>trialTypes</t>
+  </si>
+  <si>
+    <t>DDF00119</t>
+  </si>
+  <si>
+    <t>CHK0135</t>
+  </si>
+  <si>
+    <t>A study design's intervention model must be specified according to the extensible Intervention Model Response (C99076) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>interventionModel</t>
+  </si>
+  <si>
+    <t>DDF00120</t>
+  </si>
+  <si>
+    <t>CHK0136</t>
+  </si>
+  <si>
+    <t>A study design's blinding schema must be specified according to the extensible Trial Blinding Schema Response (C66735) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>blindingSchema</t>
+  </si>
+  <si>
+    <t>DDF00121</t>
+  </si>
+  <si>
+    <t>CHK0137</t>
+  </si>
+  <si>
+    <t>A study design's characteristics must be specified according to the Study design characteristics (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>characteristics</t>
+  </si>
+  <si>
+    <t>DDF00122</t>
+  </si>
+  <si>
+    <t>CHK0138</t>
+  </si>
+  <si>
+    <t>A masking role must be specified according to the extensible masking role (C207414) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Masking</t>
+  </si>
+  <si>
+    <t>DDF00123</t>
+  </si>
+  <si>
+    <t>CHK0139</t>
+  </si>
+  <si>
+    <t>Referenced items in a parameter map must be available elsewhere in the data model.</t>
+  </si>
+  <si>
+    <t>ParameterMap</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>DDF00124</t>
+  </si>
+  <si>
+    <t>CHK0140</t>
+  </si>
+  <si>
+    <t>All scheduled activity instances are expected to refer to an epoch.</t>
+  </si>
+  <si>
+    <t>DDF00080</t>
+  </si>
+  <si>
+    <t>CHK0141</t>
+  </si>
+  <si>
+    <t>An instance of a class must not refer to itself as its next instance.</t>
+  </si>
+  <si>
+    <t>StudyEpoch, Encounter, Activity, NarrativeContent, EligibilityCriterion</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>DDF00022</t>
+  </si>
+  <si>
+    <t>CHK0142</t>
+  </si>
+  <si>
+    <t>A scheduled activity/decision instance must not refer to itself as its default condition.</t>
+  </si>
+  <si>
+    <t>defaultCondition</t>
+  </si>
+  <si>
+    <t>DDF00019</t>
+  </si>
+  <si>
+    <t>CHK0143</t>
+  </si>
+  <si>
+    <t>When specified, the lower limit of a timing window must be a non-negative duration in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>windowLower</t>
+  </si>
+  <si>
+    <t>DDF00061</t>
+  </si>
+  <si>
+    <t>CHK0144</t>
+  </si>
+  <si>
+    <t>When specified, the upper limit of a timing window must be a non-negative duration in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>windowUpper</t>
+  </si>
+  <si>
+    <t>DDF00062</t>
+  </si>
+  <si>
+    <t>CHK0145</t>
+  </si>
+  <si>
+    <t>Attributes must be included as defined in the USDM schema based on the API specification (i.e., all required properties are present and no additional attributes are present).</t>
+  </si>
+  <si>
+    <t>DDF00125</t>
+  </si>
+  <si>
+    <t>CHK0146</t>
+  </si>
+  <si>
+    <t>Cardinalities must be as defined in the USDM schema based on the API specification (i.e., required properties have at least one value and single-value properties are not lists).</t>
+  </si>
+  <si>
+    <t>DDF00126</t>
+  </si>
+  <si>
+    <t>CHK0147</t>
+  </si>
+  <si>
+    <t>An encounter must only be scheduled at a timing that is defined within the same study design as the encounter.</t>
+  </si>
+  <si>
+    <t>scheduledAt</t>
+  </si>
+  <si>
+    <t>DDF00127</t>
+  </si>
+  <si>
+    <t>CHK0148</t>
+  </si>
+  <si>
+    <t>If the duration of an administration will vary, a quantity is not expected for the administration duration and vice versa.</t>
+  </si>
+  <si>
+    <t>DDF00003</t>
+  </si>
+  <si>
+    <t>CHK0149</t>
+  </si>
+  <si>
+    <t>A study intervention's type must be specified using the Intervention Type Response (C99078) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>DDF00128</t>
+  </si>
+  <si>
+    <t>CHK0150</t>
+  </si>
+  <si>
+    <t>A study intervention's product designation must be specified using the product designation (C207418) DDF codelist.</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>DDF00129</t>
+  </si>
+  <si>
+    <t>CHK0151</t>
+  </si>
+  <si>
+    <t>An agent administration's route must be specified according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>DDF00130</t>
+  </si>
+  <si>
+    <t>CHK0152</t>
+  </si>
+  <si>
+    <t>Referenced items in the narrative content must be available elsewhere in the data model.</t>
+  </si>
+  <si>
+    <t>DDF00131</t>
+  </si>
+  <si>
+    <t>CHK0153</t>
+  </si>
+  <si>
+    <t>A standard code alias is not expected to be equal to the standard code (e.g. no equal code or decode for the same coding system version is expected).</t>
+  </si>
+  <si>
+    <t>DDF00063</t>
+  </si>
+  <si>
+    <t>CHK0154</t>
+  </si>
+  <si>
+    <t>Within an encounter there must be no duplicate contact modes.</t>
+  </si>
+  <si>
+    <t>contactModes</t>
+  </si>
+  <si>
+    <t>DDF00054</t>
+  </si>
+  <si>
+    <t>CHK0155</t>
+  </si>
+  <si>
+    <t>Anchor timings (e.g. type is "Fixed Reference") must be related to a scheduled activity instance via a relativeFromScheduledInstance relationship.</t>
+  </si>
+  <si>
+    <t>relativeFromScheduledInstance</t>
+  </si>
+  <si>
+    <t>DDF00011</t>
+  </si>
+  <si>
+    <t>CHK0156</t>
+  </si>
+  <si>
+    <t>Within a study design, if a planned completion number is defined, it must be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>DDF00132</t>
+  </si>
+  <si>
+    <t>CHK0157</t>
+  </si>
+  <si>
+    <t>Within a study design, if a planned enrollment number is defined, it must be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>DDF00133</t>
+  </si>
+  <si>
+    <t>CHK0158</t>
+  </si>
+  <si>
+    <t>Within a study design, if more characteristics are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>DDF00134</t>
+  </si>
+  <si>
+    <t>CHK0159</t>
+  </si>
+  <si>
+    <t>Within a study design, if more trial types are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>DDF00055</t>
+  </si>
+  <si>
+    <t>CHK0160</t>
+  </si>
+  <si>
+    <t>Within a study design, if more therapeutic areas are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>therapeuticAreas</t>
+  </si>
+  <si>
+    <t>DDF00056</t>
+  </si>
+  <si>
+    <t>CHK0161</t>
+  </si>
+  <si>
+    <t>Within a study design, if more trial intent types are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>DDF00057</t>
+  </si>
+  <si>
+    <t>CHK0162</t>
+  </si>
+  <si>
+    <t>Within an indication, if more indication codes are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>codes</t>
+  </si>
+  <si>
+    <t>DDF00058</t>
+  </si>
+  <si>
+    <t>CHK0163</t>
+  </si>
+  <si>
+    <t>Within a study intervention, if more intervention codes are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>DDF00059</t>
+  </si>
+  <si>
+    <t>CHK0164</t>
+  </si>
+  <si>
+    <t>An encounter's environmental setting must be specified according to the extensible Environmental Setting (C127262) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00135</t>
+  </si>
+  <si>
+    <t>CHK0165</t>
+  </si>
+  <si>
+    <t>An encounter's contact modes must be specified according to the Mode of Subject Contact (C171445) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00136</t>
+  </si>
+  <si>
+    <t>CHK0166</t>
+  </si>
+  <si>
+    <t>A scheduled decision instance is not expected to refer to a timeline exit.</t>
+  </si>
+  <si>
+    <t>ScheduledDecisionInstance</t>
+  </si>
+  <si>
+    <t>DDF00064</t>
+  </si>
+  <si>
+    <t>CHK0167</t>
+  </si>
+  <si>
+    <t>A scheduled decision instance must refer to a default condition.</t>
+  </si>
+  <si>
+    <t>CHK0168</t>
+  </si>
+  <si>
+    <t>A scheduled decision instance is not expected to have a sub-timeline.</t>
+  </si>
+  <si>
+    <t>DDF00065</t>
+  </si>
+  <si>
+    <t>CHK0170</t>
+  </si>
+  <si>
+    <t>Within an encounter, if more environmental settings are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>environmentalSettings</t>
+  </si>
+  <si>
+    <t>CHK0171</t>
+  </si>
+  <si>
+    <t>CHK0172</t>
+  </si>
+  <si>
+    <t>A scheduled decision instance is expected to refer to a default condition.</t>
+  </si>
+  <si>
+    <t>DDF00066</t>
+  </si>
+  <si>
+    <t>CHK0173</t>
+  </si>
+  <si>
+    <t>Each defined elibility criterion must be used by at least one study population or cohort.</t>
+  </si>
+  <si>
+    <t>CHK0174</t>
+  </si>
+  <si>
+    <t>An eligility criterion must not be referenced by both a study design population and any of the cohorts of the same study design population.</t>
+  </si>
+  <si>
+    <t>CHK0176</t>
+  </si>
+  <si>
+    <t>For CDISC codelist references (where the code system is 'http://www.cdisc.org'), the code system version must be a valid CDISC terminology release date in ISO 8601 date format.</t>
+  </si>
+  <si>
+    <t>DDF00155</t>
+  </si>
+  <si>
+    <t>CHK0177</t>
+  </si>
+  <si>
+    <t>References must be a fixed value or a reference to items stored elsewhere in the data model which must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"', 'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>DDF00137</t>
+  </si>
+  <si>
+    <t>CHK0178</t>
+  </si>
+  <si>
+    <t>An activity with children must not refer to a timeline, procedure, biomedical concept, biomedical concept category or biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>CHK0179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ordering of activities (using the previous and next attributes) must include the parents (e.g. activities refering to children) preceding their children. </t>
+  </si>
+  <si>
+    <t>CHK0180</t>
+  </si>
+  <si>
+    <t>A study cell must refer to at least one element.</t>
+  </si>
+  <si>
+    <t>DDF00067</t>
+  </si>
+  <si>
+    <t>CHK0181</t>
+  </si>
+  <si>
+    <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="KlassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "ClassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>NarrativeContentItem</t>
+  </si>
+  <si>
+    <t>CHK0182</t>
+  </si>
+  <si>
+    <t>Narrative content is expected to point to a child and/or to a content item text.</t>
+  </si>
+  <si>
+    <t>children, contentItem</t>
+  </si>
+  <si>
+    <t>CHK0183</t>
+  </si>
+  <si>
+    <t>If a section number is to be displayed then a number must be specified and vice versa.</t>
+  </si>
+  <si>
+    <t>sectionNumber, displaySectionNumber</t>
+  </si>
+  <si>
+    <t>CHK0184</t>
+  </si>
+  <si>
+    <t>If a section title is to be displayed then a title must be specified and vice versa.</t>
+  </si>
+  <si>
+    <t>sectionTitle, displaySectionTitle</t>
+  </si>
+  <si>
+    <t>CHK0185</t>
+  </si>
+  <si>
+    <t>A study definition document type must be specifed according to the extensible XXX (Cnnn) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>StudyDefinitionDocument</t>
+  </si>
+  <si>
+    <t>CHK0187</t>
+  </si>
+  <si>
+    <t>A study definition document version must not be referenced more than once by the same study version.</t>
+  </si>
+  <si>
+    <t>documentVersions</t>
+  </si>
+  <si>
+    <t>CHK0188</t>
+  </si>
+  <si>
+    <t>A piece of narrative content must only reference narrative content items that have been defined within the study version as the narrative content.</t>
+  </si>
+  <si>
+    <t>contentItem</t>
+  </si>
+  <si>
+    <t>CHK0189</t>
+  </si>
+  <si>
+    <t>A study definition document version's status must be specifed using the status Value Set Terminology (C188723) DDF codelist.</t>
+  </si>
+  <si>
+    <t>StudyDefinitionDocumentVersion</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CHK0190</t>
+  </si>
+  <si>
+    <t>A study arm must only reference study populations or cohorts that are defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>DDF00050</t>
+  </si>
+  <si>
+    <t>CHK0191</t>
+  </si>
+  <si>
+    <t>All abbreviations defined for a study version must be unique.</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>CHK0192</t>
+  </si>
+  <si>
+    <t>The long names for all abbreviations defined for a study version are expected to be unique.</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>CHK0193</t>
+  </si>
+  <si>
+    <t>There must be exactly one sponsor study identifier (i.e., a study identifier whose scope is an organization that is identified as the organization for the sponsor study role).</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>CHK0194</t>
+  </si>
+  <si>
+    <t>Every identifier must be unique within the scope of an identified organization.</t>
+  </si>
+  <si>
+    <t>studyIdentifier</t>
+  </si>
+  <si>
+    <t>DDF00138</t>
+  </si>
+  <si>
+    <t>CHK0195</t>
+  </si>
+  <si>
+    <t>StudyIdentifier, ReferenceIdentifier, AdministrableProductIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0196</t>
+  </si>
+  <si>
+    <t>An identified organization is not expected to have more than one identifier for the study.</t>
+  </si>
+  <si>
+    <t>DDF00139</t>
+  </si>
+  <si>
+    <t>CHK0197</t>
+  </si>
+  <si>
+    <t>An identified organization is not expected to have more than 1 identifier for the study.</t>
+  </si>
+  <si>
+    <t>CHK0198</t>
+  </si>
+  <si>
+    <t>The minimum value of a range must be less than or equal to the maximum value of the range.</t>
+  </si>
+  <si>
+    <t>DDF00070</t>
+  </si>
+  <si>
+    <t>CHK0199</t>
+  </si>
+  <si>
+    <t>An administration's frequency must be specfied according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>CHK0200</t>
+  </si>
+  <si>
+    <t>An administration's route must be specfied according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0201</t>
+  </si>
+  <si>
+    <t>If an administration's dose is specified then a corresponding route is expected and vice versa.</t>
+  </si>
+  <si>
+    <t>dose, route</t>
+  </si>
+  <si>
+    <t>CHK0202</t>
+  </si>
+  <si>
+    <t>If a dose is specified then a corresponding frequency must also be specified.</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>CHK0203</t>
+  </si>
+  <si>
+    <t>An administrable dose form must be specfied according to the extensible Pharmaceutical Dosage Form (C66726) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>AdministrableProduct</t>
+  </si>
+  <si>
+    <t>administrableDoseForm</t>
+  </si>
+  <si>
+    <t>CHK0204</t>
+  </si>
+  <si>
+    <t>An administrable product property type must be specified according to the extensible administrable property type (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>AdministrableProductProperty</t>
+  </si>
+  <si>
+    <t>CHK0205</t>
+  </si>
+  <si>
+    <t>An organization type must be specified according to the extensible organization type (C188724) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Organization, ResearchOrganization</t>
+  </si>
+  <si>
+    <t>organizationType</t>
+  </si>
+  <si>
+    <t>DDF00140</t>
+  </si>
+  <si>
+    <t>CHK0206</t>
+  </si>
+  <si>
+    <t>DDF00141</t>
+  </si>
+  <si>
+    <t>CHK0207</t>
+  </si>
+  <si>
+    <t>CHK0208</t>
+  </si>
+  <si>
+    <t>CHK0209</t>
+  </si>
+  <si>
+    <t>A governance date type must be specified according to the extensible governance date type (C207413) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>GovernanceDate</t>
+  </si>
+  <si>
+    <t>DDF00142</t>
+  </si>
+  <si>
+    <t>CHK0210</t>
+  </si>
+  <si>
+    <t>A study amendment reason must be coded using the study amendment reason (C207415) DDF codelist.</t>
+  </si>
+  <si>
+    <t>DDF00143</t>
+  </si>
+  <si>
+    <t>CHK0211</t>
+  </si>
+  <si>
+    <t>A study geographic scope type must be specified using the geographic scope type (C207412) DDF codelist.</t>
+  </si>
+  <si>
+    <t>DDF00144</t>
+  </si>
+  <si>
+    <t>CHK0212</t>
+  </si>
+  <si>
+    <t>A unit must be coded according to the extensible unit (C71620) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Range, Quantity</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>DDF00145</t>
+  </si>
+  <si>
+    <t>CHK0213</t>
+  </si>
+  <si>
+    <t>A study title type must be specified using the study title type (C207419) DDF codelist.</t>
+  </si>
+  <si>
+    <t>StudyTitle</t>
+  </si>
+  <si>
+    <t>DDF00146</t>
+  </si>
+  <si>
+    <t>CHK0214</t>
+  </si>
+  <si>
+    <t>A reference identifier type must be specified according to the extensible reference identifier type (Cxxx) DDF codelist  (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>ReferenceIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0215</t>
+  </si>
+  <si>
+    <t>An objective level must be specified using the objective level (C188725) DDF codelist.</t>
+  </si>
+  <si>
+    <t>DDF00147</t>
+  </si>
+  <si>
+    <t>CHK0216</t>
+  </si>
+  <si>
+    <t>An endpoint level must be specified using the endpoint level (C188726) DDF codelist.</t>
+  </si>
+  <si>
+    <t>DDF00148</t>
+  </si>
+  <si>
+    <t>CHK0217</t>
+  </si>
+  <si>
+    <t>A study arm data origin type must be specified according to the extensible data origin type (C188727) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>dataOriginType</t>
+  </si>
+  <si>
+    <t>DDF00149</t>
+  </si>
+  <si>
+    <t>CHK0218</t>
+  </si>
+  <si>
+    <t>An encounter type must be specified according to the extensible encounter type (C188728) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00150</t>
+  </si>
+  <si>
+    <t>CHK0219</t>
+  </si>
+  <si>
+    <t>A referenced substance must not have any references itself.</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>referenceSubstance</t>
+  </si>
+  <si>
+    <t>CHK0220</t>
+  </si>
+  <si>
+    <t>If a dose is specified, then a corresponding administrable product must also be specified either directly or embedded in the medical device and vice versa.</t>
+  </si>
+  <si>
+    <t>dose, administrableProduct</t>
+  </si>
+  <si>
+    <t>CHK0221</t>
+  </si>
+  <si>
+    <t>If a strength denominator is specified, it must have a unit.</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>CHK0222</t>
+  </si>
+  <si>
+    <t>If geographic scope type is global then there must be only one geographic scope specified.</t>
+  </si>
+  <si>
+    <t>geographicScopes</t>
+  </si>
+  <si>
+    <t>DDF00151</t>
+  </si>
+  <si>
+    <t>CHK0223</t>
+  </si>
+  <si>
+    <t>A study cell must only reference an arm that is defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>DDF00071</t>
+  </si>
+  <si>
+    <t>CHK0224</t>
+  </si>
+  <si>
+    <t>A study cell must only reference an epoch that is defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>DDF00072</t>
+  </si>
+  <si>
+    <t>CHK0225</t>
+  </si>
+  <si>
+    <t>An activity must only reference activities that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>DDF00028</t>
+  </si>
+  <si>
+    <t>CHK0226</t>
+  </si>
+  <si>
+    <t>An encounter must only reference encounters that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>DDF00029</t>
+  </si>
+  <si>
+    <t>CHK0227</t>
+  </si>
+  <si>
+    <t>An epoch must only reference epochs that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>DDF00024</t>
+  </si>
+  <si>
+    <t>CHK0228</t>
+  </si>
+  <si>
+    <t>An activity must only reference timelines that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>DDF00152</t>
+  </si>
+  <si>
+    <t>CHK0229</t>
+  </si>
+  <si>
+    <t>Syntax template text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>DDF00086</t>
+  </si>
+  <si>
+    <t>CHK0230</t>
+  </si>
+  <si>
+    <t>Narrative content text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>DDF00085</t>
+  </si>
+  <si>
+    <t>CHK0231</t>
+  </si>
+  <si>
+    <t>Narrative content item text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>CHK0232</t>
+  </si>
+  <si>
+    <t>A planned sex must ether include a single entry of male or female or both female and male as entries.</t>
+  </si>
+  <si>
+    <t>CHK0233</t>
+  </si>
+  <si>
+    <t>Every study role must apply to either a study version or at least one study design, but not both.</t>
+  </si>
+  <si>
+    <t>StudyRole</t>
+  </si>
+  <si>
+    <t>CHK0234</t>
+  </si>
+  <si>
+    <t>A study role must not reference both assigned persons and organizations.</t>
+  </si>
+  <si>
+    <t>assignedPersons, organizations</t>
+  </si>
+  <si>
+    <t>CHK0235</t>
+  </si>
+  <si>
+    <t>A masking is not expected to be defined for any study role in a study design with an open label blinding schema.</t>
+  </si>
+  <si>
+    <t>masking</t>
+  </si>
+  <si>
+    <t>CHK0236</t>
+  </si>
+  <si>
+    <t>A masking is expected to be defined for at least two study roles in a study design with a double blind blinding schema.</t>
+  </si>
+  <si>
+    <t>CHK0237</t>
+  </si>
+  <si>
+    <t>A masking is expected to be defined for at least one study role in a study design with a blinding schema that is not open label or double blind.</t>
+  </si>
+  <si>
+    <t>CHK0238</t>
+  </si>
+  <si>
+    <t>CHK0239</t>
+  </si>
+  <si>
+    <t>Each study enrollment must apply to either a geographic scope, a study site, or a study cohort.</t>
+  </si>
+  <si>
+    <t>forStudyCohort, forStudySite, forGeographicScope</t>
+  </si>
+  <si>
+    <t>CHK0240</t>
+  </si>
+  <si>
+    <t>There must be a one-to-one relationship between referenced section number and title within a study amendment.</t>
+  </si>
+  <si>
+    <t>DocumentContentReference</t>
+  </si>
+  <si>
+    <t>sectionNumber, sectionTitle</t>
+  </si>
+  <si>
+    <t>CHK0241</t>
+  </si>
+  <si>
+    <t>A study definition document version must not be referenced more than once by the same study design.</t>
+  </si>
+  <si>
+    <t>ObservationalStudyDesign, InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>CHK0242</t>
+  </si>
+  <si>
+    <t>Each study definition document version is expected to be referenced by either a study version or a study design.</t>
+  </si>
+  <si>
+    <t>StudyVersion, ObservationalStudyDesign, InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>CHK0243</t>
+  </si>
+  <si>
+    <t>An study impact type must be specified according to the extensible study amendment impact type (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>StudyAmendmentImpact</t>
+  </si>
+  <si>
+    <t>CHK0244</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>CHK0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There must be exactly one study role with a code of sponsor. </t>
+  </si>
+  <si>
+    <t>CHK0246</t>
+  </si>
+  <si>
+    <t>The sponsor study role must point to exactly one organization.</t>
+  </si>
+  <si>
+    <t>organizations</t>
+  </si>
+  <si>
+    <t>CHK0247</t>
+  </si>
+  <si>
+    <t>The sponsor study role must be applicable to a study version.</t>
+  </si>
+  <si>
+    <t>CHK0248</t>
+  </si>
+  <si>
+    <t>Narrative content must only reference narrative content that is specified within the same study definition document version.</t>
+  </si>
+  <si>
+    <t>next, previous, children</t>
+  </si>
+  <si>
+    <t>CHK0249</t>
+  </si>
+  <si>
+    <t>An administrable product must not be referenced as both the administrable product for an administration and the embedded product of a medical device that is referenced by the same administration.</t>
+  </si>
+  <si>
+    <t>administrableProduct</t>
+  </si>
+  <si>
+    <t>CHK0250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourcing must not be defined for an administrable product which is only referenced as an embedded product for a medical device. </t>
+  </si>
+  <si>
+    <t>AdminstrableProduct</t>
+  </si>
+  <si>
+    <t>sourcing</t>
+  </si>
+  <si>
+    <t>CHK0251</t>
+  </si>
+  <si>
+    <t>A medical device identifier type must be specified according to the extensible medical device identifier type (Cxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>MedicalDeviceIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0252</t>
+  </si>
+  <si>
+    <t>An administrable product sourcing must be specified using the sourcing (Cxxx) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0253</t>
+  </si>
+  <si>
+    <t>A medical device sourcing must be specified using the sourcing (Cxxx) DDF codelist.</t>
+  </si>
+  <si>
+    <t>MedicalDevice</t>
+  </si>
+  <si>
+    <t>CHK0254</t>
+  </si>
+  <si>
+    <t>An administrable product's product designation must be specified using the product designation (C207418) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0255</t>
+  </si>
+  <si>
+    <t>A product organization role is expected to apply to at least one medical device or administrable product.</t>
+  </si>
+  <si>
+    <t>ProductOrganizationRole</t>
+  </si>
+  <si>
+    <t>CHK0256</t>
+  </si>
+  <si>
+    <t>If 'appliesTo' is specified for a product organization role, then the product organization role must only apply to medical devices or administrable products.</t>
+  </si>
+  <si>
+    <t>CHK0257</t>
+  </si>
+  <si>
+    <t>InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>CHK0258</t>
+  </si>
+  <si>
+    <t>An interventional study design's intent types must be specified according to the extensible Trial Intent Type Response (C66736) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>intentTypes</t>
+  </si>
+  <si>
+    <t>CHK0259</t>
+  </si>
+  <si>
+    <t>An interventional study design's sub types must be specified according to the extensible Trial Type Response (C66739) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>subTypes</t>
+  </si>
+  <si>
+    <t>CHK0260</t>
+  </si>
+  <si>
+    <t>CHK0261</t>
+  </si>
+  <si>
+    <t>CHK0262</t>
+  </si>
+  <si>
+    <t>A study design's characteristics must be specified according to the study design characteristics (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>InterventionalStudyDesign, ObservationalStudyDesign</t>
+  </si>
+  <si>
+    <t>CHK0263</t>
+  </si>
+  <si>
+    <t>CHK0264</t>
+  </si>
+  <si>
+    <t>Within a study design, if more sub types are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>CHK0265</t>
+  </si>
+  <si>
+    <t>CHK0266</t>
+  </si>
+  <si>
+    <t>Within a study design, if more intent types are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>CHK0267</t>
+  </si>
+  <si>
+    <t>A study design's observational model must be specified according to the extensible Observational Study Model (C127259) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>ObservationalStudyDesign</t>
+  </si>
+  <si>
+    <t>CHK0268</t>
+  </si>
+  <si>
+    <t>An observational study design's time perspective must be specified according to the extensible Observational Study Time Perspective (C127261) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>timePerspective</t>
+  </si>
+  <si>
+    <t>CHK0269</t>
+  </si>
+  <si>
+    <t>An observational study design's sampling method must be specified according to the extensible Observational Study Sampling Method (C127260) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>samplingMethod</t>
+  </si>
+  <si>
+    <t>CHK0270</t>
+  </si>
+  <si>
+    <t>A observational study design's sub types must be specified according to the (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An interventional study must be specified using the InterventionalStudyDesign class. </t>
+  </si>
+  <si>
+    <t>CHK0272</t>
+  </si>
+  <si>
+    <t>An observational study (including patient registries) must be specified using the ObservationalStudyDesign class.</t>
+  </si>
+  <si>
+    <t>CHK0273</t>
+  </si>
+  <si>
+    <t>A study design's study phase must be specified according to the extensible Trial Phase Response (C66737) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0274</t>
+  </si>
+  <si>
+    <t>A study design's study type must be specified using the Study Type Response (C99077) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>CHK0275</t>
+  </si>
+  <si>
+    <t>If a biospecimen retention indicates that a type of biospecimen is retained, then there must be an indication of whether the type of biospecimen includes DNA.</t>
+  </si>
+  <si>
+    <t>BiospecimenRetention</t>
+  </si>
+  <si>
+    <t>includesDNA</t>
+  </si>
+  <si>
+    <t>CHK0276</t>
+  </si>
+  <si>
+    <t>An observational study (including patient registries) is expected to have a study phase decode value of "NOT APPLICABLE".</t>
+  </si>
+  <si>
+    <t>CHK0277</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>CHK0278</t>
+  </si>
+  <si>
+    <t>A unit must not be specified for a planned enrollment number.</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumberQuantity, plannedEnrollmentNumberRange</t>
+  </si>
+  <si>
+    <t>CHK0279</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumberRange, plannedCompletionNumberQuantity</t>
+  </si>
+  <si>
+    <t>CHK0280</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumberRange, plannedEnrollmentNumberQuantity</t>
+  </si>
+  <si>
+    <t>CHK0281</t>
+  </si>
+  <si>
+    <t>CHK0282</t>
+  </si>
+  <si>
+    <t>If a strength numerator quantity is specified, it must have a unit.</t>
+  </si>
+  <si>
+    <t>numeratorQuantity</t>
+  </si>
+  <si>
+    <t>CHK0283</t>
+  </si>
+  <si>
+    <t>If a strength numerator range is specified, both the minValue and maxValue must have a unit.</t>
+  </si>
+  <si>
+    <t>numeratorRange</t>
+  </si>
+  <si>
+    <t>CHK0284</t>
+  </si>
+  <si>
+    <t>For each strength, either a numerator quantity or range must be specified.</t>
+  </si>
+  <si>
+    <t>numeratorQuantity, numeratorRange</t>
+  </si>
+  <si>
+    <t>CHK0285</t>
+  </si>
+  <si>
+    <t>If the unit is the same (or missing) for both the minimum and maximum value, then the minimum value must be less than the maximum value.</t>
+  </si>
+  <si>
+    <t>CHK0286</t>
+  </si>
+  <si>
+    <t>For each range, a unit must be specified either for both the minimum and the maximum value, or for neither of them.</t>
+  </si>
+  <si>
+    <t>CHK0287</t>
+  </si>
+  <si>
+    <t>A unit must not be specified for a planned completion number.</t>
+  </si>
+  <si>
+    <t>CHK0288</t>
+  </si>
+  <si>
+    <t>For planned enrollment number, both a quantity and a range must not be specified for the same study design population or study cohort.</t>
+  </si>
+  <si>
+    <t>CHK0289</t>
+  </si>
+  <si>
+    <t>For planned completion number, both a quantity and a range must not be specified for the same study design population or study cohort.</t>
+  </si>
+  <si>
+    <t>CHK0290</t>
+  </si>
+  <si>
+    <t>CHK0291</t>
+  </si>
+  <si>
+    <t>CHK0292</t>
+  </si>
+  <si>
+    <t>An eligibility criterion item must not be used more than once within a study design.</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem</t>
+  </si>
+  <si>
+    <t>CHK0293</t>
+  </si>
+  <si>
+    <t>An eligibility criterion item is expected to be used in at least one study design.</t>
+  </si>
+  <si>
+    <t>CHK0294</t>
+  </si>
+  <si>
+    <t>An eligibility criterion must be referenced by either a study design population or cohorts, not both.</t>
+  </si>
+  <si>
+    <t>CHK0295</t>
+  </si>
+  <si>
+    <t>A study cohort must only reference indications that are  defined within the same study design.</t>
+  </si>
+  <si>
+    <t>StudyCohort</t>
+  </si>
+  <si>
+    <t>indications</t>
+  </si>
+  <si>
+    <t>CHK0296</t>
+  </si>
+  <si>
+    <t>A study element must only reference study interventions that are referenced by the same study design as the study element.</t>
+  </si>
+  <si>
+    <t>CHK0297</t>
+  </si>
+  <si>
+    <t>CHK0298</t>
+  </si>
+  <si>
+    <t>An activity must only reference child activities that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0299</t>
+  </si>
+  <si>
+    <t>A primary study amendment reason is not expected to be 'not applicable'.</t>
+  </si>
+  <si>
+    <t>CHK0300</t>
+  </si>
+  <si>
+    <t>The same reason is not expected to be given as a primary and secondary reason.</t>
+  </si>
+  <si>
+    <t>A planned sex must be specified using the Sex of Participants (C66732) SDTM codelist.</t>
   </si>
 </sst>
 </file>
@@ -152,6 +2705,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,24 +3029,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H255"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I268" sqref="I268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -515,12 +3072,6341 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H19" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H36" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H41" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="H52" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H58" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H64" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H69" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H71" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H75" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H77" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="H80" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H82" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H83" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H84" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H85" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H97" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H110" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="H111" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="H116" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H127" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H128" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H129" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H130" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H131" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H137" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="H140" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H142" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H143" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H144" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H145" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H146" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H147" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H148" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H150" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H151" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H154" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H155" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H156" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H159" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H160" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H169" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H172" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H173" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H174" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H175" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H176" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H177" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H178" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H179" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H180" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H181" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H182" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H185" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H188" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H189" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H190" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H191" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H192" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H193" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H195" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H196" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H197" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H198" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H199" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H200" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H202" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H203" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H205" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H207" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H208" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H210" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H211" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H215" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H216" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H218" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H219" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H220" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H221" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H222" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H223" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H224" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H225" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H226" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H227" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H228" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H230" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H232" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H233" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H234" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H235" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H236" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H237" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H238" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H239" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H240" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H241" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H242" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H243" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H244" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H245" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H246" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H247" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H248" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H249" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H250" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H251" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H254" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H255" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H256" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H257" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H258" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H259" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H260" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H261" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H262" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H263" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H265" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H266" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H267" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H268" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H269" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H270" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H271" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H272" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H273" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H274" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H275" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H268" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H255">
-    <sortCondition ref="C8:C255"/>
-    <sortCondition ref="D8:D255"/>
-    <sortCondition ref="H8:H255"/>
+  <autoFilter ref="A1:H276" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
+    <sortCondition ref="C8:C42"/>
+    <sortCondition ref="D8:D42"/>
+    <sortCondition ref="H8:H42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverables/RULES/USDM_CORE_Rules.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.11b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE8BCB-CFAE-402F-9177-E2CE7F6DECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6120503-0404-49C7-B5FD-4AE44F4D68C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11505" yWindow="-20535" windowWidth="24855" windowHeight="18600" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-13560" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 3.0 and 3.11 CORE rules" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="838">
   <si>
     <t>Textual statement of rule</t>
   </si>
@@ -107,12 +107,6 @@
     <t>DDF00046</t>
   </si>
   <si>
-    <t>CHK0004</t>
-  </si>
-  <si>
-    <t>Within a study design, there must be at least 1 eligibility criterion that is referenced by either a study population or a cohort.</t>
-  </si>
-  <si>
     <t>StudyDesignPopulation, StudyCohort</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>CHK0005</t>
   </si>
   <si>
@@ -527,21 +518,9 @@
     <t>DDF00074</t>
   </si>
   <si>
-    <t>CHK0048</t>
-  </si>
-  <si>
-    <t>When included in text, references to items specified in the dictionary must be specified in the correct format. They must start with &lt;usdm:tag, end with either '/&gt;'', and must contain name="parametername" (where "parametername"  contain only letters, numbers or underscores).</t>
-  </si>
-  <si>
-    <t>EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>DDF00038</t>
-  </si>
-  <si>
     <t>CHK0049</t>
   </si>
   <si>
@@ -554,12 +533,6 @@
     <t>DDF00089</t>
   </si>
   <si>
-    <t>CHK0050</t>
-  </si>
-  <si>
-    <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
-  </si>
-  <si>
     <t>NarrativeContent</t>
   </si>
   <si>
@@ -647,39 +620,6 @@
     <t>DDF00014</t>
   </si>
   <si>
-    <t>CHK0061</t>
-  </si>
-  <si>
-    <t>Each specified biomedical concept category is expected to be referenced by an activity.</t>
-  </si>
-  <si>
-    <t>CHK0062</t>
-  </si>
-  <si>
-    <t>Each specified biomedical concept is expected to be referenced by an activity.</t>
-  </si>
-  <si>
-    <t>biomedicalConcepts</t>
-  </si>
-  <si>
-    <t>CHK0063</t>
-  </si>
-  <si>
-    <t>Each specified procedure is expected to be referenced by an activity.</t>
-  </si>
-  <si>
-    <t>definedProcedures</t>
-  </si>
-  <si>
-    <t>CHK0064</t>
-  </si>
-  <si>
-    <t>Each specified biomedical concept surrogate is expected to be referenced by an activity.</t>
-  </si>
-  <si>
-    <t>bcSurrogates</t>
-  </si>
-  <si>
     <t>CHK0065</t>
   </si>
   <si>
@@ -1070,12 +1010,6 @@
     <t>DDF00053</t>
   </si>
   <si>
-    <t>CHK0120</t>
-  </si>
-  <si>
-    <t>For a specified range at least a minimum or maximum value is expected.</t>
-  </si>
-  <si>
     <t>minValue, maxValue</t>
   </si>
   <si>
@@ -2616,6 +2550,9 @@
   </si>
   <si>
     <t>A planned sex must be specified using the Sex of Participants (C66732) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint, IntercurrentEvent</t>
   </si>
 </sst>
 </file>
@@ -3029,15 +2966,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FACE88-1C57-4099-A43D-8DA482706A91}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I268" sqref="I268"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" style="1" customWidth="1"/>
@@ -3098,7 +3035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3124,9 +3061,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3144,15 +3081,15 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="H4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -3170,15 +3107,15 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="H5" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3187,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -3196,15 +3133,15 @@
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -3213,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -3222,70 +3159,70 @@
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -3294,162 +3231,171 @@
         <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>512</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>211</v>
+        <v>831</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>853</v>
+        <v>655</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="H15" t="s">
-        <v>852</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>208</v>
+        <v>664</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="H16" t="s">
-        <v>207</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -3458,459 +3404,459 @@
         <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>536</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="H19" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>686</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>687</v>
+        <v>211</v>
       </c>
       <c r="H20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="H21" t="s">
-        <v>213</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>582</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>137</v>
+        <v>583</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>584</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="H22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>729</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>583</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>138</v>
+        <v>724</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="H23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>229</v>
+        <v>586</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>230</v>
+        <v>587</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>229</v>
+        <v>719</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>230</v>
+        <v>572</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>751</v>
+        <v>637</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>746</v>
+        <v>638</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>577</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>741</v>
+        <v>571</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>742</v>
+        <v>343</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>602</v>
+        <v>434</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>659</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>594</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>660</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="H31" t="s">
-        <v>658</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>598</v>
+        <v>423</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>594</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>599</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="H32" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>593</v>
+        <v>722</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>594</v>
+        <v>723</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>365</v>
+        <v>724</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>596</v>
+        <v>341</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>594</v>
+        <v>342</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>456</v>
+        <v>343</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="H34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>433</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>342</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>434</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>57</v>
+        <v>435</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>445</v>
+        <v>213</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -3919,99 +3865,102 @@
         <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>446</v>
+        <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>444</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>744</v>
+        <v>440</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>745</v>
+        <v>214</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>746</v>
+        <v>215</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="H37" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>364</v>
+        <v>183</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H38" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>455</v>
+        <v>189</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>364</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>456</v>
+        <v>191</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>457</v>
+        <v>192</v>
       </c>
       <c r="H39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -4020,24 +3969,24 @@
         <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="H40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>462</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
@@ -4046,50 +3995,73 @@
         <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>463</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>461</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>368</v>
+        <v>780</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>192</v>
+        <v>781</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>369</v>
+        <v>782</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="H42" t="s">
-        <v>367</v>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H43" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -4098,24 +4070,24 @@
         <v>12</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>180</v>
+        <v>506</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -4124,24 +4096,24 @@
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>183</v>
+        <v>507</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -4150,73 +4122,125 @@
         <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>802</v>
+        <v>302</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>803</v>
+        <v>303</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>804</v>
+        <v>304</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="H49" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>290</v>
+        <v>694</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>154</v>
+        <v>695</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>291</v>
+        <v>696</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="H50" t="s">
-        <v>289</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>153</v>
+        <v>329</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
@@ -4225,177 +4249,168 @@
         <v>12</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="H51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>528</v>
+        <v>817</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>155</v>
+        <v>818</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="H52" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>820</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>818</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="H53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="H54" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>372</v>
+        <v>667</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>373</v>
+        <v>668</v>
       </c>
       <c r="H55" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>323</v>
+        <v>837</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="H56" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>717</v>
+        <v>837</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>718</v>
+        <v>159</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>351</v>
+        <v>443</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
@@ -4404,194 +4419,252 @@
         <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>353</v>
+        <v>445</v>
       </c>
       <c r="H58" t="s">
-        <v>350</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H59" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>839</v>
+        <v>320</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>840</v>
+        <v>321</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="H60" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>842</v>
+        <v>480</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>840</v>
+        <v>321</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="H61" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>480</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>165</v>
+        <v>496</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>689</v>
+        <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>690</v>
+        <v>144</v>
       </c>
       <c r="H64" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>163</v>
+        <v>658</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>166</v>
+        <v>659</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>168</v>
+        <v>419</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>165</v>
+        <v>420</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G66" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="H66" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>689</v>
+        <v>630</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G67" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="H67" t="s">
-        <v>837</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>465</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>466</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
@@ -4600,24 +4673,24 @@
         <v>12</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>467</v>
+        <v>122</v>
       </c>
       <c r="H68" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>505</v>
+        <v>241</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>466</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
@@ -4626,122 +4699,128 @@
         <v>12</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>506</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>504</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>340</v>
+        <v>623</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>341</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>342</v>
+        <v>624</v>
       </c>
       <c r="H70" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>502</v>
+        <v>222</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>503</v>
+        <v>225</v>
       </c>
       <c r="H71" t="s">
-        <v>501</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>517</v>
+        <v>605</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>518</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G72" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="H72" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>502</v>
+        <v>644</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>146</v>
+        <v>599</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>518</v>
+        <v>645</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G73" s="2" t="s">
+        <v>646</v>
+      </c>
       <c r="H73" t="s">
-        <v>519</v>
+        <v>643</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>598</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>599</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
@@ -4750,24 +4829,24 @@
         <v>12</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>147</v>
+        <v>600</v>
       </c>
       <c r="H74" t="s">
-        <v>144</v>
+        <v>597</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>680</v>
+        <v>472</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>473</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>138</v>
+        <v>474</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
@@ -4776,871 +4855,922 @@
         <v>12</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>681</v>
+        <v>475</v>
       </c>
       <c r="H75" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>441</v>
+        <v>376</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>146</v>
+        <v>741</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="H76" t="s">
-        <v>440</v>
+        <v>750</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>146</v>
+        <v>741</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>104</v>
+        <v>745</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="H77" t="s">
-        <v>651</v>
+        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>759</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>124</v>
+        <v>741</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>120</v>
+        <v>745</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="H78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>124</v>
+        <v>741</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>120</v>
+        <v>742</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="H79" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>645</v>
+        <v>372</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>124</v>
+        <v>741</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>120</v>
+        <v>742</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="H80" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>242</v>
+        <v>772</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>243</v>
+        <v>741</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="H81" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>627</v>
+        <v>747</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>243</v>
+        <v>741</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>104</v>
+        <v>748</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="H82" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>621</v>
+        <v>753</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>667</v>
+        <v>381</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="H83" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>620</v>
+        <v>459</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>621</v>
+        <v>753</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="H84" t="s">
-        <v>619</v>
+        <v>754</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>494</v>
+        <v>756</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>495</v>
+        <v>753</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>496</v>
+        <v>748</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="H85" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>766</v>
+        <v>384</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>763</v>
+        <v>385</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>767</v>
+        <v>338</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G87" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="H87" t="s">
-        <v>765</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>781</v>
+        <v>731</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>767</v>
+        <v>724</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>158</v>
+        <v>726</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>764</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>394</v>
+        <v>522</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>763</v>
+        <v>164</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>764</v>
+        <v>523</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>794</v>
+        <v>537</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>763</v>
+        <v>164</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>769</v>
+        <v>716</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>763</v>
+        <v>164</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>770</v>
+        <v>717</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>774</v>
+        <v>277</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>775</v>
+        <v>164</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>403</v>
+        <v>278</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G93" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="H93" t="s">
-        <v>773</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>775</v>
+        <v>164</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>403</v>
+        <v>526</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>776</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>775</v>
+        <v>164</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>770</v>
+        <v>529</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>777</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>775</v>
+        <v>164</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>488</v>
+        <v>159</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="H96" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>406</v>
+        <v>670</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>407</v>
+        <v>164</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>360</v>
+        <v>159</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>408</v>
+        <v>671</v>
       </c>
       <c r="H97" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>753</v>
+        <v>519</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>754</v>
+        <v>520</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>746</v>
+        <v>159</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>748</v>
+        <v>673</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>749</v>
+        <v>520</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>747</v>
+        <v>672</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>544</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>545</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G100" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H100" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>560</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G101" s="2" t="s">
+        <v>621</v>
+      </c>
       <c r="H101" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>173</v>
+        <v>762</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>297</v>
+        <v>767</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>173</v>
+        <v>762</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>298</v>
+        <v>768</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="H103" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>547</v>
+        <v>770</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>173</v>
+        <v>762</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>548</v>
+        <v>748</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>546</v>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>550</v>
+        <v>698</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>173</v>
+        <v>699</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>172</v>
+        <v>776</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>173</v>
+        <v>699</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>171</v>
+        <v>775</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>459</v>
+        <v>778</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>173</v>
+        <v>699</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>165</v>
+        <v>357</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="H110" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>692</v>
+        <v>589</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>173</v>
+        <v>707</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>693</v>
+        <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>165</v>
+        <v>591</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="H112" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>695</v>
+        <v>388</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>542</v>
+        <v>389</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>165</v>
+        <v>390</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G113" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="H113" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>118</v>
+        <v>509</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
@@ -5649,24 +5779,50 @@
         <v>12</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>121</v>
+        <v>510</v>
       </c>
       <c r="H114" t="s">
-        <v>117</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H115" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>642</v>
+        <v>263</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
@@ -5675,280 +5831,292 @@
         <v>12</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>643</v>
+        <v>264</v>
       </c>
       <c r="H116" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>783</v>
+        <v>736</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>784</v>
+        <v>737</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>764</v>
+        <v>83</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>784</v>
+        <v>737</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>790</v>
+        <v>83</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>806</v>
+        <v>608</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>81</v>
+        <v>610</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H119" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H121" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="B122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>784</v>
+        <v>57</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>787</v>
+        <v>323</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>721</v>
+        <v>57</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>557</v>
+        <v>323</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>798</v>
+        <v>608</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>721</v>
+        <v>609</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>81</v>
+        <v>610</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="H124" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>800</v>
+        <v>617</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>721</v>
+        <v>618</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>379</v>
+        <v>101</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>611</v>
+        <v>295</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>729</v>
+        <v>68</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G126" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="H126" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>611</v>
+        <v>252</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>612</v>
+        <v>68</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>613</v>
+        <v>253</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>614</v>
+        <v>254</v>
       </c>
       <c r="H127" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>412</v>
+        <v>253</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
@@ -5957,24 +6125,24 @@
         <v>12</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="H128" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>531</v>
+        <v>266</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
@@ -5983,24 +6151,24 @@
         <v>12</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>532</v>
+        <v>268</v>
       </c>
       <c r="H129" t="s">
-        <v>530</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
@@ -6009,24 +6177,24 @@
         <v>12</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="H130" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>12</v>
@@ -6035,93 +6203,102 @@
         <v>12</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="H131" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>758</v>
+        <v>274</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>759</v>
+        <v>68</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G132" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="H132" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>761</v>
+        <v>67</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>759</v>
+        <v>68</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G133" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H133" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>630</v>
+        <v>401</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>808</v>
+        <v>292</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>632</v>
+        <v>402</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G134" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="H134" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>12</v>
@@ -6130,298 +6307,292 @@
         <v>12</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="H135" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>344</v>
+        <v>490</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>60</v>
+        <v>487</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>343</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>590</v>
+        <v>499</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>60</v>
+        <v>487</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>591</v>
+        <v>500</v>
       </c>
       <c r="H137" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>827</v>
+        <v>492</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>60</v>
+        <v>487</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="H138" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>829</v>
+        <v>486</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>60</v>
+        <v>487</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="H139" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>630</v>
+        <v>307</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>631</v>
+        <v>96</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>632</v>
+        <v>308</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>633</v>
+        <v>309</v>
       </c>
       <c r="H140" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H141" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
         <v>639</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H142" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>272</v>
+        <v>796</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>71</v>
+        <v>641</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>273</v>
+        <v>797</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="H143" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>415</v>
+        <v>802</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>71</v>
+        <v>641</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>273</v>
+        <v>803</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="H144" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>286</v>
+        <v>799</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>71</v>
+        <v>641</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>287</v>
+        <v>800</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="H145" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>319</v>
+        <v>704</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>71</v>
+        <v>705</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>287</v>
+        <v>101</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="H146" t="s">
-        <v>318</v>
+        <v>703</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>114</v>
+        <v>602</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
@@ -6430,102 +6601,96 @@
         <v>12</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>116</v>
+        <v>603</v>
       </c>
       <c r="H147" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>294</v>
+        <v>833</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="H148" t="s">
-        <v>293</v>
+        <v>832</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>70</v>
+        <v>835</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H149" t="s">
-        <v>69</v>
+        <v>834</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>423</v>
+        <v>86</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>424</v>
+        <v>88</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>425</v>
+        <v>89</v>
       </c>
       <c r="H150" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>311</v>
+        <v>626</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>273</v>
+        <v>627</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
@@ -6534,151 +6699,232 @@
         <v>12</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>313</v>
+        <v>628</v>
       </c>
       <c r="H151" t="s">
-        <v>310</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H152" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>424</v>
+        <v>206</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G153" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="H153" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>521</v>
+        <v>648</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>509</v>
+        <v>125</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>424</v>
+        <v>649</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>522</v>
+        <v>650</v>
       </c>
       <c r="H154" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>514</v>
+        <v>124</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>509</v>
+        <v>125</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>515</v>
+        <v>127</v>
       </c>
       <c r="H155" t="s">
-        <v>513</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>508</v>
+        <v>260</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>509</v>
+        <v>125</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>510</v>
+        <v>261</v>
       </c>
       <c r="H156" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H157" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>327</v>
+        <v>516</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>329</v>
+        <v>517</v>
       </c>
       <c r="H159" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>98</v>
+        <v>652</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>12</v>
@@ -6687,367 +6933,445 @@
         <v>12</v>
       </c>
       <c r="G160" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H160" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H160" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>662</v>
+        <v>227</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>664</v>
+        <v>229</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H163" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>818</v>
+        <v>238</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>819</v>
+        <v>229</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H164" t="s">
-        <v>817</v>
+        <v>596</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>824</v>
+        <v>540</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>663</v>
+        <v>541</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>825</v>
+        <v>542</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>821</v>
+        <v>376</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>663</v>
+        <v>156</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>822</v>
+        <v>377</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="H166" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H167" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>726</v>
+        <v>459</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>727</v>
+        <v>156</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="H168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>624</v>
+        <v>372</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>244</v>
+        <v>373</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>625</v>
+        <v>374</v>
       </c>
       <c r="H169" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>855</v>
+        <v>155</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="H170" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>857</v>
+        <v>155</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H171" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>89</v>
+        <v>465</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>91</v>
+        <v>466</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>92</v>
+        <v>467</v>
       </c>
       <c r="H172" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>648</v>
+        <v>364</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>649</v>
+        <v>365</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>650</v>
+        <v>366</v>
       </c>
       <c r="H173" t="s">
-        <v>647</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>224</v>
+        <v>469</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="H174" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>566</v>
+        <v>368</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>226</v>
+        <v>369</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>567</v>
+        <v>370</v>
       </c>
       <c r="H175" t="s">
-        <v>565</v>
+        <v>367</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>670</v>
+        <v>462</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>671</v>
+        <v>369</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>672</v>
+        <v>463</v>
       </c>
       <c r="H176" t="s">
-        <v>669</v>
+        <v>461</v>
       </c